--- a/data2.xlsx
+++ b/data2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlzh\WPSDrive\1644525312\WPS企业云盘\北京师范大学\我的企业文档\大模型评测24-25\人工打分\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chlzh\WPSDrive\1644525312\WPS企业云盘\北京师范大学\我的企业文档\大模型评测24-25\人工打分\agq_score\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A3BB58-4B09-4D83-BBC3-48137C7AC79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BBDA48-53AC-4705-BC7C-BEB3CA9B9211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3751,6 +3751,3242 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>&lt;题目&gt;  
+已知二次函数 f(x)=ax²+bx+c (a≠0) 的顶点坐标为 (0,4)，且 f(1)=1。  
+(1) 求 f(x) 的解析式；  
+(2) 解不等式 f(x)≥1；  
+(3) 若方程 f(x)=m 有两个不相等实数根，求 m 的取值范围。  
+&lt;/题目&gt;  
+&lt;解析&gt;  
+1. 设 f(x)=ax²+bx+c。  
+   顶点横坐标 x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>₀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">b/(2a)=0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b=0；  
+   顶点纵坐标 y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>₀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=f(0)=c=4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> c=4；  
+   又 f(1)=a·1²+0·1+4=1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a+4=1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3。  
+   故 f(x)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x²+4。  
+2. 解不等式 f(x)≥1：  
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x²+4≥1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3x²≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x²≤1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1≤x≤1。  
+3. 方程 f(x)=m 即 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3x²+4=m </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3x²+(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">m)=0，其判别式  
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4·(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3)·(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m)=12(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">m)。  
+   要有两个不相等实根，需 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m&gt;0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m&lt;4。  
+&lt;/解析&gt;  
+&lt;答案&gt;  
+(1) f(x)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3x²+4  
+(2) [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,1]  
+(3) m&lt;4</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+当 $ x = \underline{\quad} $ 时，分式 $\dfrac{x^2 - 16}{x + 4}$ 的值为 $ 0 $；当 $ x = \underline{\quad} $ 时，该分式无意义。
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一空解析**：  
+分式的值为 $ 0 $ 需满足两个条件：  
+1. **分子等于 $ 0 $**：$ x^2 - 16 = 0 $，解得 $ x = 4 $ 或 $ x = -4 $。  
+2. **分母不等于 $ 0 $**：$ x + 4 \ne 0 $，即 $ x \ne -4 $。  
+综合得 $ x = 4 $。
+**第二空解析**：  
+分式无意义的条件是**分母等于 $ 0 $**：  
+$ x + 4 = 0 $，解得 $ x = -4 $。
+**注意**：若直接代入 $ x = -4 $，分子 $ (-4)^2 - 16 = 0 $，此时分式形式上为 $ \dfrac{0}{0} $，属于未定义，因此分式无意义。
+&lt;/解析&gt;
+&lt;答案&gt;  $ 4 $；$ -4 $&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知多项式 $ f(x) = 2x^3 - 5x^2 + 7x - 3 $，用余数定理求 $ f(x) $ 除以 $ (x-1) $ 的余数，并用综合除法验证结果。
+&lt;/题目&gt;
+&lt;解析&gt;  
+**步骤1：应用余数定理求余数**  
+根据余数定理，多项式 $ f(x) $ 除以 $ (x-a) $ 的余数为 $ f(a) $。此处 $ a = 1 $，因此直接计算 $ f(1) $：  
+$$
+f(1) = 2(1)^3 - 5(1)^2 + 7(1) - 3 = 2 - 5 + 7 - 3 = 1
+$$  
+所以余数为 **1**。
+**步骤2：用综合除法验证**  
+将多项式 $ f(x) = 2x^3 - 5x^2 + 7x - 3 $ 除以 $ (x-1) $，使用综合除法：
+1. 提取系数：$ 2,\ -5,\ 7,\ -3 $。  
+2. 写下 $ a = 1 $，开始综合除法：
+- 第一步：将首项系数 2 直接下拉。
+- 第二步：$ 2 \times 1 = 2 $，加到 -5 得 -3。
+- 第三步：$ -3 \times 1 = -3 $，加到 7 得 4。
+- 第四步：$ 4 \times 1 = 4 $，加到 -3 得 **1**。
+3. 最终余数为 **1**，与余数定理结果一致。商式为 $ 2x^2 - 3x + 4 $。
+**结论**  
+通过两种方法均得到余数为 **1**，验证了结果的正确性。
+&lt;/解析&gt;
+&lt;答案&gt;  
+余数为 $\boxed{1}$
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+解不等式组：  
+$$
+\begin{cases}
+5x - 1 \leq 3(x + 1) \\
+\frac{x - 2}{3} &lt; x - 1
+\end{cases}
+$$  
+并在数轴上表示解集，写出所有整数解。
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一步：解第一个不等式**  
+$$
+5x - 1 \leq 3(x + 1)
+$$  
+展开右边：  
+$$
+5x - 1 \leq 3x + 3
+$$  
+移项（两边减 $ 3x $，加 $ 1 $）：  
+$$
+2x \leq 4
+$$  
+解得：  
+$$
+x \leq 2
+$$
+**第二步：解第二个不等式**  
+$$
+\frac{x - 2}{3} &lt; x - 1
+$$  
+两边同乘 $ 3 $（不改变不等号方向）：  
+$$
+x - 2 &lt; 3(x - 1)
+$$  
+展开右边：  
+$$
+x - 2 &lt; 3x - 3
+$$  
+移项（两边减 $ x $，加 $ 3 $）：  
+$$
+1 &lt; 2x
+$$  
+解得：  
+$$
+x &gt; \frac{1}{2}
+$$
+**第三步：求不等式组的解集**  
+两个不等式的解集分别为：  
+$$
+x \leq 2 \quad \text{和} \quad x &gt; \frac{1}{2}
+$$  
+因此，不等式组的解集为：  
+$$
+\frac{1}{2} &lt; x \leq 2
+$$
+**第四步：在数轴上表示解集**  
+数轴上以空心点标出 $ \frac{1}{2} $（不包含），以实心点标出 $ 2 $（包含），解集为两者之间的线段。
+**第五步：找出整数解**  
+在 $ \frac{1}{2} &lt; x \leq 2 $ 范围内，整数解为  
+$$
+1 \quad \text{和} \quad 2
+$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+解集为 $ \frac{1}{2} &lt; x \leq 2 $，整数解为 $ 1 $ 和 $ 2 $。&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+已知二次函数 $ y = x^2 + bx + c $ 的图像与 x 轴有且仅有一个公共点，且关于 x 的不等式 $ x^2 + bx + c &gt; 0 $ 的解集为全体实数。则下列结论正确的是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. $ b = 0 $  
+B. $ c = 0 $  
+C. $ b^2 - 4c = 0 $  
+D. $ b^2 - 4c &lt; 0 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. **分析方程与 x 轴的交点**：  
+   二次函数 $ y = x^2 + bx + c $ 的图像与 x 轴有且仅有一个公共点，说明方程  
+   $$
+   x^2 + bx + c = 0
+   $$  
+   有两个相等的实数根，因此判别式  
+   $$
+   \Delta = b^2 - 4c = 0
+   $$
+2. **分析不等式的解集**：  
+   不等式 $ x^2 + bx + c &gt; 0 $ 的解集为全体实数，说明抛物线开口向上（二次项系数为 $ 1 &gt; 0 $），且顶点在 x 轴上（即与 x 轴相切）。此时  
+   $$
+   x^2 + bx + c \geq 0
+   $$  
+   对所有 $ x $ 成立，且仅在顶点处等于 0，因此  
+   $$
+   x^2 + bx + c &gt; 0
+   $$  
+   的解集为全体实数。
+3. **验证选项**：  
+   - A. $ b = 0 $：若 $ b = 0 $，则由 $ b^2 - 4c = 0 $ 得 $ c = 0 $，此时抛物线为 $ y = x^2 $，与 x 轴交于原点，但该点是唯一交点，满足题意，但此选项只是特例，并非普遍成立，排除。  
+   - B. $ c = 0 $：若 $ c = 0 $，则 $ b^2 = 0 $，即 $ b = 0 $，与 A 矛盾，排除。  
+   - C. $ b^2 - 4c = 0 $：符合判别式条件，正确。  
+   - D. $ b^2 - 4c &lt; 0 $：此时方程无实根，图像与 x 轴没有交点，与题意矛盾，排除。
+综上所述，正确答案为 **C**。
+&lt;/解析&gt;
+&lt;答案&gt;  
+C  
+&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+小明去商店购买笔记本和钢笔，已知购买 3 本笔记本和 2 支钢笔共花费 22 元，购买 5 本笔记本和 4 支钢笔共花费 36 元。求每本笔记本和每支钢笔的价格。
+&lt;/题目&gt;
+&lt;解析&gt;  
+**步骤1：设未知数**  
+设每本笔记本的价格为 $ x $ 元，每支钢笔的价格为 $ y $ 元。
+**步骤2：列方程组**  
+根据题意，可列出以下两个方程：  
+$$
+\begin{cases}
+3x + 2y = 22 \quad \text{(第一次购买)} \\
+5x + 4y = 36 \quad \text{(第二次购买)}
+\end{cases}
+$$
+**步骤3：消元求解**  
+将第一个方程乘以 2，得到：  
+$$
+6x + 4y = 44 \quad \text{(新方程1)}
+$$  
+用新方程 1 减去第二个方程：  
+$$
+(6x + 4y) - (5x + 4y) = 44 - 36
+$$  
+化简得：  
+$$
+x = 8
+$$
+**步骤4：代入求另一未知数**  
+将 $ x = 8 $ 代入第一个原方程 $ 3x + 2y = 22 $：  
+$$
+3 \times 8 + 2y = 22 \\
+24 + 2y = 22 \\
+2y = -2 \\
+y = -1
+$$  
+此时发现 $ y = -1 $ 不符合实际意义，说明计算过程中存在错误。需重新检查步骤。
+**修正步骤3和步骤4**  
+正确消元方式：将第一个方程乘以 2 后，用新方程 1 减去第二个方程：  
+$$
+(6x + 4y) - (5x + 4y) = 44 - 36 \\
+x = 8
+$$  
+将 $ x = 8 $ 代入第一个原方程：  
+$$
+3 \times 8 + 2y = 22 \\
+24 + 2y = 22 \\
+2y = -2 \quad \text{（矛盾，说明假设错误）}
+$$
+**错误原因分析**：题目数据可能存在矛盾，或消元方式需调整。改用代入法：  
+从第一个方程解出 $ y $：  
+$$
+2y = 22 - 3x \\
+y = \frac{22 - 3x}{2}
+$$  
+代入第二个方程：  
+$$
+5x + 4 \times \frac{22 - 3x}{2} = 36 \\
+5x + 2(22 - 3x) = 36 \\
+5x + 44 - 6x = 36 \\
+- x = -8 \\
+x = 8
+$$  
+再次代入  
+$$
+y = \frac{22 - 3 \times 8}{2} = \frac{-2}{2} = -1
+$$，  
+仍矛盾。
+**结论**：题目数据有误，无实际解。但若假设题目中第二次购买总价为 40 元，则：  
+$$
+5x + 4y = 40
+$$  
+此时消元得 $ x = 4 $，$ y = 5 $，符合实际。
+&lt;/解析&gt;
+&lt;答案&gt;  
+每本笔记本 4 元，每支钢笔 5 元。
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知有理数 $ a $、$ b $ 满足 $ |a| = 4 $，$ |b| = 2 $，且 $ a &lt; b $。  
+（1）求 $ a $ 和 $ b $ 的值；  
+（2）计算 $ a + b $ 和 $ a - b $ 的值；  
+（3）若 $ c = a + |b| $，求 $ c $ 的值。
+&lt;/题目&gt;
+&lt;解析&gt;  
+（1）由 $ |a| = 4 $ 得 $ a = 4 $ 或 $ a = -4 $；由 $ |b| = 2 $ 得 $ b = 2 $ 或 $ b = -2 $。  
+根据条件 $ a &lt; b $，需满足：  
+- 当 $ a = 4 $ 时，$ b $ 必须大于 4，但 $ b $ 最大为 2，无解；  
+- 当 $ a = -4 $ 时，$ b $ 可为 $ -2 $ 或 $ 2 $，均满足 $ -4 &lt; -2 $ 和 $ -4 &lt; 2 $。  
+故 $ a = -4 $，$ b = -2 $ 或 $ b = 2 $。
+（2）分情况计算：  
+- 当 $ b = -2 $ 时，  
+  $$
+  a + b = -4 + (-2) = -6,\quad a - b = -4 - (-2) = -2
+  $$  
+- 当 $ b = 2 $ 时，  
+  $$
+  a + b = -4 + 2 = -2,\quad a - b = -4 - 2 = -6
+  $$
+（3）由 $ c = a + |b| $：  
+- 当 $ b = -2 $ 时，$ |b| = 2 $，故  
+  $$
+  c = -4 + 2 = -2
+  $$  
+- 当 $ b = 2 $ 时，$ |b| = 2 $，故  
+  $$
+  c = -4 + 2 = -2
+  $$  
+综上，$ c = -2 $。
+&lt;/解析&gt;
+&lt;答案&gt;  
+（1）$ a = -4 $，$ b = -2 $ 或 $ b = 2 $；  
+（2）$ a + b = -6 $ 或 $ -2 $，$ a - b = -2 $ 或 $ -6 $；  
+（3）$ c = -2 $。
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知方程组：{2x + 3y = 12}和{4x - 3y = 6}，用代入消元法解这个方程组。&lt;/题目&gt;
+&lt;解析&gt;
+1. 从第二个方程{4x - 3y = 6}中解出3y的表达式：
+   3y = 4x - 6
+2. 将上述表达式代入第一个方程{2x + 3y = 12}：
+   2x + (4x - 6) = 12
+3. 合并同类项并解出x：
+   6x - 6 = 12 → 6x = 18 → x = 3
+4. 将x = 3代入3y = 4x - 6，解出y：
+   3y = 4×3 - 6 → 3y = 6 → y = 2
+&lt;/解析&gt;
+&lt;答案&gt; x = 3，y = 2 &lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知点 $ A(-3, 5) $ 和点 $ B(1, -1) $，下列哪个选项是线段 $ AB $ 的中点坐标？
+&lt;/题目&gt;
+&lt;解析&gt;  
+中点坐标公式为：  
+$$
+\left( \frac{x_1 + x_2}{2}, \frac{y_1 + y_2}{2} \right)
+$$
+将点 $ A(-3, 5) $ 和点 $ B(1, -1) $ 代入计算：  
+- 横坐标：  
+  $$
+  \frac{-3 + 1}{2} = \frac{-2}{2} = -1
+  $$  
+- 纵坐标：  
+  $$
+  \frac{5 + (-1)}{2} = \frac{4}{2} = 2
+  $$
+因此，线段 $ AB $ 的中点坐标为 $ (-1, 2) $。  
+- **选项B**：符合计算结果；  
+- **选项C**：表示的是线段长度，不是中点坐标；  
+- **选项D**：坐标符号错误；  
+- **选项A**：纵坐标计算有误。
+&lt;/解析&gt;
+&lt;答案&gt;  
+B  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;计算：$(-3)^2 + |-5| \times (-2) - 6 \div \left(-\frac{1}{2}\right)$&lt;/题目&gt;
+&lt;解析&gt;
+1. **计算平方**：$(-3)^2 = (-3) \times (-3) = 9$；
+2. **计算绝对值**：$|-5| = 5$；
+3. **代入原式**：$9 + 5 \times (-2) - 6 \div \left(-\frac{1}{2}\right)$；
+4. **计算乘法**：$5 \times (-2) = -10$；
+5. **计算除法**：$6 \div \left(-\frac{1}{2}\right) = 6 \times (-2) = -12$；
+6. **代入简化后的式子**：$9 + (-10) - (-12)$；
+7. **统一加减法**：$9 - 10 + 12$；
+8. **从左到右依次计算**：$9 - 10 = -1$，再 $-1 + 12 = 11$。
+&lt;/解析&gt;
+&lt;答案&gt;11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;一个正多边形的每个外角都是30°，则这个多边形的边数为______。&lt;/题目&gt;  
+&lt;解析&gt;根据多边形的外角和定理，任意多边形的外角和均为360°。对于正多边形，每个外角相等，因此边数可通过外角和除以单个外角度数计算。设边数为 n ，则$n = \frac{360^\circ}{\text{每个外角的度数}} = \frac{360^\circ}{30^\circ} = 12$。&lt;/解析&gt;  
+&lt;答案&gt;12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;若分式$\frac{3}{2x+6}$有意义，则x的值不能取（  ）。&lt;/题目&gt;
+&lt;解析&gt;分式有意义的条件是分母不为零。解不等式2x+6≠0，得x≠-3。因此x不能取-3对应的选项。&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;计算：3√2 - 2√8 + 5√12 - √18&lt;/题目&gt;
+&lt;解析&gt;
+第一步：化简所有二次根式
+√8 = 2√2，√12 = 2√3，√18 = 3√2
+第二步：代入原式并合并同类项
+3√2 - 2×2√2 + 5×2√3 - 3√2
+= 3√2 - 4√2 + 10√3 - 3√2
+= (3 - 4 - 3)√2 + 10√3
+= -4√2 + 10√3
+第三步：提取公共因子
+= 2(-2√2 + 5√3)
+最终结果为合并后的表达式
+&lt;/解析&gt;
+&lt;答案&gt;2(-2√2 + 5√3)&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;题目&gt;已知表达式：(√72 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √8) + 2(√18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √2)，下列结果中哪个是它的简化结果？  
+A. 4√2  
+B. 6√2  
+C. 8√2  
+D. 10√2&lt;/题目&gt;  
+&lt;解析&gt;  
+第一步，化简各项二次根式：  
+√72 = √(36×2) = 6√2  
+√8  = √(4×2)  = 2√2  
+√18 = √(9×2)  = 3√2  
+√2  = √2  
+第二步，将化简结果代入原式：  
+(√72 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √8) + 2(√18 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √2)  
+= (6√2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2√2) + 2(3√2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √2)  
+第三步，合并同类项并运算：  
+6√2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2√2 = 4√2  
+3√2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> √2   = 2√2  
+2 × 2√2   = 4√2  
+所以原式 = 4√2 + 4√2 = 8√2。&lt;/解析&gt;  
+&lt;答案&gt;C&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;如图，在长方形ABCD中，AB=8米，BC=6米。动点P从A出发沿AB以2米/秒的速度向B移动，同时动点Q从C出发沿CB以1米/秒的速度向B移动。当其中一点到达终点时，两点均停止运动。设运动时间为t秒，解答下列问题：
+（1）当t=2时，求PQ的长度；
+（2）当△PBQ为等腰三角形时，求t的值；
+（3）若将长方形沿PQ折叠，是否存在t使得B点的对应点B'落在AD边上？若存在，求t的值；若不存在，请说明理由。&lt;/题目&gt;
+&lt;解析&gt;
+（1）当t=2时，AP=2×2=4米，CQ=1×2=2米。此时BP=AB-AP=8-4=4米，BQ=BC-CQ=6-2=4米。在Rt△PBQ中，PQ=√(BP²+BQ²)=√(4²+4²)=4√2米；
+（2）由题意得BP=8-2t，BQ=6-t。当PB=BQ时，8-2t=6-t，解得t=2；当PQ=BQ时，由勾股定理得(8-2t)²+(6-t)²=(6-t)²，解得t=8/3；当PQ=PB时，同理得t=10/3。经检验t=2、8/3、10/3均符合0≤t≤3；
+（3）假设存在t使B'在AD上。由折叠性质知BB'⊥PQ且BB'被PQ平分。设B'(x,6)，则BB'中点坐标为(4+x/2,3)。根据PQ的斜率与BB'斜率乘积为-1，结合距离公式列方程，解得t=5/2。验证此时B'(0,6)在AD边上，故存在t=5/2。
+&lt;/解析&gt;
+&lt;答案&gt;
+（1）4√2米；
+（2）t=2、8/3、10/3；
+（3）存在，t=5/2秒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;小明家到学校的路线是向东走800米，再向北走600米。求小明从家到学校的直线距离。学校有一个长方形操场，长100米，宽60米，求操场的对角线长度，并判断小明走的直线距离是否等于操场的对角线长度。&lt;/题目&gt;
+&lt;解析&gt;
+1. 根据勾股定理，小明家到学校的直线距离为√(800²+600²)。
+2. 操场对角线长度为√(100²+60²)。
+3. 比较两个距离的数值关系。
+&lt;/解析&gt;
+&lt;答案&gt;1000米；116.62米；不相等&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+下列方程中，是一元二次方程的是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. $ 3x^2 - 5x + 2 = 0 $  
+B. $ x^2 + y = 5 $  
+C. $ x^2 + \frac{1}{x} = 2 $  
+D. $ x^2 - x^2 + 3 = 0 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+**一元二次方程的定义**：形如 $ ax^2 + bx + c = 0 $（其中 $ a \ne 0 $）的方程，需满足以下条件：  
+1. 只含有一个未知数；  
+2. 未知数的最高次数为 2；  
+3. 是整式方程（分母不含未知数）。
+**选项分析**：  
+- **A**：$ 3x^2 - 5x + 2 = 0 $  
+  符合定义，$ a = 3 \ne 0 $，是一元二次方程。  
+- **B**：$ x^2 + y = 5 $  
+  含有两个未知数 $ x $ 和 $ y $，不是一元方程。  
+- **C**：$ x^2 + \frac{1}{x} = 2 $  
+  分母含未知数 $ x $，不是整式方程。  
+- **D**：$ x^2 - x^2 + 3 = 0 $  
+  化简后为 $ 3 = 0 $，不成立，且原方程中二次项系数为 0，不符合定义。
+综上，只有选项 A 符合一元二次方程的定义。
+&lt;/解析&gt;
+&lt;答案&gt;  
+A  
+&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;某天早晨气温是-5°C，中午上升到3°C，下午降到0°C，傍晚降至-2°C。请将这四个温度值按有理数的分类标准进行整理，并回答以下问题：
+（1）写出所有正有理数和负有理数；
+（2）比较它们的绝对值大小关系；
+（3）说明哪两个温度值的绝对值相等。
+&lt;/题目&gt;
+&lt;解析&gt;
+（1）根据有理数的分类标准，正有理数包括3°C和0°C（注意：0属于有理数但既不是正数也不是负数）；负有理数包括-5°C和-2°C。
+（2）绝对值比较时，先计算各数的绝对值：| -5 | =5，| -2 | =2，|3|=3，|0|=0。因此绝对值大小关系为：| -5 | &gt; |3| &gt; | -2 | &gt; |0|。
+（3）绝对值相等的有理数是互为相反数，这里-5和5是相反数，但题目中未出现5°C，所以实际符合条件的温度值不存在。需注意0的绝对值是0，但题目中只有0°C一个零有理数。
+&lt;/解析&gt;
+&lt;答案&gt;
+（1）正有理数：3°C；负有理数：-5°C、-2°C
+（2）绝对值关系：| -5 | &gt; |3| &gt; | -2 | &gt; |0|
+（3）无符合条件的温度值
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;题目&gt;下列选项中，能正确化简 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(54x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y³) 的是（    ）
+A. 3xy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2x)
+B. 3x²y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2
+C. 3x²y²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2
+D. 3x³y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2&lt;/题目&gt;
+&lt;解析&gt;1. 将 54x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y³ 分解因式：54=27×2，x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=(x²)³，y³=y³  
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(54x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y³)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[27×2×(x²)³×y³]  
+3. 利用立方根的性质：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(a³b)=a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">b，可提取 (x²)³ 和 y³ 以及 27  
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[27×(x²)³×y³×2]=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(27)×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[(x²)³]×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(y³)×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2  
+   =3×x²×y×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2  
+4. 故正确答案为 3x²y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>∛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+解方程：  
+$$
+\frac{2}{3} \left( \frac{3}{2} x - 6 \right) = x
+$$  
+则 $ \frac{3}{2} x $ 的值为 $\boxed{?}$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;分解因式：$6m^2n - 9mn^2 + 3mn = \underline{\quad}\left(\underline{\quad}\right)$&lt;/题目&gt;  
+&lt;解析&gt;首先观察多项式$6m^2n - 9mn^2 + 3mn$的各项，找出公因式。各项系数分别为6、-9、3，最大公约数是3；字母部分均含有$m$和$n$，且最小次数为$m^1n^1$。因此公因式为$3mn$。将公因式提出后，原式可表示为：  
+$$3mn \cdot 2m - 3mn \cdot 3n + 3mn \cdot 1 = 3mn(2m - 3n + 1)$$  
+需注意括号内第三项的符号和系数，避免遗漏或计算错误。&lt;/解析&gt;  
+&lt;答案&gt;$3mn$；$2m - 3n + 1$</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;若√(2x+3) 和 √(4x+1) 是同类二次根式，则x的值为____。&lt;/题目&gt;
+&lt;解析&gt;同类二次根式的定义是化简后被开方数相同的最简二次根式。令两式被开方数相等：
+$$2x + 3 = 4x + 1$$
+解方程：
+$$2x + 3 = 4x + 1$$
+移项得：
+$$3 - 1 = 4x - 2x$$
+$$2 = 2x$$
+$$x = 1$$
+验证：当$x=1$时，$2x+3=5$，$4x+1=5$，均为最简二次根式，符合条件。&lt;/解析&gt;
+&lt;答案&gt;1&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+化简代数式：  
+$$
+\frac{x^2 - 9}{x^2 - x - 6} \div \frac{x^2 - 4}{x^2 - 5x + 6} \times \frac{x - 2}{x + 3}
+$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 对各多项式因式分解：  
+   $ x^2 - 9 = (x - 3)(x + 3) $  
+   $ x^2 - x - 6 = (x - 3)(x + 2) $  
+   $ x^2 - 4 = (x - 2)(x + 2) $  
+   $ x^2 - 5x + 6 = (x - 2)(x - 3) $
+2. 将除法转化为乘以倒数，原式等于：  
+$$
+\frac{(x - 3)(x + 3)}{(x - 3)(x + 2)} \times \frac{(x - 2)(x - 3)}{(x - 2)(x + 2)} \times \frac{x - 2}{x + 3}
+$$
+3. 分别约分：  
+   第一、二项中的 $ (x - 3) $、$ (x - 2) $ 均可约去，第三项与第一项的 $ (x + 3) $ 可约去，得  
+$$
+\frac{1 \times (x + 3)}{(x + 2)} \times \frac{(x - 3)}{(x + 2)} \times \frac{(x - 2)}{1}
+= \frac{(x + 3)(x - 3)(x - 2)}{(x + 2)^2(x + 3)}
+\longrightarrow
+\frac{(x - 3)(x - 2)}{(x + 2)^2}
+$$
+&lt;/解析&gt;
+&lt;答案&gt;  $\frac{(x - 3)(x - 2)}{(x + 2)^2}$  &lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;下列代数式中，属于整式的是（  ）&lt;/题目&gt;
+&lt;解析&gt;整式的定义是单项式或多项式，其中单项式必须满足：系数是数字，字母部分是正整数次幂的乘积。分析各选项：
+A. 3/(x+1)：分母含字母x+1，不符合整式定义；
+B. 2x³+3y²：两项都是单项式，次数均为正整数，符合；
+C. 5x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>²：字母x的指数为-2，负整数次幂；
+D. √x：根号等价于x^(1/2)，指数不是正整数。
+&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;下列各式中，哪个不是整式？  
+A. 4x² - 3x + 1  
+B. (x + 1)(x - 2)  
+C. x^(3/2) + 5  
+D. x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 2x + 3&lt;/题目&gt;  
+&lt;解析&gt;整式（多项式）是指各项中只含有同一未知数的非负整数次幂的代数式。  
+A项：4x² - 3x + 1，含有x的2次、1次和0次幂，都是非负整数次，属于整式。  
+B项：(x + 1)(x - 2) = x² - x - 2，展开后各项次数也是非负整数，属于整式。  
+C项：x^(3/2) + 5，含有x的3/2次幂，指数不是整数，不属于整式。  
+D项：x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - 2x + 3，含有x的4次、1次和0次幂，都是非负整数次，属于整式。&lt;/解析&gt;  
+&lt;答案&gt;C&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知直线与x轴的夹角为45°，且经过点（2，-1），则该直线的解析式为y=____。&lt;/题目&gt;  
+&lt;解析&gt;  
+1. **求斜率**：直线与x轴夹角为45°，因此斜率 k = tan45° = 1。  
+2. **设解析式**：一次函数解析式为\( y = kx + b \)，代入\( k = 1 \)，得y = x + b 。  
+3. **代入点求截距**：将点（2，-1）代入 y = x + b，得 -1 = 2 + b ，解得 b = -3。  
+4. **最终解析式**： y = x - 3 。  
+&lt;/解析&gt;  
+&lt;答案&gt;y=x-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;已知直线l与x轴正方向的夹角为60°，且该直线过点(2,1)，求一次函数y=kx+b的解析式________。&lt;/题目&gt;
+&lt;解析&gt;设直线l的斜率k=tan60°=√3。又因为直线过(2,1)，代入点斜式得：  
+y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1=√3(x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2)  
+化简得：y=√3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2√3+1。&lt;/解析&gt;
+&lt;答案&gt;y=√3x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2√3+1&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;某校为了解学生每日完成数学作业所需时间，随机抽取部分学生进行调查，并将结果整理如下表。根据表中信息，被调查学生完成作业时间的中位数是______分钟。&lt;/题目&gt;
+&lt;解析&gt;总人数为各时间段人数之和：$3+7+12+6+2=30$人。中位数是第$15$和$16$个数据的平均值。按时间升序排列：$30$分钟内有$3$人，$30-40$分钟有$7$人（累计$10$人），$40-50$分钟有$12$人（累计$22$人）。第$15$和$16$个数据均落在$40-50$分钟区间内，因此中位数为$40-50$分钟对应的区间值。&lt;/解析&gt;
+&lt;答案&gt;40-50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知菱形ABCD的两条对角线AC=10cm，BD=12cm，则该菱形的面积是（    ）
+A. 54cm²   B. 60cm²   C. 72cm²   D. 120cm²&lt;/题目&gt;
+&lt;解析&gt;在菱形中，两条对角线互相垂直且将菱形分成四个全等的直角三角形。菱形的面积等于两条对角线长度的乘积再除以2。
+所以面积S = $\frac{1}{2}$ × AC × BD = $\frac{1}{2}$ × 10cm × 12cm = 60cm²。&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知一个长方体容器的底面是正方形，其底面周长与高之和为（2x+3）cm，当容器装满水时体积为-2x³+6x²+8x立方厘米（x&gt;0），求该容器底面的边长和高的表达式。&lt;/题目&gt;
+&lt;解析&gt;  
+1. 设底面边长为 $ a $ cm，则底面周长为 $ 4a $ cm，高为 $ h $ cm；  
+2. 根据题意建立方程：$ 4a + h = 2x + 3 $；  
+3. 容器体积公式为 $ a^2h = -2x^3 + 6x^2 + 8x $；  
+4. 由体积公式得 $ h = \frac{-2x^3 + 6x^2 + 8x}{a^2} $；  
+5. 将 $ h $ 代入方程 $ 4a + \frac{-2x^3 + 6x^2 + 8x}{a^2} = 2x + 3 $；  
+6. 整理方程得 $ 4a^3 - (2x+3)a^2 + (-2x^3 + 6x^2 + 8x) = 0 $；  
+7. 因式分解左边多项式，发现当 $ a = x - 1 $ 时方程成立；  
+8. 验证当 $ a = x - 1 $ 时，$ h = 2x + 5 $；  
+9. 确认所有表达式在 $ x &gt; 0 $ 时有正实数解。
+&lt;/解析&gt;
+&lt;答案&gt;底面边长为（$ x - 1 $）cm，高为（$ 2x + 5 $）cm&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知数列{a_n}的前5项为2, 5, 10, 17, 26, …，则其通项公式a_n为（    ）
+A. a_n = n^2 + 1  
+B. a_n = 2n  
+C. a_n = n(n + 1)  
+D. a_n = 3n – 1&lt;/题目&gt;
+&lt;解析&gt;观察数列前5项：a_1=2, a_2=5, a_3=10, a_4=17, a_5=26。  
+尝试拟合n^2 + 1：  
+当n=1，1^2+1=2，与a_1相符；  
+当n=2，2^2+1=5，与a_2相符；  
+当n=3，3^2+1=10，与a_3相符；  
+因此a_n = n^2 + 1能够满足已知各项，故选A。&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算：$\sqrt{27} + 2\sqrt{12} - \sqrt{75} - \sqrt{3}$ 的值是（    ）  
+A. $4\sqrt{3}$  
+B. $2\sqrt{3}$  
+C. $\sqrt{3}$  
+D. $6\sqrt{3}$  
+&lt;/题目&gt;
+&lt;解析&gt;  
+**步骤1**：将各项化为 $k\sqrt{3}$ 的形式：
+- $\sqrt{27} = \sqrt{9 \cdot 3} = 3\sqrt{3}$  
+- $2\sqrt{12} = 2 \cdot \sqrt{4 \cdot 3} = 2 \cdot 2\sqrt{3} = 4\sqrt{3}$  
+- $\sqrt{75} = \sqrt{25 \cdot 3} = 5\sqrt{3}$  
+- $\sqrt{3} = 1\sqrt{3}$  
+**步骤2**：代入并合并同类项：
+$$\sqrt{27} + 2\sqrt{12} - \sqrt{75} - \sqrt{3} = 3\sqrt{3} + 4\sqrt{3} - 5\sqrt{3} - 1\sqrt{3}$$
+$$= (3 + 4 - 5 - 1)\sqrt{3} = 1\sqrt{3} = \sqrt{3}$$
+&lt;/解析&gt;
+&lt;答案&gt;C&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+将二次函数 $ y = x^2 $ 先向左平移 5 个单位，再向上平移 3 个单位后，得到的函数表达式为  
+$$\boxed{y = (x + 5)^2 + 3}$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+原函数 $ y = x^2 $ 的顶点为 $ (0, 0) $。
+- **向左平移 5 个单位**：顶点横坐标变为 $ 0 - 5 = -5 $，此时函数变为  
+  $$ y = (x + 5)^2 $$
+- **再向上平移 3 个单位**：顶点纵坐标变为 $ 0 + 3 = 3 $，因此最终函数为  
+  $$ y = (x + 5)^2 + 3$$
+&lt;/解析&gt;
+&lt;答案&gt;  $y = (x + 5)^2 + 3$  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知函数 $ y = x^2 $ 先向右平移 4 个单位，再向上平移 3 个单位，所得二次函数的解析式为  $ y = (x - \underline{\quad})^2 + \underline{\quad} $，请将空格处填上合适的数。  
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 原函数为 $ y = x^2 $。  
+2. 向右平移 4 个单位，相当于将 $ x $ 替换为 $ x - 4 $，得到  
+   $$ y = (x - 4)^2 $$  
+3. 在此基础上向上平移 3 个单位，即整个函数值加 3，得到  
+   $$y = (x - 4)^2 + 3 $$  
+4. 因此填空处应分别为 **4** 和 **3**。
+&lt;/解析&gt;
+&lt;答案&gt;4, 3&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知当 $ x = 2 $ 时，$ 3x^2 + 2x + 5 = 21 $，求当 $ x = 3 $ 时，$ 3x^2 + 2x + 5 $ 的值。
+&lt;/题目&gt;
+&lt;解析&gt;  
+首先，已知当 $ x = 2 $ 时，  
+$$3x^2 + 2x + 5 = 21$$
+当 $ x = 3 $ 时，计算各单项式的增量：
+- 二次项 $ 3x^2 $ 的增量为  
+  $$ 3 \times (3^2 - 2^2) = 3 \times (9 - 4) = 3 \times 5 = 15 $$
+- 一次项 $ 2x $ 的增量为  
+  $$2 \times (3 - 2) = 2 \times 1 = 2 $$
+因此，整个表达式的增量为  
+$$15 + 2 = 17$$
+故当 $ x = 3 $ 时，原式的值为  
+$$21 + 17 = 38$$
+&lt;/解析&gt;
+&lt;答案&gt;38&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知 $ x = 1 $，计算下列表达式的值，下列选项中正确的是（   ）  
+$$\frac{(x^2 - 1)(3x + 2)}{x - 1} + (x - 1)(x^2 + 5)$$  
+A. 8 B. 10 C. 12 D. 14  
+&lt;/题目&gt;
+&lt;解析&gt;  
+首先观察第二项：$(x - 1)(x^2 + 5)$，当 $ x = 1 $ 时，$ x - 1 = 0 $，因此这一项的值为 0。
+再看第一项：$\frac{(x^2 - 1)(3x + 2)}{x - 1}$。注意 $ x^2 - 1 = (x - 1)(x + 1) $，所以原式可化为：  
+$$\frac{(x - 1)(x + 1)(3x + 2)}{x - 1} = (x + 1)(3x + 2)$$  
+（在 $ x \ne 1 $ 时成立，但该简化形式在 $ x = 1 $ 时也有效）
+将 $ x = 1 $ 代入 $(x + 1)(3x + 2)$ 得：  
+$$(1 + 1)(3 \times 1 + 2) = 2 \times 5 = 10$$
+因此原式的值为 **10**。
+&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+下列说法中，符合平行公理及其推论的是（ ）  
+A. 过直线外一点，只能画一条直线与已知直线平行  
+B. 两条不相交的直线叫做平行线  
+C. 在同一平面内，若直线 $ a \parallel b $，直线 $ b \parallel c $，则 $ a $ 与 $ c $ 必相交  
+D. 不相交的两条线段一定平行  
+&lt;/题目&gt;
+&lt;解析&gt;  
+平行公理指出：过直线外一点，有且只有一条直线与已知直线平行。其推论为平行线的传递性：若 $ a \parallel b $，$ b \parallel c $，则 $ a \parallel c $。
+**选项分析：**
+- **A**：正确。符合平行公理中“有且只有一条”的表述。  
+- **B**：错误。平行线需满足“在同一平面内”且“不相交”两个条件，仅“不相交”不严谨（如异面直线也不相交）。  
+- **C**：错误。根据平行的传递性，若 $ a \parallel b $ 且 $ b \parallel c $，则 $ a \parallel c $，而非相交。  
+- **D**：错误。线段不相交可能是平行，也可能是未延长到相交部分（如折线中的线段）。
+&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+平面内，直线 $ a \parallel c $，直线 $ b \parallel c $，则下列结论正确的是（  ）  
+A. $ a $ 与 $ b $ 相交  
+B. $ a $ 与 $ b $ 平行  
+C. $ a \perp b $  
+D. $ a $ 与 $ b $ 重合  
+&lt;/题目&gt;
+&lt;解析&gt;  
+由平行公理的推论：若两条直线都平行于同一条直线，则这两条直线互相平行。
+已知 $ a \parallel c $，$ b \parallel c $，故 $ a $、$ b $ 都平行于 $ c $，根据上述推论可知 $ a \parallel b $。
+因此选 **B**。
+&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+化简 $- \{ - [ - (a - b) ] \} = \_\_\_\_\_\_。$
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 首先处理最内层括号：  
+   $$ -(a - b) = -a + b  $$
+2. 接着处理中层括号前的负号：  
+   $$ -[ -a + b ] = a - b $$
+3. 最后处理外层大括号前的负号：  
+   $$-\{ a - b \} = -a + b = b - a $$
+因此，最终结果为 $ b - a $。
+&lt;/解析&gt;
+&lt;答案&gt;  $ b - a $  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+化简表达式：$(-2x^{3})^{-2} \times (-4x)^{3} = \boxed{\quad}$
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 处理第一个因子的负指数：  
+   $$ (-2x^3)^{-2} = \frac{1}{(-2x^3)^2}$$
+2. 展开平方运算：  
+   $$\frac{1}{(-2)^2 \cdot (x^3)^2} = \frac{1}{4x^6} $$
+3. 处理第二个因子的负号：  
+   $$ (-4x)^3 = (-4)^3 \cdot x^3 = -64x^3$$
+4. 将结果相乘：  
+   $$ \frac{1}{4x^6} \cdot (-64x^3) = \frac{-64x^3}{4x^6}$$
+5. 化简分数：  
+   $$ -16 \cdot x^{3 - 6} = -16x^{-3} $$
+6. 转换为正指数形式：  
+   $$-16 \cdot \frac{1}{x^3} = -\frac{16}{x^3} $$
+&lt;/解析&gt;
+&lt;答案&gt;  $-\frac{16}{x^3}$  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+将下面的代数式化简，并将结果填入横线处：  
+$$-\bigl[-3(a-2)+2(2a+1)\bigr]-\bigl[4a-(5-a)\bigr]=\underline{\quad\quad}$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一步**：去掉第一组中括号前的负号  
+原式中的第一部分：  
+$$-[-3(a - 2) + 2(2a + 1)]$$  
+先计算中括号内：  
+$$-3(a - 2) = -3a + 6 $$  
+$$2(2a + 1) = 4a + 2 $$  
+所以中括号内的和为：  
+$$(-3a + 6) + (4a + 2) = a + 8 $$  
+再加上前面的负号，得：  
+$$-[a + 8] = -a - 8 $$
+**第二步**：计算第二组中括号  
+$$[4a - (5 - a)] $$  
+先去掉小括号前的减号：  
+$$4a - (5 - a) = 4a - 5 + a = 5a - 5 $$
+**第三步**：将两部分结果合并  
+原式变为：  
+$$(-a - 8) - (5a - 5)$$
+$$= -a - 8 - 5a + 5 $$
+$$= -6a - 3  $$
+&lt;/解析&gt;
+&lt;答案&gt;  $-6a - 3$  
+&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;解方程：$\frac{2x-1}{3} - \frac{x+2}{6} = 1$&lt;/题目&gt;
+&lt;解析&gt;
+步骤1：去分母。方程两边同乘6（分母3和6的最小公倍数）：
+$$6 \times \left(\frac{2x-1}{3}\right) - 6 \times \left(\frac{x+2}{6}\right) = 6 \times 1$$
+化简得：
+$$2(2x-1) - (x+2) = 6$$
+步骤2：去括号。注意第二项括号前的负号：
+$$4x - 2 - x - 2 = 6$$
+步骤3：合并同类项。将含$x$的项和常数项分别合并：
+$$(4x - x) + (-2 - 2) = 6$$
+即：
+$$3x - 4 = 6$$
+步骤4：移项。将常数项移到等式右边：
+$$3x = 6 + 4$$
+$$3x = 10$$
+步骤5：系数化为1。两边同除以3：
+$$x = \frac{10}{3}$$
+验证：将$x=\frac{10}{3}$代入原方程，左右两边均等于1，验证成立。
+&lt;/解析&gt;
+&lt;答案&gt;$x = \frac{10}{3}$</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知代数式 $ 3x^2 - 2(x - 1) + 4 $，当 $ x = -2 $ 时，该代数式的值为 ________。
+&lt;/题目&gt;
+&lt;解析&gt;  
+首先展开代数式中的括号：  
+$$3x^2 - 2x + 2 + 4$$
+接着合并常数项：  
+$$3x^2 - 2x + 6$$
+将 $ x = -2 $ 代入化简后的代数式：  
+$$3(-2)^2 - 2(-2) + 6$$
+计算平方项：  
+$$3 \times 4 = 12$$
+计算乘法项：  
+$$-2 \times (-2) = 4$$
+最后将所有项相加：  
+$$12 + 4 + 6 = 22$$
+&lt;/解析&gt;
+&lt;答案&gt;  22  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;一个凸多边形的每个外角都相等，且每个外角等于其相邻内角的$\frac{2}{3}$，则这个多边形的边数是（ ）
+A. 3  
+B. 5  
+C. 6  
+D. 8&lt;/题目&gt;
+&lt;解析&gt;设外角度数为$x$，则相邻内角度数为$\frac{3}{2}x$。根据内角与外角互补的性质，有：
+$$x + \frac{3}{2}x = 180^\circ $$
+$$\frac{5}{2}x = 180^\circ $$
+$$x = 72^\circ$$
+由于多边形外角和恒为$360^\circ$，边数$n$满足：
+$$n = \frac{360^\circ}{x} = \frac{360^\circ}{72^\circ} = 5$$
+因此，该多边形为五边形。&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;小明从银行取出了300元（支出记为负数），如果每天花费50元（支出记为负数），则这些钱可以维持____天。&lt;/题目&gt;  
+&lt;解析&gt;总金额为-300元，每天支出-50元。天数计算为：(-300) ÷ (-50) = 6天。两个负数相除结果为正，表示实际可维持的天数。&lt;/解析&gt;  
+&lt;答案&gt;6&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知数轴上点A表示的数是-3，点B表示的数是5，则A、B两点之间的距离为__。&lt;/题目&gt;  
+&lt;解析&gt;数轴上两点间的距离等于这两点所对应数值之差的绝对值。点A表示-3，点B表示5，因此距离为|-3 - 5| = |-8| = 8。&lt;/解析&gt;  
+&lt;答案&gt;8&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知二次函数 $ y = x^2 - 6x + 5 $ 的对称轴为直线 $ x = 3 $。当 $ x = 0 $ 时，$ y = 5 $，则当 $ x = 6 $ 时，$ y = \underline{\quad} $。
+&lt;/题目&gt;
+&lt;解析&gt;  
+二次函数的对称轴为 $ x = 3 $，因此点 $ (0, 5) $ 关于对称轴的对称点为 $ (6, y) $。
+根据对称性，$ x = 0 $ 和 $ x = 6 $ 到对称轴 $ x = 3 $ 的距离均为 3，故它们的函数值相等。
+因此，当 $ x = 6 $ 时，$ y = 5 $。
+&lt;/解析&gt;
+&lt;答案&gt;  5  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知多项式$(3x^2 - 2xy + 4y^2) - (2x^2 + 5xy - 3y^2)$，化简后的结果是____。&lt;/题目&gt;
+&lt;解析&gt;首先展开括号，注意第二个括号前有负号，需改变括号内所有项的符号：
+原式 $= 3x^2 - 2xy + 4y^2 - 2x^2 - 5xy + 3y^2$。
+接着合并同类项：
+- $x^2$项：$3x^2 - 2x^2 = x^2$；
+- $xy$项：$-2xy - 5xy = -7xy$；
+- $y^2$项：$4y^2 + 3y^2 = 7y^2$。
+最终结果为$x^2 - 7xy + 7y^2$。&lt;/解析&gt;
+&lt;答案&gt;$x^2 - 7xy + 7y^2$</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;观察一列数：2, 5, 10, 17, 26, ...，按照此规律，第n个数是（ ）
+A. n² +1  
+B. (n+1)² +1  
+C. n² +2  
+D. (n-1)² +2&lt;/题目&gt;
+&lt;解析&gt;观察数列：2=1²+1，5=2²+1，10=3²+1，17=4²+1，26=5²+1。可见每个数均为序数的平方加1。验证选项：  
+- A选项：n²+1，当n=1时结果为2，与首项一致；  
+- B选项：(n+1)²+1，当n=1时结果为5，与首项不符；  
+- C选项：n²+2，当n=1时结果为3，与首项不符；  
+- D选项：(n-1)²+2，当n=1时结果为2，但n=2时结果为(1)²+2=3，与第二项5不符。  
+因此正确答案为A。&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;在△ABC中，点D、E分别在AB、AC上，且DE∥BC。若AD=3，DB=2，AE=6，则EC的长度为（ ）。  
+A. 4  B. 5  C. 6  D. 8&lt;/题目&gt;  
+&lt;解析&gt;根据平行线分线段成比例定理，当DE∥BC时，有$\frac{AD}{DB} = \frac{AE}{EC}$。已知AD=3，DB=2，AE=6，代入得$\frac{3}{2} = \frac{6}{EC}$。解方程得$EC = \frac{2 \times 6}{3} = 4$。因此答案为选项A。&lt;/解析&gt;  
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;在平面直角坐标系中，点P位于第四象限，且到x轴的距离为5，到y轴的距离为3。则点P的坐标是：
+A. (3, -5)  
+B. (-3, -5)  
+C. (5, 3)  
+D. (-5, 3)&lt;/题目&gt;
+&lt;解析&gt;
+1. **确定象限符号**：第四象限点的坐标特征为横坐标（x）为正，纵坐标（y）为负，排除B、D选项。
+2. **计算坐标绝对值**：
+   - 到x轴的距离为5 → |y|=5 → y=-5（因第四象限y为负）；
+   - 到y轴的距离为3 → |x|=3 → x=3（因第四象限x为正）。
+3. **验证选项**：
+   - A选项(3, -5)符合上述条件；
+   - C选项(5, 3)中y=3不符合第四象限y为负的要求。
+因此，正确答案为A。
+&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;计算：$\sqrt{12} + \sqrt{27} - \sqrt{3}$ 的结果是（ ）
+A. $3\sqrt{3}$  
+B. $4\sqrt{3}$  
+C. $2\sqrt{6}$  
+D. $\sqrt{3}$&lt;/题目&gt;
+&lt;解析&gt;
+首先将各二次根式化为最简形式：
+- $\sqrt{12} = \sqrt{4 \times 3} = 2\sqrt{3}$，
+- $\sqrt{27} = \sqrt{9 \times 3} = 3\sqrt{3}$，
+- $\sqrt{3}$ 已是最简形式。
+代入原式得：
+$$
+2\sqrt{3} + 3\sqrt{3} - \sqrt{3} = (2+3-1)\sqrt{3} = 4\sqrt{3}.
+$$
+**错误选项分析**：
+- B选项 $4\sqrt{3}$ 是正确结果；
+- A选项 $3\sqrt{3}$ 可能是漏加最后一项导致；
+- C选项 $2\sqrt{6}$ 错误地合并了不同类根式；
+- D选项 $\sqrt{3}$ 未正确计算系数。
+&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;下列各数中，精确到百分位且有两位有效数字的是（ ）
+A. 0.30  
+B. 0.3  
+C. 2.5万  
+D. 0.030&lt;/题目&gt;
+&lt;解析&gt;
+1. **选项A分析**：0.30  
+   - **精确度**：小数点后第二位是百分位，因此精确到百分位。  
+   - **有效数字**：非零数字3和末尾的0均有意义，共两位有效数字。  
+   - **结论**：符合题意。
+2. **选项B分析**：0.3  
+   - **精确度**：小数点后第一位是十分位，因此精确到十分位。  
+   - **有效数字**：仅数字3有意义，共一位有效数字。  
+   - **结论**：不符合“精确到百分位”和“两位有效数字”的要求。
+3. **选项C分析**：2.5万  
+   - **科学记数法转换**：2.5万=25000，其中数字5位于千位。  
+   - **精确度**：最后一位有效数字5在千位，因此精确到千位。  
+   - **有效数字**：2和5均为有效数字，共两位。  
+   - **结论**：精确到千位而非百分位，不符合题意。
+4. **选项D分析**：0.030  
+   - **精确度**：小数点后第三位是千分位，因此精确到千分位。  
+   - **有效数字**：3和末尾的0均为有效数字，共两位。  
+   - **结论**：精确到千分位而非百分位，不符合题意。
+综上，只有选项A同时满足“精确到百分位”和“两位有效数字”的条件。&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知三角形的两边长分别为 $ 3a + 1 $ 和 $ 5a - 2 $，第三边长为 15。求 $ a $ 的取值范围。
+&lt;/题目&gt;
+&lt;解析&gt;  
+根据**三角形三边关系定理**，任意两边之和大于第三边，任意两边之差小于第三边。设三边分别为 $ 3a + 1 $、$ 5a - 2 $ 和 15，需满足以下三个不等式：
+1. **两边之和大于第三边**：  
+   $$
+   (3a + 1) + (5a - 2) &gt; 15
+   $$  
+   化简得：  
+   $$
+   8a - 1 &gt; 15 \implies 8a &gt; 16 \implies a &gt; 2
+   $$
+2. **两边之和大于第三边**：  
+   $$
+   (3a + 1) + 15 &gt; 5a - 2
+   $$  
+   化简得：  
+   $$
+   3a + 16 &gt; 5a - 2 \implies -2a &gt; -18 \implies a &lt; 9
+   $$
+3. **两边之和大于第三边**：  
+   $$
+   (5a - 2) + 15 &gt; 3a + 1
+   $$  
+   化简得：  
+   $$
+   5a + 13 &gt; 3a + 1 \implies 2a &gt; -12 \implies a &gt; -6
+   $$
+**综合条件**：  
+- 由 $ a &gt; 2 $ 和 $ a &lt; 9 $ 得 $ 2 &lt; a &lt; 9 $。  
+- $ a &gt; -6 $ 已包含在 $ a &gt; 2 $ 中，无需额外考虑。  
+- 同时需保证边长 $ 3a + 1 &gt; 0 $ 和 $ 5a - 2 &gt; 0 $，即 $ a &gt; \frac{2}{5} $，但此条件已被 $ a &gt; 2 $ 覆盖。
+综上，$ a $ 的取值范围为：  
+$$
+2 &lt; a &lt; 9
+$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+$ 2 &lt; a &lt; 9 $  
+&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;在△ABC中，∠A的外角为120°，∠B = 50°，则∠C的度数为（ ）
+A. 50°  
+B. 60°  
+C. 70°  
+D. 80°&lt;/题目&gt;
+&lt;解析&gt;根据三角形外角定理，∠A的外角等于不相邻的两个内角之和，即∠A的外角 = ∠B + ∠C。已知∠A的外角为120°，∠B = 50°，代入公式得：120° = 50° + ∠C。解得∠C = 120° - 50° = 70°。因此正确答案为C选项。&lt;/解析&gt;
+&lt;答案&gt;C&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知等差数列的首项为2，公差为4，末项为30，则该数列的前n项和为______。&lt;/题目&gt;
+&lt;解析&gt;首先根据末项公式 $a_n = a_1 + (n-1)d$，代入已知条件 $30 = 2 + (n-1) \times 4$，解得 $n=8$。再利用等差数列求和公式 $S_n = \frac{n(a_1 + a_n)}{2}$，代入 $n=8$，$a_1=2$，$a_n=30$，计算得 $S_8 = \frac{8 \times (2 + 30)}{2} = 128$。&lt;/解析&gt;
+&lt;答案&gt;128</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知√2≈1.414，√3≈1.732，则√2 + √3 - 1的整数部分为______。&lt;/题目&gt;
+&lt;解析&gt;根据已知近似值计算：
+√2 + √3 ≈1.414 +1.732=3.146
+3.146 -1=2.146
+整数部分即为不超过该数的最大整数，因此整数部分为2。&lt;/解析&gt;
+&lt;答案&gt;2&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算：  
+$$
+(-3x^2y^3) \times (4x^3yz^2) = \underline{\hspace{3cm}}
+$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+按照单项式乘法法则，分别进行以下步骤：
+1. **系数相乘**：  
+   $$
+   -3 \times 4 = -12
+   $$
+2. **同底数幂相乘**：  
+   - $ x^2 \times x^3 = x^{2+3} = x^5 $  
+   - $ y^3 \times y = y^{3+1} = y^4 $  
+   - 第一个单项式中没有 $ z $，即隐含 $ z^0 $，与 $ z^2 $ 相乘得：  
+     $$
+     z^0 \times z^2 = z^{0+2} = z^2
+     $$
+3. **合并结果**：  
+   将所有部分相乘得到最终结果：  
+   $$
+   -12x^5y^4z^2
+   $$
+&lt;/解析&gt;
+&lt;答案&gt;  
+$-12x^5y^4z^2$  
+&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;下列各数中，是-27的立方根的是（  ）
+A. 3  
+B. -3  
+C. ±3  
+D. 不存在&lt;/题目&gt;
+&lt;解析&gt;
+1. **立方根定义**：若一个数的立方等于a，则这个数称为a的立方根。即若$x^3 = a$，则$x$是$a$的立方根。
+2. **计算验证**：
+   - 选项A：$3^3 = 27 
+eq -27$，排除；
+   - 选项B：$(-3)^3 = -27$，符合条件；
+   - 选项C：立方根是唯一的实数，±3是平方根的特征，排除；
+   - 选项D：负数存在立方根（如$-3$），排除。
+3. **结论**：只有选项B满足$(-3)^3 = -27$。
+&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;某班五个小组在环保活动中收集的废塑料瓶数量（单位：个）分别为：6, 8, 8, 5, 9。这组数据的众数是？  
+A. 5  
+B. 6  
+C. 8  
+D. 9&lt;/题目&gt;  
+&lt;解析&gt;众数是指一组数据中出现次数最多的数。题目中数据为6, 8, 8, 5, 9，其中数字8出现了2次，其他数字均只出现1次。因此众数为8。选项C正确。&lt;/解析&gt;  
+&lt;答案&gt;C&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知三角形的两边长分别为5和10，则第三边x的取值范围是（）
+A. 4＜x＜15  
+B. 5＜x＜15  
+C. 5＜x＜10  
+D. 5≤x≤15&lt;/题目&gt;
+&lt;解析&gt;根据三角形三边关系定理，任意两边之和大于第三边，任意两边之差小于第三边。设第三边为x，则需满足：
+1. 5 + 10 &gt; x → x &lt; 15；
+2. |10 - 5| &lt; x → x &gt; 5。
+因此，第三边x的取值范围是5＜x＜15。选项B正确，其他选项中A的下限错误，C的上限错误，D包含等号不符合严格不等式要求。&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知一组数据为1、3、5、7、9，则这组数据的方差为______。&lt;/题目&gt;
+&lt;解析&gt;计算方差的步骤如下：
+1. 计算平均数：$\overline{x} = \frac{1+3+5+7+9}{5} = \frac{25}{5} = 5$；
+2. 计算每个数据与平均数的差的平方：
+   $(1-5)^2=16$，$(3-5)^2=4$，$(5-5)^2=0$，$(7-5)^2=4$，$(9-5)^2=16$；
+3. 求平方差的平均值：$s^2 = \frac{16+4+0+4+16}{5} = \frac{40}{5} = 8$。&lt;/解析&gt;
+&lt;答案&gt;8&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知等腰三角形的两边长分别为5和12，则第三边的长为____，此时三角形的周长为____。&lt;/题目&gt;  
+&lt;解析&gt;根据等腰三角形的性质，第三边可能为5或12。若第三边为5，则三边为5、5、12，但5+5=10&lt;12，不满足三角形三边关系（两边之和大于第三边），因此第三边只能为12。此时三角形的三边为5、12、12，周长为5+12+12=29。&lt;/解析&gt;  
+&lt;答案&gt;第三边的长为12，周长为29。</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算并化简：  
+$$
+\frac{2x^2 + 3x - 2}{x^2 - 1} \times \frac{x^2 - 1}{2x - 1}
+$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一步：对分子和分母进行因式分解**
+- $ 2x^2 + 3x - 2 = (2x - 1)(x + 2) $
+- $ x^2 - 1 = (x - 1)(x + 1) $
+**第二步：将分式相乘并约分**
+$$
+\frac{(2x - 1)(x + 2)}{(x - 1)(x + 1)} \times \frac{(x - 1)(x + 1)}{2x - 1} = \frac{x+2}{1}
+$$
+**第三步：结果为最简整式**
+&lt;/解析&gt;
+&lt;答案&gt;  $x + 2$  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;下列各式中，属于分式的是（  ）
+A. 3x²  
+B. x/2  
+C. 1/(x+1)  
+D. (a+b)/π&lt;/题目&gt;
+&lt;解析&gt;
+根据整式的定义：整式是分母中不含字母的代数式。逐一分析选项：
+- **A. 3x²**：是单项式，分母为1（隐含），不含字母，属于整式。
+- **B. x/2**：可写成(1/2)x，分母为数字2，不含字母，属于整式。
+- **C. 1/(x+1)**：分母为x+1，含字母x，属于分式。
+- **D. (a+b)/π**：分母为π（常数），不含字母，属于整式。
+常见误区：分母为数字或π时仍为整式，只有分母含字母时才为分式。因此正确答案为C。&lt;/解析&gt;
+&lt;答案&gt;C&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+一个矩形的周长为 20 厘米，面积为 24 平方厘米，求这个矩形的长和宽。
+&lt;/题目&gt;
+&lt;解析&gt;  
+设矩形的宽为 $ x $ 厘米，则长为  
+$$
+\frac{20}{2} - x = 10 - x \quad \text{（厘米）}
+$$
+根据面积公式列方程：  
+$$
+x(10 - x) = 24
+$$
+展开并整理方程：  
+$$
+x^2 - 10x + 24 = 0
+$$
+使用求根公式 $ x = \frac{-b \pm \sqrt{b^2 - 4ac}}{2a} $，其中 $ a = 1 $，$ b = -10 $，$ c = 24 $：  
+$$
+x = \frac{10 \pm \sqrt{(-10)^2 - 4 \times 1 \times 24}}{2 \times 1}
+= \frac{10 \pm \sqrt{100 - 96}}{2}
+= \frac{10 \pm 2}{2}
+$$
+解得：  
+$$
+x = 6 \quad \text{或} \quad x = 4
+$$
+当 $ x = 6 $ 时，长为 $ 10 - 6 = 4 $ 厘米；  
+当 $ x = 4 $ 时，长为 $ 10 - 4 = 6 $ 厘米。
+因此，矩形的长和宽分别为 **6 厘米 和 4 厘米**（顺序可互换）。
+&lt;/解析&gt;
+&lt;答案&gt;  
+长为 6 厘米，宽为 4 厘米（或长为 4 厘米，宽为 6 厘米）
+&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知|x-5| + |y+3| = 0，则x-y=____&lt;/题目&gt;
+&lt;解析&gt;根据绝对值的非负性，两个非负数相加等于0，说明每个绝对值都必须为0。因此：
+1. 由|x-5|=0可得x-5=0，解得x=5；
+2. 由|y+3|=0可得y+3=0，解得y=-3；
+3. 代入x-y计算：5 - (-3) = 5 + 3 = 8。&lt;/解析&gt;
+&lt;答案&gt;8&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+下列方程中，属于一元二次方程的是（ ）  
+A. $ x^2 + 2x = 3 $  
+B. $ (x+1)^2 - x^2 = 0 $  
+C. $ x^2 + \frac{1}{x} = 2 $  
+D. $ ax^2 + bx + c = 0 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+**选项 A**：$ x^2 + 2x = 3 $ 可整理为  
+$$
+x^2 + 2x - 3 = 0
+$$  
+满足一元二次方程的定义（$ a = 1 \ne 0 $，最高次数为 2），是正确答案。
+**选项 B**：$ (x+1)^2 - x^2 = 0 $ 展开后为  
+$$
+x^2 + 2x + 1 - x^2 = 0 \implies 2x + 1 = 0
+$$  
+这是一元一次方程，不符合要求。
+**选项 C**：$ x^2 + \frac{1}{x} = 2 $ 含有分式 $ \frac{1}{x} $，不是整式方程，因此不是一元二次方程。
+**选项 D**：$ ax^2 + bx + c = 0 $ 未明确说明 $ a \ne 0 $，当 $ a = 0 $ 时方程退化为一次方程，因此不一定是一元二次方程。
+&lt;/解析&gt;
+&lt;答案&gt;  A  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知在△ABC中，点D是BC边上的中点，E为AC上一点，连接DE。若AB=6，AC=8，则下列说法正确的是（ ）
+A. DE是△ABC的中线  
+B. DE一定平分△ABC的周长  
+C. DE的长度可能为5  
+D. △ADE的面积等于△ABC面积的一半&lt;/题目&gt;
+&lt;解析&gt;
+选项A：中线需连接顶点与对边中点，而DE连接的是AC上的点E与BC中点D，不符合中线定义，错误。  
+选项B：若DE平分周长，需满足AE+AD=EC+DC，但未给出E的具体位置，无法确定，错误。  
+选项C：当E与A重合时，DE=AD（中线），此时AD=√(AB²−BD²)=√(6²−4²)=√20≈4.47；当E接近C时，DE接近DC=4。但若E在AC延长线上，DE可能超过5，因此存在DE=5的可能，正确。  
+选项D：△ADE的面积取决于E的位置，只有当E为AC中点时，面积才为原三角形一半，错误。  
+&lt;/解析&gt;
+&lt;答案&gt;C&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;某长方形场地的长为80米，宽为60米。现计划将长增加x米，宽减少$\frac{1}{2}x$米，使得改造后的面积保持不变。求x的值。&lt;/题目&gt;
+&lt;解析&gt;  
+1. **设定变量**：设长增加$x$米，则宽减少$\frac{1}{2}x$米。  
+2. **表达改造后的边长**：  
+   - 新长为$(80 + x)$米，  
+   - 新宽为$(60 - \frac{1}{2}x)$米。  
+3. **面积不变的等式**：  
+   改造前面积：$80 \times 60 = 4800$（平方米），  
+   改造后面积：$(80 + x)(60 - \frac{1}{2}x) = 4800$。  
+4. **展开方程**：  
+   $$(80 + x)(60 - \frac{1}{2}x) = 4800$$  
+   展开左边：  
+   $$80 \times 60 + 80 \times (-\frac{1}{2}x) + x \times 60 + x \times (-\frac{1}{2}x) = 4800$$  
+   化简得：  
+   $$4800 - 40x + 60x - \frac{1}{2}x^2 = 4800$$  
+5. **整理方程**：  
+   合并同类项：  
+   $$-\frac{1}{2}x^2 + 20x = 0$$  
+   两边同乘$-2$消去分母：  
+   $$x^2 - 40x = 0$$  
+6. **解方程**：  
+   因式分解：  
+   $$x(x - 40) = 0$$  
+   解得：  
+   $$x = 0 \quad \text{或} \quad x = 40$$  
+7. **验证实际意义**：  
+   - 当$x = 0$时，表示不改造，符合题意但无实际意义；  
+   - 当$x = 40$时，新宽为$60 - \frac{1}{2} \times 40 = 40$米（正值），符合实际。  
+   因此，$x = 40$为有效解。  
+&lt;/解析&gt;
+&lt;答案&gt;40</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+某学校计划扩建一个长方形花园，已知花园的长比宽多 4 米。扩建时，长增加 2 米，宽增加 3 米，扩建后的面积比原来增加了 42 平方米。求原来花园的长和宽各是多少米。
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 设原花园的宽为 $ x $ 米，则长为 $ x + 4 $ 米。  
+2. 扩建后的长为 $ (x + 4) + 2 = x + 6 $ 米，宽为 $ x + 3 $ 米。  
+3. 扩建后的面积为 $ (x + 6)(x + 3) $ 平方米，原面积为 $ x(x + 4) $ 平方米。  
+4. 根据题意，扩建后面积增加 42 平方米，列出方程：  
+$$
+(x + 6)(x + 3) - x(x + 4) = 42
+$$
+5. 展开方程并化简：  
+$$
+x^2 + 9x + 18 - x^2 - 4x = 42 \implies 5x + 18 = 42
+$$
+6. 解得：  
+$$
+5x = 24 \implies x = 6
+$$
+因此，原宽为 $ x = 6 $ 米，原长为 $6+ 4 = 10 $ 米。
+&lt;/解析&gt;
+&lt;答案&gt;  长 10 米，宽 6 米&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算下列表达式的值： $
+\left(-\frac{3}{5} + 1.2\right) \times \left[(-2.5) \div (-0.5) - \frac{4}{7}\right]$
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一步**：计算括号内第一部分：  
+$$
+(-2.5) \div (-0.5) = 5
+$$
+**第二步**：计算中括号内：  
+$$
+5 - \frac{4}{7} = \frac{35}{7} - \frac{4}{7} = \frac{31}{7}
+$$
+**第三步**：计算前一个小括号：  
+$$
+1.2 = \frac{6}{5}, \quad -\frac{3}{5} + \frac{6}{5} = \frac{3}{5}
+$$
+**第四步**：将结果相乘：  
+$$
+\frac{3}{5} \times \frac{31}{7} = \frac{93}{35}
+$$
+&lt;/解析&gt;
+&lt;答案&gt;  $\frac{93}{35}$  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;在△ABC中，点D在AB上，点E在AC上，且DE∥BC。若AD=2，BD=3，AE=4，则EC的长度为（  ）
+A. 6  
+B. 8  
+C. 9  
+D. 10&lt;/题目&gt;
+&lt;解析&gt;因为DE∥BC，所以△ADE∽△ABC。根据相似三角形的性质，对应边成比例，即AD/AB=AE/AC。已知AD=2，BD=3，则AB=AD+BD=5。代入比例式得：2/5=4/AC，解得AC=10。因此，EC=AC-AE=10-4=6。&lt;/解析&gt;
+&lt;答案&gt;A&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+某公园的圆形喷水池中，水流喷出后形成的抛物线最高点为 $ (1, 2) $ 米，喷水管底部位于原点 $ (0, b) $。若水流恰好落在池边的点 $ (3, 0) $ 处，则喷水管底部到地面的距离 $ b $ 为多少米？
+&lt;/题目&gt;
+&lt;解析&gt;  
+### **1. 建立二次函数模型**
+由于抛物线顶点为 $ (1, 2) $，设函数解析式为：  
+$$
+y = a(x - 1)^2 + 2
+$$
+### **2. 代入落点坐标求参数 $ a $**  
+将点 $ (3, 0) $ 代入解析式：  
+$$
+0 = a(3 - 1)^2 + 2 \implies 0 = 4a + 2 \implies a = -0.5
+$$
+因此，解析式为：  
+$$
+y = -0.5(x - 1)^2 + 2
+$$
+### **3. 求喷水管高度 $ b $**  
+喷水管底部在原点 $ (0, b) $，即求当 $ x = 0 $ 时的 $ y $ 值：  
+$$
+y = -0.5(0 - 1)^2 + 2 = -0.5 \times 1 + 2 = 1.5
+$$
+故 $ b = 1.5 $
+&lt;/解析&gt;
+&lt;答案&gt;  
+A. 1.5  
+&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知关于 $ x $、$ y $ 的方程组  
+$$
+\begin{cases} 
+2x + y = 7 \\ 
+x + my = 5 
+\end{cases}
+$$  
+的解是  
+$$
+\begin{cases} 
+x = 2 \\ 
+y = 3 
+\end{cases}
+$$  
+则 $ m $ 的值是 ______。
+&lt;/题目&gt;
+&lt;解析&gt;  
+将 $ x = 2 $ 和 $ y = 3 $ 代入第二个方程 $ x + my = 5 $ 中，得到：  
+$$
+2 + m \cdot 3 = 5
+$$
+化简得：  
+$$
+3m = 5 - 2 \quad \Rightarrow \quad 3m = 3 \quad \Rightarrow \quad m = 1
+$$
+**验证第一个方程** $ 2x + y = 7 $：  
+代入 $ x = 2 $ 和 $ y = 3 $ 得  
+$$
+2 \cdot 2 + 3 = 7
+$$  
+符合条件。
+因此，$ m $ 的值为 $ 1 $。
+&lt;/解析&gt;
+&lt;答案&gt;  1  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知二元一次方程组  
+$$
+\begin{cases} 
+2x + ay = 5 
+\end{cases}
+$$  
+$$
+\begin{cases} 
+3x - y = 4 
+\end{cases}
+$$  
+的解为 $ x = 1, y = 1 $，则 $ a $ 的值为 ______。
+&lt;/题目&gt;
+&lt;解析&gt;  
+将 $ x = 1 $，$ y = 1 $ 代入第一个方程得：  
+$$
+2 \times 1 + a \times 1 = 5
+$$
+解得：  
+$$
+a = 5 - 2 = 3
+$$
+因此参数 $ a $ 的值为 3。
+&lt;/解析&gt;
+&lt;答案&gt;  3  &lt;/答案&gt;</t>
+  </si>
+  <si>
+    <t>&lt;题目&gt;下列长度的三条线段中，能组成三角形的是（  ）
+A. 3cm，4cm，8cm  
+B. 5cm，6cm，10cm  
+C. 2cm，3cm，5cm  
+D. 4cm，4cm，9cm&lt;/题目&gt;
+&lt;解析&gt;根据三角形三边关系定理，任意两边之和大于第三边。需逐一验证各选项：
+- **选项A**：3+4=7 &lt; 8，不满足定理，排除；
+- **选项B**：5+6=11 &gt; 10，5+10=15 &gt; 6，6+10=16 &gt; 5，均满足定理；
+- **选项C**：2+3=5 = 5，不满足“和大于第三边”，排除；
+- **选项D**：4+4=8 &lt; 9，不满足定理，排除。&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+下列计算正确的是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. $ (3x + 2)(3x - 2) = 9x^2 + 4 $  
+B. $ (5a - 1)(-5a - 1) = -25a^2 - 1 $  
+C. $ (-2x + y)(2x + y) = y^2 - 4x^2 $  
+D. $ (m + n)(m - n) = m^2 + n^2 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+**选项 A**：$ (3x + 2)(3x - 2) $ 是平方差形式，应计算为  
+$$
+(3x)^2 - 2^2 = 9x^2 - 4
+$$  
+但选项中结果为 $ 9x^2 + 4 $，符号错误，排除。
+**选项 B**：$ (5a - 1)(-5a - 1) $ 可变形为  
+$$
+-(5a - 1)(5a + 1)
+$$  
+应用平方差公式得  
+$$
+-[(5a)^2 - 1^2] = -25a^2 + 1
+$$  
+但选项中结果为 $ -25a^2 - 1 $，常数项符号错误，排除。
+**选项 C**：$ (-2x + y)(2x + y) $ 可整理为  
+$$
+(y - 2x)(y + 2x)
+$$  
+应用平方差公式得  
+$$
+y^2 - (2x)^2 = y^2 - 4x^2
+$$  
+与选项一致，正确。
+**选项 D**：$ (m + n)(m - n) $ 是标准平方差形式，应计算为  
+$$
+m^2 - n^2
+$$  
+但选项中结果为 $ m^2 + n^2 $，符号错误，排除。
+&lt;/解析&gt;
+&lt;答案&gt;  C  &lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;若菱形的两条对角线长分别为6和8，则此菱形的面积为（）
+A. 12  
+B. 24  
+C. 48  
+D. 36&lt;/题目&gt;
+&lt;解析&gt;菱形的面积公式为两条对角线乘积的一半。题目中给出的对角线长度分别为6和8，因此面积为：  
+$$\text{面积} = \frac{1}{2} \times 6 \times 8 = 24$$
+选项B正确。其他选项中，A未正确应用公式（漏乘1/2），C未除以2，D错误地将两数相加而非相乘。&lt;/解析&gt;
+&lt;答案&gt;B&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知一个长方形的长为 $ (2x + 3y) $ 米，宽为 $ (3x + 4y) $ 米，若将这个长方形与一个边长为 $ x $ 米的小正方形拼接成新的图形，求新图形的总占地面积，并将结果按 $ x $ 的降幂排列。
+&lt;/题目&gt;
+&lt;解析&gt;  
+**步骤1**：计算原长方形的面积。根据长方形面积公式，面积为：
+$$(2x + 3y)(3x + 4y)$$
+展开乘法：
+- $ 2x \cdot 3x = 6x^2 $
+- $ 2x \cdot 4y = 8xy $
+- $ 3y \cdot 3x = 9xy $
+- $ 3y \cdot 4y = 12y^2 $
+合并同类项得：
+$$6x^2 + 8xy + 9xy + 12y^2 = 6x^2 + 17xy + 12y^2$$
+**步骤2**：计算小正方形的面积。边长为 $ x $，面积为：
+$$x \cdot x = x^2$$
+**步骤3**：求总占地面积。将两部分面积相加：
+$$6x^2 + 17xy + 12y^2 + x^2 = 7x^2 + 17xy + 12y^2$$
+**关键点**：整式乘法需注意分配律，合并同类项时要确认字母部分完全相同。
+&lt;/解析&gt;
+&lt;答案&gt;  $7x^2 + 17xy + 12y^2 \text{ 平方米}$  &lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;题目&gt;  
+将整式 $ (x^2 + 3x + 2)(2x - 5) $ 化简后，再除以 $ x + 1 $，求商式与余式。
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 先将 $ (x^2 + 3x + 2)(2x - 5) $ 展开：  
+   $$(x^2 + 3x + 2)(2x - 5) = x^2 \cdot 2x + 3x \cdot 2x + 2 \cdot 2x - x^2 \cdot 5 - 3x \cdot 5 - 2 \cdot 5$$  
+   $$  = 2x^3 + 6x^2 + 4x - 5x^2 - 15x - 10$$  
+   $$= 2x^3 + (6 - 5)x^2 + (4 - 15)x - 10$$  
+   $$= 2x^3 + x^2 - 11x - 10$$
+2. 用多项式除法将 $ 2x^3 + x^2 - 11x - 10 $ 除以 $ x + 1 $：  
+   设被除式系数依次为 2, 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10；除式根为 $ x = -1 $，进行综合除法：
+$$
+   ```
+     ┌───────────────
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 │   2    1    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">11    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="3"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2     1     10
+     └───────────────
+          2   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10      0
+   ```
+$$
+   因此商式对应的系数为 2, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="2"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10，对应多项式为 $ 2x^2 - x - 10 $，余式为 0。
+3. 余式为 0，说明 $ x + 1 $ 是该整式的因式。
+&lt;/解析&gt;
+&lt;答案&gt;  商式：$ 2x^2 - x - 10 $；余式：0  &lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+用 30 米长的篱笆围成一个矩形场地，场地的一面靠墙，在与墙平行的一边留有一个 1 米宽的门。设垂直于墙的边长为 $ x $ 米，场地的面积为 $ S $ 平方米。  
+（1）求 $ S $ 与 $ x $ 的函数关系式；  
+（2）求 $ x $ 的取值范围；  
+（3）当 $ x $ 为何值时，场地的面积 $ S $ 最大？最大面积是多少？
+&lt;/题目&gt;
+&lt;解析&gt;  
+（1）设垂直于墙的边长为 $ x $ 米，则与墙平行的边实际使用的篱笆长度为 $ (30 - 2x) $ 米。由于该边有一个 1 米宽的门，因此该边的实际长度为  
+$$
+(30 - 2x) + 1 = 31 - 2x \text{ 米}
+$$
+场地的面积为：  
+$$
+S = x \cdot (31 - 2x)
+$$  
+化简得函数关系式为：  
+$$
+S = -2x^2 + 31x
+$$
+（2）根据实际意义，矩形的边长必须大于 0，即：  
+$$
+x &gt; 0 \quad \text{且} \quad 31 - 2x &gt; 0
+$$  
+解得：  
+$$
+0 &lt; x &lt; 15.5
+$$
+（3）函数 $ S = -2x^2 + 31x $ 是一个开口向下的抛物线，其最大值出现在顶点处。
+顶点横坐标为：  
+$$
+x = -\frac{b}{2a} = -\frac{31}{2 \times (-2)} = \frac{31}{4} = 7.75
+$$
+将 $ x = 7.75 $ 代入函数，得最大面积：  
+$$
+S_{\text{最大}} = -2 \times (7.75)^2 + 31 \times 7.75 = 121.125
+$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+（1）$ S = -2x^2 + 31x $；  
+（2）$ 0 &lt; x &lt; 15.5 $；  
+（3）当 $ x = 7.75 $ 米时，最大面积为 $ 121.125 $ 平方米。
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;题目&gt;  
 已知二次函数 $ y = ax^2 + bx + c $ 的图象以点 $ M(2, -1) $ 为顶点，且与 x 轴交于点 $ A(1, 0) $ 和点 $ B $，求此二次函数的解析式。
 &lt;/题目&gt;
@@ -3779,679 +7015,80 @@
    所以另一个交点为 $ B(3, 0) $，符合题意。
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-y = x^2 - 4x + 3
+$$y = x^2 - 4x + 3$$  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+用代入消元法解方程组：  
+$$
+\begin{cases}
+3x + 2y = 14 \\
+x - y = 3
+\end{cases}
+$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+**步骤1：从第二个方程解出 $ x $**  
+由 $ x - y = 3 $，得  
+$$
+x = y + 3
+$$
+**步骤2：将 $ x = y + 3 $ 代入第一个方程**  
+代入 $ 3x + 2y = 14 $ 中：  
+$$
+3(y + 3) + 2y = 14
 $$  
+展开并整理：  
+$$
+3y + 9 + 2y = 14 \Rightarrow 5y + 9 = 14 \Rightarrow 5y = 5 \Rightarrow y = 1
+$$
+**步骤3：回代求 $ x $**  
+将 $ y = 1 $ 代入 $ x = y + 3 $ 中：  
+$$
+x = 1 + 3 = 4
+$$
+**验证**  
+将 $ x = 4 $、$ y = 1 $ 代入原方程组：  
+1. $ 3(4) + 2(1) = 12 + 2 = 14 $（成立）  
+2. $ 4 - 1 = 3 $（成立）
+&lt;/解析&gt;
+&lt;答案&gt;  
+$$x = 4,\quad y = 1$$ 
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;题目&gt;  
-已知二次函数 f(x)=ax²+bx+c (a≠0) 的顶点坐标为 (0,4)，且 f(1)=1。  
-(1) 求 f(x) 的解析式；  
-(2) 解不等式 f(x)≥1；  
-(3) 若方程 f(x)=m 有两个不相等实数根，求 m 的取值范围。  
-&lt;/题目&gt;  
-&lt;解析&gt;  
-1. 设 f(x)=ax²+bx+c。  
-   顶点横坐标 x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>₀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">b/(2a)=0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> b=0；  
-   顶点纵坐标 y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>₀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=f(0)=c=4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> c=4；  
-   又 f(1)=a·1²+0·1+4=1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a+4=1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3。  
-   故 f(x)=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x²+4。  
-2. 解不等式 f(x)≥1：  
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x²+4≥1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3x²≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> x²≤1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1≤x≤1。  
-3. 方程 f(x)=m 即 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3x²+4=m </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3x²+(4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">m)=0，其判别式  
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=0²</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4·(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3)·(4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m)=12(4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">m)。  
-   要有两个不相等实根，需 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="161"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m&gt;0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="1"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m&lt;4。  
-&lt;/解析&gt;  
+    <t>&lt;题目&gt;  
+用代入消元法解下列方程组：  
+$$
+\begin{cases}  
+2x + 3y = 12 \\  
+5x - y = 13  
+\end{cases}
+$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. 由第二个方程 $ 5x - y = 13 $，可得  
+   $$
+   y = 5x - 13
+   $$
+2. 将 $ y = 5x - 13 $ 代入第一个方程 $ 2x + 3y = 12 $：  
+   $$
+   2x + 3(5x - 13) = 12
+   \Rightarrow 2x + 15x - 39 = 12
+   \Rightarrow 17x = 51
+   \Rightarrow x = 3
+   $$
+3. 将 $ x = 3 $ 代入 $ y = 5x - 13 $：  
+   $$
+   y = 5 \cdot 3 - 13 = 15 - 13 = 2
+   $$
+&lt;/解析&gt;
 &lt;答案&gt;  
-(1) f(x)=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3x²+4  
-(2) [</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,1]  
-(3) m&lt;4</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-当 $ x = \underline{\quad} $ 时，分式 $\dfrac{x^2 - 16}{x + 4}$ 的值为 $ 0 $；当 $ x = \underline{\quad} $ 时，该分式无意义。
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一空解析**：  
-分式的值为 $ 0 $ 需满足两个条件：  
-1. **分子等于 $ 0 $**：$ x^2 - 16 = 0 $，解得 $ x = 4 $ 或 $ x = -4 $。  
-2. **分母不等于 $ 0 $**：$ x + 4 \ne 0 $，即 $ x \ne -4 $。  
-综合得 $ x = 4 $。
-**第二空解析**：  
-分式无意义的条件是**分母等于 $ 0 $**：  
-$ x + 4 = 0 $，解得 $ x = -4 $。
-**注意**：若直接代入 $ x = -4 $，分子 $ (-4)^2 - 16 = 0 $，此时分式形式上为 $ \dfrac{0}{0} $，属于未定义，因此分式无意义。
-&lt;/解析&gt;
-&lt;答案&gt;  $ 4 $；$ -4 $&lt;/答案&gt;</t>
+$$x = 3 ,  y = 2$$
+&lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4483,9 +7120,7 @@
 5. 将所有结果代入原式进行加减运算。
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-4 - 3 + (2 - \sqrt{3}) + 4 = 7 - \sqrt{3}
-$$  
+$$4 - 3 + (2 - \sqrt{3}) + 4 = 7 - \sqrt{3}$$  
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4531,9 +7166,7 @@
 &lt;/解析&gt;
 &lt;答案&gt;  
  $ 15.5 $；  
-$$
-15.5 &gt; -13.5
-$$  
+$$15.5 &gt; -13.5$$  
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4570,37 +7203,7 @@
 $$
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-\frac{5\sqrt{3} - 1}{2}
-$$  
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知多项式 $ f(x) = 2x^3 - 5x^2 + 7x - 3 $，用余数定理求 $ f(x) $ 除以 $ (x-1) $ 的余数，并用综合除法验证结果。
-&lt;/题目&gt;
-&lt;解析&gt;  
-**步骤1：应用余数定理求余数**  
-根据余数定理，多项式 $ f(x) $ 除以 $ (x-a) $ 的余数为 $ f(a) $。此处 $ a = 1 $，因此直接计算 $ f(1) $：  
-$$
-f(1) = 2(1)^3 - 5(1)^2 + 7(1) - 3 = 2 - 5 + 7 - 3 = 1
-$$  
-所以余数为 **1**。
-**步骤2：用综合除法验证**  
-将多项式 $ f(x) = 2x^3 - 5x^2 + 7x - 3 $ 除以 $ (x-1) $，使用综合除法：
-1. 提取系数：$ 2,\ -5,\ 7,\ -3 $。  
-2. 写下 $ a = 1 $，开始综合除法：
-- 第一步：将首项系数 2 直接下拉。
-- 第二步：$ 2 \times 1 = 2 $，加到 -5 得 -3。
-- 第三步：$ -3 \times 1 = -3 $，加到 7 得 4。
-- 第四步：$ 4 \times 1 = 4 $，加到 -3 得 **1**。
-3. 最终余数为 **1**，与余数定理结果一致。商式为 $ 2x^2 - 3x + 4 $。
-**结论**  
-通过两种方法均得到余数为 **1**，验证了结果的正确性。
-&lt;/解析&gt;
-&lt;答案&gt;  
-余数为 $\boxed{1}$
+$$\frac{5\sqrt{3} - 1}{2}$$  
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4659,78 +7262,7 @@
    解得 $ a = 1 $、$ b = 1 $、$ c = 2 $。
 4. **计算 $ f(3) $**：  
    由余数定理，  
-   $$
-   f(3) = 27 +
-   $$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-解不等式组：  
-$$
-\begin{cases}
-5x - 1 \leq 3(x + 1) \\
-\frac{x - 2}{3} &lt; x - 1
-\end{cases}
-$$  
-并在数轴上表示解集，写出所有整数解。
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一步：解第一个不等式**  
-$$
-5x - 1 \leq 3(x + 1)
-$$  
-展开右边：  
-$$
-5x - 1 \leq 3x + 3
-$$  
-移项（两边减 $ 3x $，加 $ 1 $）：  
-$$
-2x \leq 4
-$$  
-解得：  
-$$
-x \leq 2
-$$
-**第二步：解第二个不等式**  
-$$
-\frac{x - 2}{3} &lt; x - 1
-$$  
-两边同乘 $ 3 $（不改变不等号方向）：  
-$$
-x - 2 &lt; 3(x - 1)
-$$  
-展开右边：  
-$$
-x - 2 &lt; 3x - 3
-$$  
-移项（两边减 $ x $，加 $ 3 $）：  
-$$
-1 &lt; 2x
-$$  
-解得：  
-$$
-x &gt; \frac{1}{2}
-$$
-**第三步：求不等式组的解集**  
-两个不等式的解集分别为：  
-$$
-x \leq 2 \quad \text{和} \quad x &gt; \frac{1}{2}
-$$  
-因此，不等式组的解集为：  
-$$
-\frac{1}{2} &lt; x \leq 2
-$$
-**第四步：在数轴上表示解集**  
-数轴上以空心点标出 $ \frac{1}{2} $（不包含），以实心点标出 $ 2 $（包含），解集为两者之间的线段。
-**第五步：找出整数解**  
-在 $ \frac{1}{2} &lt; x \leq 2 $ 范围内，整数解为  
-$$
-1 \quad \text{和} \quad 2
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-解集为 $ \frac{1}{2} &lt; x \leq 2 $，整数解为 $ 1 $ 和 $ 2 $。&lt;/答案&gt;</t>
+   $$ f(3) = 27 +$$</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4774,127 +7306,8 @@
      $$
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-[1, 2)
-$$  
+$$[1, 2)$$  
 &lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-已知二次函数 $ y = 3(x - 2)^2 + 5 $，下列说法正确的是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. 顶点坐标为 $(-2, 5)$  
-B. 开口向下  
-C. 当 $ x = 2 $ 时，$ y $ 有最小值 $ 5 $  
-D. 当 $ x = 0 $ 时，$ y = 5 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. **选项 A 分析**：  
-   二次函数顶点式为 $ y = a(x - h)^2 + k $，顶点坐标为 $ (h, k) $。  
-   题目中 $ h = 2 $，$ k = 5 $，因此顶点坐标为 $ (2, 5) $。  
-   选项 A 的横坐标符号错误，排除。
-2. **选项 B 分析**：  
-   二次项系数 $ a = 3 &gt; 0 $，抛物线开口向上。  
-   选项 B “开口向下”错误，排除。
-3. **选项 C 分析**：  
-   因 $ a = 3 &gt; 0 $，抛物线开口向上，顶点 $ (2, 5) $ 为最低点，  
-   故当 $ x = 2 $ 时，$ y $ 取得最小值 $ 5 $。  
-   选项 C 正确。
-4. **选项 D 分析**：  
-   将 $ x = 0 $ 代入解析式：  
-   $$
-   y = 3(0 - 2)^2 + 5 = 3 \times 4 + 5 = 17 \eq 5
-   $$  
-   选项 D 错误。
-综上，正确答案为 **C**。
-&lt;/解析&gt;
-&lt;答案&gt;  
-C  
-&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-已知二次函数 $ y = x^2 + bx + c $ 的图像与 x 轴有且仅有一个公共点，且关于 x 的不等式 $ x^2 + bx + c &gt; 0 $ 的解集为全体实数。则下列结论正确的是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. $ b = 0 $  
-B. $ c = 0 $  
-C. $ b^2 - 4c = 0 $  
-D. $ b^2 - 4c &lt; 0 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. **分析方程与 x 轴的交点**：  
-   二次函数 $ y = x^2 + bx + c $ 的图像与 x 轴有且仅有一个公共点，说明方程  
-   $$
-   x^2 + bx + c = 0
-   $$  
-   有两个相等的实数根，因此判别式  
-   $$
-   \Delta = b^2 - 4c = 0
-   $$
-2. **分析不等式的解集**：  
-   不等式 $ x^2 + bx + c &gt; 0 $ 的解集为全体实数，说明抛物线开口向上（二次项系数为 $ 1 &gt; 0 $），且顶点在 x 轴上（即与 x 轴相切）。此时  
-   $$
-   x^2 + bx + c \geq 0
-   $$  
-   对所有 $ x $ 成立，且仅在顶点处等于 0，因此  
-   $$
-   x^2 + bx + c &gt; 0
-   $$  
-   的解集为全体实数。
-3. **验证选项**：  
-   - A. $ b = 0 $：若 $ b = 0 $，则由 $ b^2 - 4c = 0 $ 得 $ c = 0 $，此时抛物线为 $ y = x^2 $，与 x 轴交于原点，但该点是唯一交点，满足题意，但此选项只是特例，并非普遍成立，排除。  
-   - B. $ c = 0 $：若 $ c = 0 $，则 $ b^2 = 0 $，即 $ b = 0 $，与 A 矛盾，排除。  
-   - C. $ b^2 - 4c = 0 $：符合判别式条件，正确。  
-   - D. $ b^2 - 4c &lt; 0 $：此时方程无实根，图像与 x 轴没有交点，与题意矛盾，排除。
-综上所述，正确答案为 **C**。
-&lt;/解析&gt;
-&lt;答案&gt;  
-C  
-&lt;/答案&gt;</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4946,93 +7359,12 @@
 \Rightarrow k = \frac{1 \pm \sqrt{5}}{2}
 $$
 由二次函数图像可知，开口向上，不等式 $ k^2 - k - 1 &gt; 0 $ 的解集为：
-$$
-k &lt; \frac{1 - \sqrt{5}}{2} \quad \text{或} \quad k &gt; \frac{1 + \sqrt{5}}{2}
-$$
+$$k &lt; \frac{1 - \sqrt{5}}{2} \quad \text{或} \quad k &gt; \frac{1 + \sqrt{5}}{2}$$
 &lt;/解析&gt;
 &lt;答案&gt;  
 C  
 &lt;/答案&gt;</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-小明去商店购买笔记本和钢笔，已知购买 3 本笔记本和 2 支钢笔共花费 22 元，购买 5 本笔记本和 4 支钢笔共花费 36 元。求每本笔记本和每支钢笔的价格。
-&lt;/题目&gt;
-&lt;解析&gt;  
-**步骤1：设未知数**  
-设每本笔记本的价格为 $ x $ 元，每支钢笔的价格为 $ y $ 元。
-**步骤2：列方程组**  
-根据题意，可列出以下两个方程：  
-$$
-\begin{cases}
-3x + 2y = 22 \quad \text{(第一次购买)} \\
-5x + 4y = 36 \quad \text{(第二次购买)}
-\end{cases}
-$$
-**步骤3：消元求解**  
-将第一个方程乘以 2，得到：  
-$$
-6x + 4y = 44 \quad \text{(新方程1)}
-$$  
-用新方程 1 减去第二个方程：  
-$$
-(6x + 4y) - (5x + 4y) = 44 - 36
-$$  
-化简得：  
-$$
-x = 8
-$$
-**步骤4：代入求另一未知数**  
-将 $ x = 8 $ 代入第一个原方程 $ 3x + 2y = 22 $：  
-$$
-3 \times 8 + 2y = 22 \\
-24 + 2y = 22 \\
-2y = -2 \\
-y = -1
-$$  
-此时发现 $ y = -1 $ 不符合实际意义，说明计算过程中存在错误。需重新检查步骤。
-**修正步骤3和步骤4**  
-正确消元方式：将第一个方程乘以 2 后，用新方程 1 减去第二个方程：  
-$$
-(6x + 4y) - (5x + 4y) = 44 - 36 \\
-x = 8
-$$  
-将 $ x = 8 $ 代入第一个原方程：  
-$$
-3 \times 8 + 2y = 22 \\
-24 + 2y = 22 \\
-2y = -2 \quad \text{（矛盾，说明假设错误）}
-$$
-**错误原因分析**：题目数据可能存在矛盾，或消元方式需调整。改用代入法：  
-从第一个方程解出 $ y $：  
-$$
-2y = 22 - 3x \\
-y = \frac{22 - 3x}{2}
-$$  
-代入第二个方程：  
-$$
-5x + 4 \times \frac{22 - 3x}{2} = 36 \\
-5x + 2(22 - 3x) = 36 \\
-5x + 44 - 6x = 36 \\
-- x = -8 \\
-x = 8
-$$  
-再次代入  
-$$
-y = \frac{22 - 3 \times 8}{2} = \frac{-2}{2} = -1
-$$，  
-仍矛盾。
-**结论**：题目数据有误，无实际解。但若假设题目中第二次购买总价为 40 元，则：  
-$$
-5x + 4y = 40
-$$  
-此时消元得 $ x = 4 $，$ y = 5 $，符合实际。
-&lt;/解析&gt;
-&lt;答案&gt;  
-每本笔记本 4 元，每支钢笔 5 元。
-&lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5112,54 +7444,12 @@
    x = \frac{26 - 3y}{4}
    $$，  
    代入 (2)：  
-   $$
-   2\left(\frac{26 - 3y}{4}\right) + 5y = 24 \implies \frac{26 - 3y}{2} + 5y = 24 \implies 26 - 3y + 10y = 48 \implies 7y = 22 \implies y = \frac{22}{7} \quad \text{(仍错误)}
-   $$
+   $$ 2\left(\frac{26 - 3y}{4}\right) + 5y = 24 \implies \frac{26 - 3y}{2} + 5y = 24 \implies 26 - 3y + 10y = 48 \implies 7y = 22 \implies y = \frac{22}{7} \quad \text{(仍错误)}$$
    因此最终正确答案应为：  
    铅笔单价 4 元，橡皮单价 2 元。
 &lt;/解析&gt;
 &lt;答案&gt;  
 铅笔单价 4 元，橡皮单价 2 元。
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知有理数 $ a $、$ b $ 满足 $ |a| = 4 $，$ |b| = 2 $，且 $ a &lt; b $。  
-（1）求 $ a $ 和 $ b $ 的值；  
-（2）计算 $ a + b $ 和 $ a - b $ 的值；  
-（3）若 $ c = a + |b| $，求 $ c $ 的值。
-&lt;/题目&gt;
-&lt;解析&gt;  
-（1）由 $ |a| = 4 $ 得 $ a = 4 $ 或 $ a = -4 $；由 $ |b| = 2 $ 得 $ b = 2 $ 或 $ b = -2 $。  
-根据条件 $ a &lt; b $，需满足：  
-- 当 $ a = 4 $ 时，$ b $ 必须大于 4，但 $ b $ 最大为 2，无解；  
-- 当 $ a = -4 $ 时，$ b $ 可为 $ -2 $ 或 $ 2 $，均满足 $ -4 &lt; -2 $ 和 $ -4 &lt; 2 $。  
-故 $ a = -4 $，$ b = -2 $ 或 $ b = 2 $。
-（2）分情况计算：  
-- 当 $ b = -2 $ 时，  
-  $$
-  a + b = -4 + (-2) = -6,\quad a - b = -4 - (-2) = -2
-  $$  
-- 当 $ b = 2 $ 时，  
-  $$
-  a + b = -4 + 2 = -2,\quad a - b = -4 - 2 = -6
-  $$
-（3）由 $ c = a + |b| $：  
-- 当 $ b = -2 $ 时，$ |b| = 2 $，故  
-  $$
-  c = -4 + 2 = -2
-  $$  
-- 当 $ b = 2 $ 时，$ |b| = 2 $，故  
-  $$
-  c = -4 + 2 = -2
-  $$  
-综上，$ c = -2 $。
-&lt;/解析&gt;
-&lt;答案&gt;  
-（1）$ a = -4 $，$ b = -2 $ 或 $ b = 2 $；  
-（2）$ a + b = -6 $ 或 $ -2 $，$ a - b = -2 $ 或 $ -6 $；  
-（3）$ c = -2 $。
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5197,53 +7487,7 @@
 &lt;/解析&gt;
 &lt;答案&gt;  
 方程组的解为：  
-$$
-\boxed{x = \dfrac{8}{7}, \ y = \dfrac{37}{7}}
-$$
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知方程组：{2x + 3y = 12}和{4x - 3y = 6}，用代入消元法解这个方程组。&lt;/题目&gt;
-&lt;解析&gt;
-1. 从第二个方程{4x - 3y = 6}中解出3y的表达式：
-   3y = 4x - 6
-2. 将上述表达式代入第一个方程{2x + 3y = 12}：
-   2x + (4x - 6) = 12
-3. 合并同类项并解出x：
-   6x - 6 = 12 → 6x = 18 → x = 3
-4. 将x = 3代入3y = 4x - 6，解出y：
-   3y = 4×3 - 6 → 3y = 6 → y = 2
-&lt;/解析&gt;
-&lt;答案&gt; x = 3，y = 2 &lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知点 $ A(-3, 5) $ 和点 $ B(1, -1) $，下列哪个选项是线段 $ AB $ 的中点坐标？
-&lt;/题目&gt;
-&lt;解析&gt;  
-中点坐标公式为：  
-$$
-\left( \frac{x_1 + x_2}{2}, \frac{y_1 + y_2}{2} \right)
-$$
-将点 $ A(-3, 5) $ 和点 $ B(1, -1) $ 代入计算：  
-- 横坐标：  
-  $$
-  \frac{-3 + 1}{2} = \frac{-2}{2} = -1
-  $$  
-- 纵坐标：  
-  $$
-  \frac{5 + (-1)}{2} = \frac{4}{2} = 2
-  $$
-因此，线段 $ AB $ 的中点坐标为 $ (-1, 2) $。  
-- **选项B**：符合计算结果；  
-- **选项C**：表示的是线段长度，不是中点坐标；  
-- **选项D**：坐标符号错误；  
-- **选项A**：纵坐标计算有误。
-&lt;/解析&gt;
-&lt;答案&gt;  
-B  
+$$\boxed{x = \dfrac{8}{7}, \ y = \dfrac{37}{7}}$$
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5255,9 +7499,7 @@
 根据**余数定理**，多项式 $ f(x) $ 除以 $ x - a $ 的余数为 $ f(a) $。  
 本题中 $ a = 1 $，因此余数为 $ f(1) $。
 计算 $ f(1) $：  
-$$
-f(1) = 1^3 + 2 \times 1^2 - 5 \times 1 + 6 = 1 + 2 - 5 + 6 = 4
-$$
+$$f(1) = 1^3 + 2 \times 1^2 - 5 \times 1 + 6 = 1 + 2 - 5 + 6 = 4$$
 &lt;/解析&gt;
 &lt;答案&gt;  
 A  
@@ -5265,18 +7507,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;题目&gt;计算：$(-3)^2 + |-5| \times (-2) - 6 \div \left(-\frac{1}{2}\right)$&lt;/题目&gt;
-&lt;解析&gt;
-1. **计算平方**：$(-3)^2 = (-3) \times (-3) = 9$；
-2. **计算绝对值**：$|-5| = 5$；
-3. **代入原式**：$9 + 5 \times (-2) - 6 \div \left(-\frac{1}{2}\right)$；
-4. **计算乘法**：$5 \times (-2) = -10$；
-5. **计算除法**：$6 \div \left(-\frac{1}{2}\right) = 6 \times (-2) = -12$；
-6. **代入简化后的式子**：$9 + (-10) - (-12)$；
-7. **统一加减法**：$9 - 10 + 12$；
-8. **从左到右依次计算**：$9 - 10 = -1$，再 $-1 + 12 = 11$。
-&lt;/解析&gt;
-&lt;答案&gt;11</t>
+    <t>&lt;题目&gt;一个圆柱体的高为3厘米，底面圆的周长为8厘米。蚂蚁从圆柱体侧面上的点A（位于顶部边缘）沿表面爬行到点B（位于另一侧的底部边缘）。蚂蚁爬行的最短路径长度是多少厘米？（  ）
+A. 7厘米  
+B. 3厘米  
+C. 4厘米  
+D. 5厘米&lt;/题目&gt;
+&lt;解析&gt;  
+本题考查“两点之间线段最短”的应用。圆柱体侧面展开后是一个长方形，其长为底面圆的周长（8厘米），宽为圆柱的高（3厘米）。由于点B位于另一侧的底部边缘，蚂蚁需横向跨越半周长（8÷2=4厘米）并纵向移动整个高（3厘米）。最短路径为展开图中点A到点B的直线距离，即直角三角形的斜边。根据勾股定理：  
+$$\text{最短路径} = \sqrt{3^2 + 4^2} = \sqrt{9 + 16} = \sqrt{25} = 5 \, \text{厘米}。$$ 
+易错点：误选圆柱的高（B选项）或半周长（C选项），或直接相加（A选项）。正确答案需结合展开图与勾股定理。&lt;/解析&gt;
+&lt;答案&gt;D&lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5301,14 +7541,10 @@
 $$
 **第四步：合并结果**  
 原式变为：  
-$$
--\frac{3}{2} - 1 = -\frac{3}{2} - \frac{2}{2} = -\frac{5}{2}
-$$
+$$-\frac{3}{2} - 1 = -\frac{3}{2} - \frac{2}{2} = -\frac{5}{2}$$
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-\boxed{-\frac{5}{2}}
-$$  
+$$\boxed{-\frac{5}{2}}$$  
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5360,9 +7596,7 @@
 - **A**：错误。x 轴交点应为 $ (1, 0) $ 和 $ (3, 0) $，而非 $ (-3, 0) $。  
 - **B**：正确。y 轴交点为 $ (0, 3) $。  
 - **C**：错误。判别式  
-  $$
-  \Delta = (-4)^2 - 4 \cdot 1 \cdot 3 = 16 - 12 = 4 &gt; 0
-  $$  
+  $$\Delta = (-4)^2 - 4 \cdot 1 \cdot 3 = 16 - 12 = 4 &gt; 0$$  
   说明与 x 轴有两个不同交点，而非相切。  
 - **D**：错误。与坐标轴共有 3 个交点（2 个 x 轴交点 + 1 个 y 轴交点）。
 &lt;/解析&gt;
@@ -5402,16 +7636,8 @@
    $$
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-\boxed{28\pi}
-$$  
+$$\boxed{28\pi}$$  
 &lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;一个正多边形的每个外角都是30°，则这个多边形的边数为______。&lt;/题目&gt;  
-&lt;解析&gt;根据多边形的外角和定理，任意多边形的外角和均为360°。对于正多边形，每个外角相等，因此边数可通过外角和除以单个外角度数计算。设边数为 n ，则$n = \frac{360^\circ}{\text{每个外角的度数}} = \frac{360^\circ}{30^\circ} = 12$。&lt;/解析&gt;  
-&lt;答案&gt;12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5446,9 +7672,7 @@
    $$
 &lt;/解析&gt;
 &lt;答案&gt;  
-$$
-a = 3,\quad b = -4,\quad \sqrt{a^2 + b^2} = 5
-$$  
+$$a = 3,\quad b = -4,\quad \sqrt{a^2 + b^2} = 5$$  
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5460,54 +7684,32 @@
 &lt;/题目&gt;
 &lt;解析&gt;  
 （1）设二次函数的交点式为：  
-$$
-y = a(x + 2)(x - 4)
-$$  
+$$y = a(x + 2)(x - 4)$$  
 因拱桥开口向下，故 $ a &lt; 0 $。  
 抛物线的顶点横坐标为：  
-$$
-x = \frac{-2 + 4}{2} = 1
-$$  
+$$x = \frac{-2 + 4}{2} = 1$$  
 由于最高点纵坐标为 6，即顶点为 $ (1, 6) $。将顶点代入解析式：  
-$$
-6 = a(1 + 2)(1 - 4) \implies 6 = a \cdot 3 \cdot (-3) \implies a = -\frac{6}{9} = -\frac{2}{3}
-$$  
+$$6 = a(1 + 2)(1 - 4) \implies 6 = a \cdot 3 \cdot (-3) \implies a = -\frac{6}{9} = -\frac{2}{3}$$  
 展开并整理得二次函数解析式：  
-$$
-y = -\frac{2}{3}(x^2 - 2x - 8) = -\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3}
-$$
+$$y = -\frac{2}{3}(x^2 - 2x - 8) = -\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3}$$
 （2）水面上涨 2 米后，水面位置为 $ y = 2 $。令函数值等于 2：  
-$$
--\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3} = 2
-\implies -2x^2 + 4x + 16 = 6
-\implies x^2 - 2x - 5 = 0
-$$  
+$$\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3} = 2$$
+$$\implies -2x^2 + 4x + 16 = 6$$
+$$\implies x^2 - 2x - 5 = 0$$  
 解得：  
-$$
-x = 1 \pm \sqrt{6}
-$$  
+$$x = 1 \pm \sqrt{6}$$  
 此时水面宽度为：  
-$$
-(1 + \sqrt{6}) - (1 - \sqrt{6}) = 2\sqrt{6}
-$$  
+$$(1 + \sqrt{6}) - (1 - \sqrt{6}) = 2\sqrt{6}$$  
 原水面宽度为：  
-$$
-4 - (-2) = 6
-$$  
+$$4 - (-2) = 6$$  
 因此水面宽度减少了：  
-$$
-6 - 2\sqrt{6}
-$$
+$$6 - 2\sqrt{6}$$
 &lt;/解析&gt;
 &lt;答案&gt;  
 （1）该二次函数的解析式为：  
-$$
-y = -\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3}
-$$  
+$$y = -\frac{2}{3}x^2 + \frac{4}{3}x + \frac{16}{3}$$  
 （2）水面上涨 2 米后，水面宽度减少量为：  
-$$
-6 - 2\sqrt{6} \text{ 米}
-$$
+$$6 - 2\sqrt{6} \text{ 米}$$
 &lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5529,15 +7731,13 @@
 根为$x = \frac{-b \pm \sqrt{\Delta}}{2a} = \frac{-3 \pm \sqrt{17}}{4}$。  
 ③ **方程有两个不相等实根的条件**：  
 方程$kx^2 + 2x + 1 = 0$需满足：  
-1. $k 
-eq 0$（保证为一元二次方程）；  
+1. $k \neq 0$（保证为一元二次方程）；  
 2. 判别式$\Delta &gt; 0$，即$2^2 - 4 \times k \times 1 &gt; 0$，解得$4 - 4k &gt; 0$，即$k &lt; 1$。  
-综上，$k$的取值范围是$k &lt; 1$且$k 
-eq 0$。&lt;/解析&gt;
+综上，$k$的取值范围是$k &lt; 1$且$k \neq 0$。&lt;/解析&gt;
 &lt;答案&gt;  
 ① $x_1=2$，$x_2=3$；  
 ② $x=\frac{-3+\sqrt{17}}{4}$或$x=\frac{-3-\sqrt{17}}{4}$；  
-③ $k&lt;1$且$k \eq 0$。</t>
+③ $k&lt;1$且$k \neq 0$。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5567,21 +7767,13 @@
 &lt;/题目&gt;
 &lt;解析&gt;  
 根据一元二次方程根与系数的关系（**韦达定理**），方程  
-$$
-x^2 - 4x + 1 = 0
-$$  
+$$x^2 - 4x + 1 = 0$$  
 的两根 $ a $ 和 $ b $ 满足：  
-$$
-a + b = 4 \quad \text{（根的和）}, \quad ab = 1 \quad \text{（根的积）}.
-$$
+$$a + b = 4 \quad \text{（根的和）}, \quad ab = 1 \quad \text{（根的积）}.$$
 将 $ \frac{1}{a} + \frac{1}{b} $ 通分得：  
-$$
-\frac{1}{a} + \frac{1}{b} = \frac{a + b}{ab}
-$$
+$$\frac{1}{a} + \frac{1}{b} = \frac{a + b}{ab}$$
 代入已知数值：  
-$$
-\frac{a + b}{ab} = \frac{4}{1} = 4
-$$
+$$\frac{a + b}{ab} = \frac{4}{1} = 4$$
 因此，正确答案为选项 A。
 &lt;/解析&gt;
 &lt;答案&gt;  
@@ -5592,6 +7784,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>&lt;题目&gt;  
+已知二次函数 $ y = 3(x - 2)^2 + 5 $，下列说法正确的是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. 顶点坐标为 $(-2, 5)$  
+B. 开口向下  
+C. 当 $ x = 2 $ 时，$ y $ 有最小值 $ 5 $  
+D. 当 $ x = 0 $ 时，$ y = 5 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. **选项 A 分析**：  
+   二次函数顶点式为 $ y = a(x - h)^2 + k $，顶点坐标为 $ (h, k) $。  
+   题目中 $ h = 2 $，$ k = 5 $，因此顶点坐标为 $ (2, 5) $。  
+   选项 A 的横坐标符号错误，排除。
+2. **选项 B 分析**：  
+   二次项系数 $ a = 3 &gt; 0 $，抛物线开口向上。  
+   选项 B “开口向下”错误，排除。
+3. **选项 C 分析**：  
+   因 $ a = 3 &gt; 0 $，抛物线开口向上，顶点 $ (2, 5) $ 为最低点，  
+   故当 $ x = 2 $ 时，$ y $ 取得最小值 $ 5 $。  
+   选项 C 正确。
+4. **选项 D 分析**：  
+   将 $ x = 0 $ 代入解析式：  
+   $$y = 3(0 - 2)^2 + 5 = 3 \times 4 + 5 = 17 \neq 5$$  
+   选项 D 错误。
+综上，正确答案为 **C**。
+&lt;/解析&gt;
+&lt;答案&gt;  
+C  
+&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;题目&gt;  
 某商店将一件商品按标价的八折出售，仍可获利20%。若该商品的进价为100元，求这件商品的标价是多少元？
 &lt;/题目&gt;
@@ -5606,11 +7851,9 @@
 100 \times 20\% = 20 \text{ 元}
 $$
 根据“售价 = 进价 + 利润”，列出方程：
-$$
-0.8x = 100 + 20
-\implies 0.8x = 120
-\implies x = \frac{120}{0.8} = 150
-$$
+$$0.8x = 100 + 20$$
+$$\implies 0.8x = 120$$
+$$\implies x = \frac{120}{0.8} = 150$$
 因此，这件商品的标价为 **150 元**。
 &lt;/解析&gt;
 &lt;答案&gt;  
@@ -5624,33 +7867,425 @@
 &lt;/题目&gt;
 &lt;解析&gt;  
 首先观察前三项 $ x^2 - 4xy + 4y^2 $，发现这是一个完全平方式，可变形为  
-$$
-(x - 2y)^2
-$$
+$$(x - 2y)^2$$
 此时原式变为：  
-$$
-(x - 2y)^2 - 9
-$$
+$$(x - 2y)^2 - 9$$
 接着利用**平方差公式**：  
-$$
-a^2 - b^2 = (a - b)(a + b)
+$$a^2 - b^2 = (a - b)(a + b)$$  
+将 $ 9 $ 视为 $ 3^2 $，则有：  
+$$(x - 2y)^2 - 3^2 = (x - 2y - 3)(x - 2y + 3)$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+$$(x - 2y - 3)(x - 2y + 3)$$  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+若分式 $ \frac{1}{x^2 - 5x + 6} $ 有意义，则 $ x $ 的取值范围是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. $ x \ne 2 $  
+B. $ x \ne 3 $  
+C. $ x \ne 2 $ 且 $ x \ne 3 $  
+D. $ x \ne 2 $ 或 $ x \ne 3 $
+&lt;/题目&gt;
+&lt;解析&gt;  
+分式有意义的条件是 **分母不为零**。  
+将分母 $ x^2 - 5x + 6 $ 因式分解：  
+$$
+x^2 - 5x + 6 = (x - 2)(x - 3)
+$$
+因此，分母不为零的条件是：  
+$$(x - 2)(x - 3) \neq 0$$
+$$\Rightarrow x - 2 \neq 0 \quad \text{且} \quad x - 3 \neq 0$$
+$$\Rightarrow x \ne 2 \quad \text{且} \quad x \neq 3$$
+- **选项 A 和 B**：只排除一个值，不完整；  
+- **选项 D**：“或”表示只需满足其中一个条件，不符合实际要求；  
+- **选项 C**：正确表达了“且”的逻辑关系。
+&lt;/解析&gt;
+&lt;答案&gt;  
+C  
+&lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;已知点A在y轴上，且到点B(3, 0)的距离为5，则点A的坐标为______。&lt;/题目&gt;  
+&lt;解析&gt;因为点A在y轴上，所以其横坐标为0，设A的坐标为(0, y)。根据两点间距离公式，AB的距离为：  
+$$\sqrt{(3-0)^2 + (0-y)^2} = \sqrt{9 + y^2} = 5$$ 
+两边平方得：  
+$$9 + y^2 = 25 \implies y^2 = 16 \implies y = 4 \text{ 或 } y = -4  $$
+因此，点A的坐标为(0, 4)或(0, -4)。&lt;/解析&gt;  
+&lt;答案&gt;(0,4)或(0,-4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知等差数列 $ \{a_n\} $ 的首项为 5，公差为 3，求前 10 项的和 $ S_{10} $。
+&lt;/题目&gt;
+&lt;解析&gt;  
+根据等差数列的求和公式：  
+$$S_n = \frac{n(a_1 + a_n)}{2}$$  
+首先需要确定第 10 项 $ a_{10} $。  
+已知：  
+- 首项 $ a_1 = 5 $  
+- 公差 $ d = 3 $  
+- 第 $ n $ 项公式为：$ a_n = a_1 + (n - 1)d $
+代入 $ n = 10 $ 得：  
+$$a_{10} = 5 + (10 - 1) \times 3 = 5 + 9 \times 3 = 5 + 27 = 32$$
+将 $ a_1 = 5 $、$ a_{10} = 32 $、$ n = 10 $ 代入求和公式：  
+$$S_{10} = \frac{10(5 + 32)}{2} = \frac{10 \times 37}{2} = 5 \times 37 = 185$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+185  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+已知函数 $ y = (a - 3)x + (a^2 - 9) $ 是正比例函数，则 $ a $ 的值为 ______。
+&lt;/题目&gt;
+&lt;解析&gt;  
+根据**正比例函数**的定义，其形式为 $ y = kx $（其中 $ k \ne 0 $），即：
+1. **常数项必须为 0**：  
+   $$ a^2 - 9 = 0 \implies a = 3 \quad \text{或} \quad a = -3$$
+2. **一次项系数不能为 0**：  
+   $$ a - 3 \ne 0 \implies a \ne 3$$
+因此，排除 $ a = 3 $，唯一满足条件的是：  
+$$a = -3$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+-3  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算：  $(-3\frac{1}{2}) + 4 \times (-\frac{5}{6}) \div 2\frac{1}{3} - (-7)$
+&lt;/题目&gt;
+&lt;解析&gt;  
+**第一步：处理带分数转化为假分数**  
+$$-3\frac{1}{2} = -\frac{7}{2},\quad 2\frac{1}{3} = \frac{7}{3}$$
+**第二步：先计算乘除部分（从左到右）**
+1. 计算乘法：  
+$$4 \times \left(-\frac{5}{6}\right) = -\frac{20}{6} = -\frac{10}{3}$$
+2. 计算除法：  
+$$-\frac{10}{3} \div \frac{7}{3} = -\frac{10}{3} \times \frac{3}{7} = -\frac{30}{21} = -\frac{10}{7}$$
+**第三步：将各部分代入原式**  
+$$-\frac{7}{2} + \left(-\frac{10}{7}\right) - (-7) = -\frac{7}{2} - \frac{10}{7} + 7$$
+**第四步：统一分数单位计算**
+1. 通分（公分母为 42）：  
+$$-\frac{7 \times 21}{2 \times 21} - \frac{10 \times 6}{7 \times 6} + \frac{7 \times 42}{1 \times 42} = -\frac{147}{42} - \frac{60}{42} + \frac{294}{42}$$
+2. 合并分子：  
+$$\frac{-147 - 60 + 294}{42} = \frac{87}{42}$$
+3. 约分为最简分数：  
+$$\frac{87 \div 3}{42 \div 3} = \frac{29}{14} = 2\frac{1}{14}$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+$$2\frac{1}{14}$$  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算下列表达式的值：  
+$$\left(-\frac{5}{8} + \frac{3}{4}\right) \div \left(-\frac{7}{9} - \frac{2}{3}\right) \times \left(-\frac{3}{5}\right)$$
+&lt;/题目&gt;
+&lt;解析&gt;  
+1. **计算第一个括号**：  
+$$-\frac{5}{8} + \frac{3}{4} = -\frac{5}{8} + \frac{6}{8} = \frac{1}{8}$$
+2. **计算第二个括号**：  
+$$-\frac{7}{9} - \frac{2}{3} = -\frac{7}{9} - \frac{6}{9} = -\frac{13}{9}$$
+3. **将原式代入并化简**：  
+$$\left(\frac{1}{8}\right) \div \left(-\frac{13}{9}\right) \times \left(-\frac{3}{5}\right)$$
+$$= \frac{1}{8} \times \left(-\frac{9}{13}\right) \times \left(-\frac{3}{5}\right)$$
+4. **乘法结合并约分**：  
+$$\frac{1 \times (-9) \times (-3)}{8 \times 13 \times 5}$$
+$$= \frac{27}{520}$$
+&lt;/解析&gt;
+&lt;答案&gt;  
+$$\frac{27}{520}$$  
+&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+先化简分式  
+$$
+\frac{x+2}{x^2-4} \div \frac{x-1}{x^2-4x+4}
 $$  
-将 $ 9 $ 视为 $ 3^2 $，则有：  
-$$
-(x - 2y)^2 - 3^2 = (x - 2y - 3)(x - 2y + 3)
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$$
-(x - 2y - 3)(x - 2y + 3)
-$$  
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;若分式$\frac{3}{2x+6}$有意义，则x的值不能取（  ）。&lt;/题目&gt;
-&lt;解析&gt;分式有意义的条件是分母不为零。解不等式2x+6≠0，得x≠-3。因此x不能取-3对应的选项。&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
+再从 $-2$、$0$、$1$、$2$ 中选择一个合适的 $x$ 值代入求值。
+&lt;/题目&gt;
+&lt;解析&gt;  
+### **第一步：因式分解**
+将分母和分子进行因式分解：
+- $ x^2 - 4 = (x + 2)(x - 2) $
+- $ x^2 - 4x + 4 = (x - 2)^2 $
+### **第二步：分式除法转乘法**
+原式变为：
+$$\frac{x+2}{(x+2)(x-2)} \div \frac{x-1}{(x-2)^2}$$
+$$= \frac{x+2}{(x+2)(x-2)} \times \frac{(x-2)^2}{x-1}$$
+### **第三步：约分**
+- $ x+2 $ 约去；
+- $ x-2 $ 与 $ (x-2)^2 $ 约去一个 $ x-2 $。
+化简后得：
+$$\frac{x-2}{x-1}$$
+### **第四步：代入求值**
+从 $-2$、$0$、$1$、$2$ 中选择合适的 $x$：
+- $ x \ne -2 $：原分母 $x^2 - 4 = 0$
+- $ x \ne 1 $：化简后分母 $x - 1 = 0$
+- $ x \ne 2 $：原分母 $x^2 - 4 = 0$
+唯一可选的值是 $ x = 0 $，代入化简后的表达式：
+$$\frac{0 - 2}{0 - 1} = \frac{-2}{-1} = 2$$
+&lt;/解析&gt;
+&lt;答案&gt;  2  &lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+数轴上点 A 表示的数是 $-3$，点 B 表示的数是 $6$，那么 A、B 两点之间的距离是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. 3  
+B. 9  
+C. $-9$  
+D. 6
+&lt;/题目&gt;
+&lt;解析&gt;  
+数轴上两点间的距离计算公式为两数之差的绝对值。  
+点 A 对应 $-3$，点 B 对应 $6$，因此距离为：  
+$$|6 - (-3)| = |6 + 3| = |9| = 9$$
+- **选项 A 错误**：因未考虑负数的减法规则；  
+- **选项 C 错误**：距离不可能为负数；  
+- **选项 D 错误**：直接用较大数减较小数但未正确计算差值。
+正确答案为 **B**。
+&lt;/解析&gt;
+&lt;答案&gt;  B  &lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+在 △ABC 中，AB = 6，AC = 8，BC = 10，点 D 是 BC 的中点，则线段 AD 的长为（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）  
+A. 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B. 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D. 7
+&lt;/题目&gt;
+&lt;解析&gt;  
+在 △ABC 中，D 为 BC 的中点，AD 是从顶点 A 到对边 BC 的中线。已知三角形三边长，可用**中线公式**求 AD 的长度。
+设：  
+- $ BC = a = 10 $  
+- $ CA = b = 8 $  
+- $ AB = c = 6 $
+则从顶点 A 所作的中线 AD 的长度为：
+$$m_a = \frac{1}{2} \sqrt{2b^2 + 2c^2 - a^2}$$
+$$= \frac{1}{2} \sqrt{2 \cdot 8^2 + 2 \cdot 6^2 - 10^2}$$
+$$= \frac{1}{2} \sqrt{2 \cdot 64 + 2 \cdot 36 - 100}$$
+$$= \frac{1}{2} \sqrt{128 + 72 - 100}$$
+$$= \frac{1}{2} \sqrt{100}$$
+$$= \frac{1}{2} \times 10$$
+$$= 5$$
+&lt;/解析&gt;
+&lt;答案&gt;  B  &lt;/答案&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+计算： $\left( \frac{3}{4} - (-\frac{5}{2}) \right) \div \left[ 1 - (-\frac{2}{3}) \times \left| -\frac{4}{5} \right| \right]$
+&lt;/题目&gt;
+&lt;解析&gt;  
+ **第1步：先计算左括号内的有理数运算**
+$$\frac{3}{4} - (-\frac{5}{2}) = \frac{3}{4} + \frac{5}{2} = \frac{3}{4} + \frac{10}{4} = \frac{13}{4}$$
+ **第2步：计算右括号内的绝对值和乘法**
+$$\left| -\frac{4}{5} \right| = \frac{4}{5}$$  
+$$-\frac{2}{3} \times \frac{4}{5} = -\frac{8}{15}$$
+**第3步：继续计算括号内的加减法**
+$$1 - (-\frac{8}{15}) = 1 + \frac{8}{15} = \frac{15}{15} + \frac{8}{15} = \frac{23}{15}$$
+ **第4步：最后进行整体除法运算**
+$$\frac{13}{4} \div \frac{23}{15} = \frac{13}{4} \times \frac{15}{23} = \frac{13 \times 15}{4 \times 23} = \frac{195}{92}$$
+ **第5步：约简分数后得到最终结果**
+$$\frac{195}{92} = \frac{15}{76}$$
+&lt;/解析&gt;
+&lt;答案&gt;  $\frac{15}{76}$&lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;题目&gt;  
+小明用不超过 80 元购买甲、乙两种文具，甲每件 5 元，乙每件 3 元。要求购买甲的数量不超过乙的 2 倍，且乙的数量至少为 4 件。求小明最多能购买多少件甲文具？
+&lt;/题目&gt;
+&lt;解析&gt;  
+设甲的数量为 $ x $，乙的数量为 $ y $。根据题意：
+1. 总花费限制：$ 5x + 3y \leq 80 $；  
+2. 甲的数量限制：$ x \leq 2y $；  
+3. 乙的最小数量：$ y \geq 4 $。
+为最大化 $ x $，取 $ x = 2y $（因 $ x $ 随 $ y $ 增大而可能增大）。代入总花费不等式：
+$$5(2y) + 3y = 13y \leq 80 \implies y \leq \frac{80}{13} \approx 6.15$$
+故 $ y $ 的最大整数值为 6。此时：
+$$x = 2 \times 6 = 12$$  
+$$\text{总花费} = 5 \times 12 + 3 \times 6 = 60 + 18 = 78 \leq 80$$
+符合所有条件。
+因此，最多能购买 12 件甲文具。
+&lt;/解析&gt;
+&lt;答案&gt;  12  &lt;/答案&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;题目&gt;  
+计算 $ 3^7 \div 3^4 $ 的结果是（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+&lt;/题目&gt;
+&lt;解析&gt;  
+根据同底数幂的除法法则：  
+$$a^m \div a^n = a^{m - n} \quad (a \ne 0)$$
+本题中底数为 $ 3 $，指数分别为 $ 7 $ 和 $ 4 $，因此：  
+$$3^7 \div 3^4 = 3^{7 - 4} = 3^3$$
+选项 **B** 是正确应用该法则后的结果；  
+- 选项 A 错误地进行了指数相加；  
+- 选项 C 错误地计算了指数差值的符号；  
+- 选项 D 则是将底数错误地改为 2。
+&lt;/解析&gt;
+&lt;答案&gt;  B  &lt;/答案&gt;</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -5664,2574 +8299,17 @@
 因此，公因式为 $4x^2y$。
 **步骤2：提取公因式**  
 将原式每一项除以公因式 $4x^2y$：  
-$$
-\begin{align*}
-12x^3y^2 \div 4x^2y &amp;= 3xy, \\
--8x^2y^3 \div 4x^2y &amp;= -2y^2, \\
-16x^2y \div 4x^2y &amp;= 4.
-\end{align*}
-$$
+$$12x^3y^2 \div 4x^2y = 3xy, $$
+$$-8x^2y^3 \div 4x^2y = -2y^2, $$
+$$16x^2y \div 4x^2y = 4.$$
 因此，原式可表示为：  
-$$
-4x^2y \cdot (3xy - 2y^2 + 4).
-$$
+$$4x^2y \cdot (3xy - 2y^2 + 4).$$
 **步骤3：验证结果**  
 展开 $4x^2y(3xy - 2y^2 + 4)$，确认与原式一致：  
-$$
-4x^2y \cdot 3xy = 12x^3y^2, \quad 4x^2y \cdot (-2y^2) = -8x^2y^3, \quad 4x^2y \cdot 4 = 16x^2y.
-$$
+$$4x^2y \cdot 3xy = 12x^3y^2, \quad 4x^2y \cdot (-2y^2) = -8x^2y^3, \quad 4x^2y \cdot 4 = 16x^2y.$$
 所有项均与原式匹配，分解正确。
 **注意**：剩余括号内的多项式 $3xy - 2y^2 + 4$ 无法进一步用提公因式法分解，因此分解完成。&lt;/解析&gt;
 &lt;答案&gt;$4x^2y(3xy - 2y^2 + 4)$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;计算：3√2 - 2√8 + 5√12 - √18&lt;/题目&gt;
-&lt;解析&gt;
-第一步：化简所有二次根式
-√8 = 2√2，√12 = 2√3，√18 = 3√2
-第二步：代入原式并合并同类项
-3√2 - 2×2√2 + 5×2√3 - 3√2
-= 3√2 - 4√2 + 10√3 - 3√2
-= (3 - 4 - 3)√2 + 10√3
-= -4√2 + 10√3
-第三步：提取公共因子
-= 2(-2√2 + 5√3)
-最终结果为合并后的表达式
-&lt;/解析&gt;
-&lt;答案&gt;2(-2√2 + 5√3)&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;题目&gt;已知表达式：(√72 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √8) + 2(√18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √2)，下列结果中哪个是它的简化结果？  
-A. 4√2  
-B. 6√2  
-C. 8√2  
-D. 10√2&lt;/题目&gt;  
-&lt;解析&gt;  
-第一步，化简各项二次根式：  
-√72 = √(36×2) = 6√2  
-√8  = √(4×2)  = 2√2  
-√18 = √(9×2)  = 3√2  
-√2  = √2  
-第二步，将化简结果代入原式：  
-(√72 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √8) + 2(√18 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √2)  
-= (6√2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2√2) + 2(3√2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √2)  
-第三步，合并同类项并运算：  
-6√2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 2√2 = 4√2  
-3√2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> √2   = 2√2  
-2 × 2√2   = 4√2  
-所以原式 = 4√2 + 4√2 = 8√2。&lt;/解析&gt;  
-&lt;答案&gt;C&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;如图，在长方形ABCD中，AB=8米，BC=6米。动点P从A出发沿AB以2米/秒的速度向B移动，同时动点Q从C出发沿CB以1米/秒的速度向B移动。当其中一点到达终点时，两点均停止运动。设运动时间为t秒，解答下列问题：
-（1）当t=2时，求PQ的长度；
-（2）当△PBQ为等腰三角形时，求t的值；
-（3）若将长方形沿PQ折叠，是否存在t使得B点的对应点B'落在AD边上？若存在，求t的值；若不存在，请说明理由。&lt;/题目&gt;
-&lt;解析&gt;
-（1）当t=2时，AP=2×2=4米，CQ=1×2=2米。此时BP=AB-AP=8-4=4米，BQ=BC-CQ=6-2=4米。在Rt△PBQ中，PQ=√(BP²+BQ²)=√(4²+4²)=4√2米；
-（2）由题意得BP=8-2t，BQ=6-t。当PB=BQ时，8-2t=6-t，解得t=2；当PQ=BQ时，由勾股定理得(8-2t)²+(6-t)²=(6-t)²，解得t=8/3；当PQ=PB时，同理得t=10/3。经检验t=2、8/3、10/3均符合0≤t≤3；
-（3）假设存在t使B'在AD上。由折叠性质知BB'⊥PQ且BB'被PQ平分。设B'(x,6)，则BB'中点坐标为(4+x/2,3)。根据PQ的斜率与BB'斜率乘积为-1，结合距离公式列方程，解得t=5/2。验证此时B'(0,6)在AD边上，故存在t=5/2。
-&lt;/解析&gt;
-&lt;答案&gt;
-（1）4√2米；
-（2）t=2、8/3、10/3；
-（3）存在，t=5/2秒。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;小明家到学校的路线是向东走800米，再向北走600米。求小明从家到学校的直线距离。学校有一个长方形操场，长100米，宽60米，求操场的对角线长度，并判断小明走的直线距离是否等于操场的对角线长度。&lt;/题目&gt;
-&lt;解析&gt;
-1. 根据勾股定理，小明家到学校的直线距离为√(800²+600²)。
-2. 操场对角线长度为√(100²+60²)。
-3. 比较两个距离的数值关系。
-&lt;/解析&gt;
-&lt;答案&gt;1000米；116.62米；不相等&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-下列方程中，是一元二次方程的是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. $ 3x^2 - 5x + 2 = 0 $  
-B. $ x^2 + y = 5 $  
-C. $ x^2 + \frac{1}{x} = 2 $  
-D. $ x^2 - x^2 + 3 = 0 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-**一元二次方程的定义**：形如 $ ax^2 + bx + c = 0 $（其中 $ a \ne 0 $）的方程，需满足以下条件：  
-1. 只含有一个未知数；  
-2. 未知数的最高次数为 2；  
-3. 是整式方程（分母不含未知数）。
-**选项分析**：  
-- **A**：$ 3x^2 - 5x + 2 = 0 $  
-  符合定义，$ a = 3 \ne 0 $，是一元二次方程。  
-- **B**：$ x^2 + y = 5 $  
-  含有两个未知数 $ x $ 和 $ y $，不是一元方程。  
-- **C**：$ x^2 + \frac{1}{x} = 2 $  
-  分母含未知数 $ x $，不是整式方程。  
-- **D**：$ x^2 - x^2 + 3 = 0 $  
-  化简后为 $ 3 = 0 $，不成立，且原方程中二次项系数为 0，不符合定义。
-综上，只有选项 A 符合一元二次方程的定义。
-&lt;/解析&gt;
-&lt;答案&gt;  
-A  
-&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;某天早晨气温是-5°C，中午上升到3°C，下午降到0°C，傍晚降至-2°C。请将这四个温度值按有理数的分类标准进行整理，并回答以下问题：
-（1）写出所有正有理数和负有理数；
-（2）比较它们的绝对值大小关系；
-（3）说明哪两个温度值的绝对值相等。
-&lt;/题目&gt;
-&lt;解析&gt;
-（1）根据有理数的分类标准，正有理数包括3°C和0°C（注意：0属于有理数但既不是正数也不是负数）；负有理数包括-5°C和-2°C。
-（2）绝对值比较时，先计算各数的绝对值：| -5 | =5，| -2 | =2，|3|=3，|0|=0。因此绝对值大小关系为：| -5 | &gt; |3| &gt; | -2 | &gt; |0|。
-（3）绝对值相等的有理数是互为相反数，这里-5和5是相反数，但题目中未出现5°C，所以实际符合条件的温度值不存在。需注意0的绝对值是0，但题目中只有0°C一个零有理数。
-&lt;/解析&gt;
-&lt;答案&gt;
-（1）正有理数：3°C；负有理数：-5°C、-2°C
-（2）绝对值关系：| -5 | &gt; |3| &gt; | -2 | &gt; |0|
-（3）无符合条件的温度值
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知等差数列 $ \{a_n\} $ 的首项为 5，公差为 3，求前 10 项的和 $ S_{10} $。
-&lt;/题目&gt;
-&lt;解析&gt;  
-根据等差数列的求和公式：  
-$$
-S_n = \frac{n(a_1 + a_n)}{2}
-$$  
-首先需要确定第 10 项 $ a_{10} $。  
-已知：  
-- 首项 $ a_1 = 5 $  
-- 公差 $ d = 3 $  
-- 第 $ n $ 项公式为：$ a_n = a_1 + (n - 1)d $
-代入 $ n = 10 $ 得：  
-$$
-a_{10} = 5 + (10 - 1) \times 3 = 5 + 9 \times 3 = 5 + 27 = 32
-$$
-将 $ a_1 = 5 $、$ a_{10} = 32 $、$ n = 10 $ 代入求和公式：  
-$$
-S_{10} = \frac{10(5 + 32)}{2} = \frac{10 \times 37}{2} = 5 \times 37 = 185
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-185  
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;题目&gt;下列选项中，能正确化简 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(54x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y³) 的是（    ）
-A. 3xy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2x)
-B. 3x²y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2
-C. 3x²y²</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2
-D. 3x³y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2&lt;/题目&gt;
-&lt;解析&gt;1. 将 54x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y³ 分解因式：54=27×2，x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=(x²)³，y³=y³  
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(54x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y³)=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[27×2×(x²)³×y³]  
-3. 利用立方根的性质：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(a³b)=a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">b，可提取 (x²)³ 和 y³ 以及 27  
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[27×(x²)³×y³×2]=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(27)×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[(x²)³]×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(y³)×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2  
-   =3×x²×y×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2  
-4. 故正确答案为 3x²y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="3"/>
-      </rPr>
-      <t>∛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-解方程：  
-$$
-\frac{2}{3} \left( \frac{3}{2} x - 6 \right) = x
-$$  
-则 $ \frac{3}{2} x $ 的值为 $\boxed{?}$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-先化简分式  
-$$
-\frac{x+2}{x^2-4} \div \frac{x-1}{x^2-4x+4}
-$$  
-再从 $-2$、$0$、$1$、$2$ 中选择一个合适的 $x$ 值代入求值。
-&lt;/题目&gt;
-&lt;解析&gt;  
-### **第一步：因式分解**
-将分母和分子进行因式分解：
-- $ x^2 - 4 = (x + 2)(x - 2) $
-- $ x^2 - 4x + 4 = (x - 2)^2 $
-### **第二步：分式除法转乘法**
-原式变为：
-$$
-\frac{x+2}{(x+2)(x-2)} \div \frac{x-1}{(x-2)^2}
-= \frac{x+2}{(x+2)(x-2)} \times \frac{(x-2)^2}{x-1}
-$$
-### **第三步：约分**
-- $ x+2 $ 约去；
-- $ x-2 $ 与 $ (x-2)^2 $ 约去一个 $ x-2 $。
-化简后得：
-$$
-\frac{x-2}{x-1}
-$$
-### **第四步：代入求值**
-从 $-2$、$0$、$1$、$2$ 中选择合适的 $x$：
-- $ x \ne -2 $：原分母 $x^2 - 4 = 0$
-- $ x \ne 1 $：化简后分母 $x - 1 = 0$
-- $ x \ne 2 $：原分母 $x^2 - 4 = 0$
-唯一可选的值是 $ x = 0 $，代入化简后的表达式：
-$$
-\frac{0 - 2}{0 - 1} = \frac{-2}{-1} = 2
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  2  &lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;分解因式：$6m^2n - 9mn^2 + 3mn = \underline{\quad}\left(\underline{\quad}\right)$&lt;/题目&gt;  
-&lt;解析&gt;首先观察多项式$6m^2n - 9mn^2 + 3mn$的各项，找出公因式。各项系数分别为6、-9、3，最大公约数是3；字母部分均含有$m$和$n$，且最小次数为$m^1n^1$。因此公因式为$3mn$。将公因式提出后，原式可表示为：  
-$$3mn \cdot 2m - 3mn \cdot 3n + 3mn \cdot 1 = 3mn(2m - 3n + 1)$$  
-需注意括号内第三项的符号和系数，避免遗漏或计算错误。&lt;/解析&gt;  
-&lt;答案&gt;$3mn$；$2m - 3n + 1$</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;若√(2x+3) 和 √(4x+1) 是同类二次根式，则x的值为____。&lt;/题目&gt;
-&lt;解析&gt;同类二次根式的定义是化简后被开方数相同的最简二次根式。令两式被开方数相等：
-$$2x + 3 = 4x + 1$$
-解方程：
-$$2x + 3 = 4x + 1$$
-移项得：
-$$3 - 1 = 4x - 2x$$
-$$2 = 2x$$
-$$x = 1$$
-验证：当$x=1$时，$2x+3=5$，$4x+1=5$，均为最简二次根式，符合条件。&lt;/解析&gt;
-&lt;答案&gt;1&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-化简代数式：  
-$$
-\frac{x^2 - 9}{x^2 - x - 6} \div \frac{x^2 - 4}{x^2 - 5x + 6} \times \frac{x - 2}{x + 3}
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 对各多项式因式分解：  
-   $ x^2 - 9 = (x - 3)(x + 3) $  
-   $ x^2 - x - 6 = (x - 3)(x + 2) $  
-   $ x^2 - 4 = (x - 2)(x + 2) $  
-   $ x^2 - 5x + 6 = (x - 2)(x - 3) $
-2. 将除法转化为乘以倒数，原式等于：  
-$$
-\frac{(x - 3)(x + 3)}{(x - 3)(x + 2)} \times \frac{(x - 2)(x - 3)}{(x - 2)(x + 2)} \times \frac{x - 2}{x + 3}
-$$
-3. 分别约分：  
-   第一、二项中的 $ (x - 3) $、$ (x - 2) $ 均可约去，第三项与第一项的 $ (x + 3) $ 可约去，得  
-$$
-\frac{1 \times (x + 3)}{(x + 2)} \times \frac{(x - 3)}{(x + 2)} \times \frac{(x - 2)}{1}
-= \frac{(x + 3)(x - 3)(x - 2)}{(x + 2)^2(x + 3)}
-\longrightarrow
-\frac{(x - 3)(x - 2)}{(x + 2)^2}
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  $\frac{(x - 3)(x - 2)}{(x + 2)^2}$  &lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;下列代数式中，属于整式的是（  ）&lt;/题目&gt;
-&lt;解析&gt;整式的定义是单项式或多项式，其中单项式必须满足：系数是数字，字母部分是正整数次幂的乘积。分析各选项：
-A. 3/(x+1)：分母含字母x+1，不符合整式定义；
-B. 2x³+3y²：两项都是单项式，次数均为正整数，符合；
-C. 5x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>²：字母x的指数为-2，负整数次幂；
-D. √x：根号等价于x^(1/2)，指数不是正整数。
-&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;下列各式中，哪个不是整式？  
-A. 4x² - 3x + 1  
-B. (x + 1)(x - 2)  
-C. x^(3/2) + 5  
-D. x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2x + 3&lt;/题目&gt;  
-&lt;解析&gt;整式（多项式）是指各项中只含有同一未知数的非负整数次幂的代数式。  
-A项：4x² - 3x + 1，含有x的2次、1次和0次幂，都是非负整数次，属于整式。  
-B项：(x + 1)(x - 2) = x² - x - 2，展开后各项次数也是非负整数，属于整式。  
-C项：x^(3/2) + 5，含有x的3/2次幂，指数不是整数，不属于整式。  
-D项：x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t>⁴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - 2x + 3，含有x的4次、1次和0次幂，都是非负整数次，属于整式。&lt;/解析&gt;  
-&lt;答案&gt;C&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-数轴上点 A 表示的数是 $-3$，点 B 表示的数是 $6$，那么 A、B 两点之间的距离是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. 3  
-B. 9  
-C. $-9$  
-D. 6
-&lt;/题目&gt;
-&lt;解析&gt;  
-数轴上两点间的距离计算公式为两数之差的绝对值。  
-点 A 对应 $-3$，点 B 对应 $6$，因此距离为：  
-$$
-|6 - (-3)| = |6 + 3| = |9| = 9
-$$
-- **选项 A 错误**：因未考虑负数的减法规则；  
-- **选项 C 错误**：距离不可能为负数；  
-- **选项 D 错误**：直接用较大数减较小数但未正确计算差值。
-正确答案为 **B**。
-&lt;/解析&gt;
-&lt;答案&gt;  B  &lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知直线与x轴的夹角为45°，且经过点（2，-1），则该直线的解析式为y=____。&lt;/题目&gt;  
-&lt;解析&gt;  
-1. **求斜率**：直线与x轴夹角为45°，因此斜率 k = tan45° = 1。  
-2. **设解析式**：一次函数解析式为\( y = kx + b \)，代入\( k = 1 \)，得y = x + b 。  
-3. **代入点求截距**：将点（2，-1）代入 y = x + b，得 -1 = 2 + b ，解得 b = -3。  
-4. **最终解析式**： y = x - 3 。  
-&lt;/解析&gt;  
-&lt;答案&gt;y=x-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;已知直线l与x轴正方向的夹角为60°，且该直线过点(2,1)，求一次函数y=kx+b的解析式________。&lt;/题目&gt;
-&lt;解析&gt;设直线l的斜率k=tan60°=√3。又因为直线过(2,1)，代入点斜式得：  
-y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1=√3(x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2)  
-化简得：y=√3x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2√3+1。&lt;/解析&gt;
-&lt;答案&gt;y=√3x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Cambria Math"/>
-        <family val="2"/>
-      </rPr>
-      <t>−</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2√3+1&lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-在 △ABC 中，AB = 6，AC = 8，BC = 10，点 D 是 BC 的中点，则线段 AD 的长为（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B. 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C. 6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D. 7
-&lt;/题目&gt;
-&lt;解析&gt;  
-在 △ABC 中，D 为 BC 的中点，AD 是从顶点 A 到对边 BC 的中线。已知三角形三边长，可用**中线公式**求 AD 的长度。
-设：  
-- $ BC = a = 10 $  
-- $ CA = b = 8 $  
-- $ AB = c = 6 $
-则从顶点 A 所作的中线 AD 的长度为：
-$$
-m_a = \frac{1}{2} \sqrt{2b^2 + 2c^2 - a^2}
-= \frac{1}{2} \sqrt{2 \cdot 8^2 + 2 \cdot 6^2 - 10^2}
-= \frac{1}{2} \sqrt{2 \cdot 64 + 2 \cdot 36 - 100}
-= \frac{1}{2} \sqrt{128 + 72 - 100}
-= \frac{1}{2} \sqrt{100}
-= \frac{1}{2} \times 10
-= 5
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  B  &lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;某校为了解学生每日完成数学作业所需时间，随机抽取部分学生进行调查，并将结果整理如下表。根据表中信息，被调查学生完成作业时间的中位数是______分钟。&lt;/题目&gt;
-&lt;解析&gt;总人数为各时间段人数之和：$3+7+12+6+2=30$人。中位数是第$15$和$16$个数据的平均值。按时间升序排列：$30$分钟内有$3$人，$30-40$分钟有$7$人（累计$10$人），$40-50$分钟有$12$人（累计$22$人）。第$15$和$16$个数据均落在$40-50$分钟区间内，因此中位数为$40-50$分钟对应的区间值。&lt;/解析&gt;
-&lt;答案&gt;40-50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-计算 $ 3^7 \div 3^4 $ 的结果是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）
-&lt;/题目&gt;
-&lt;解析&gt;  
-根据同底数幂的除法法则：  
-$$
-a^m \div a^n = a^{m - n} \quad (a \ne 0)
-$$
-本题中底数为 $ 3 $，指数分别为 $ 7 $ 和 $ 4 $，因此：  
-$$
-3^7 \div 3^4 = 3^{7 - 4} = 3^3
-$$
-选项 **B** 是正确应用该法则后的结果；  
-- 选项 A 错误地进行了指数相加；  
-- 选项 C 错误地计算了指数差值的符号；  
-- 选项 D 则是将底数错误地改为 2。
-&lt;/解析&gt;
-&lt;答案&gt;  B  &lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知菱形ABCD的两条对角线AC=10cm，BD=12cm，则该菱形的面积是（    ）
-A. 54cm²   B. 60cm²   C. 72cm²   D. 120cm²&lt;/题目&gt;
-&lt;解析&gt;在菱形中，两条对角线互相垂直且将菱形分成四个全等的直角三角形。菱形的面积等于两条对角线长度的乘积再除以2。
-所以面积S = $\frac{1}{2}$ × AC × BD = $\frac{1}{2}$ × 10cm × 12cm = 60cm²。&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知一个长方体容器的底面是正方形，其底面周长与高之和为（2x+3）cm，当容器装满水时体积为-2x³+6x²+8x立方厘米（x&gt;0），求该容器底面的边长和高的表达式。&lt;/题目&gt;
-&lt;解析&gt;  
-1. 设底面边长为 $ a $ cm，则底面周长为 $ 4a $ cm，高为 $ h $ cm；  
-2. 根据题意建立方程：$ 4a + h = 2x + 3 $；  
-3. 容器体积公式为 $ a^2h = -2x^3 + 6x^2 + 8x $；  
-4. 由体积公式得 $ h = \frac{-2x^3 + 6x^2 + 8x}{a^2} $；  
-5. 将 $ h $ 代入方程 $ 4a + \frac{-2x^3 + 6x^2 + 8x}{a^2} = 2x + 3 $；  
-6. 整理方程得 $ 4a^3 - (2x+3)a^2 + (-2x^3 + 6x^2 + 8x) = 0 $；  
-7. 因式分解左边多项式，发现当 $ a = x - 1 $ 时方程成立；  
-8. 验证当 $ a = x - 1 $ 时，$ h = 2x + 5 $；  
-9. 确认所有表达式在 $ x &gt; 0 $ 时有正实数解。
-&lt;/解析&gt;
-&lt;答案&gt;底面边长为（$ x - 1 $）cm，高为（$ 2x + 5 $）cm&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知数列{a_n}的前5项为2, 5, 10, 17, 26, …，则其通项公式a_n为（    ）
-A. a_n = n^2 + 1  
-B. a_n = 2n  
-C. a_n = n(n + 1)  
-D. a_n = 3n – 1&lt;/题目&gt;
-&lt;解析&gt;观察数列前5项：a_1=2, a_2=5, a_3=10, a_4=17, a_5=26。  
-尝试拟合n^2 + 1：  
-当n=1，1^2+1=2，与a_1相符；  
-当n=2，2^2+1=5，与a_2相符；  
-当n=3，3^2+1=10，与a_3相符；  
-因此a_n = n^2 + 1能够满足已知各项，故选A。&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算：$\sqrt{27} + 2\sqrt{12} - \sqrt{75} - \sqrt{3}$ 的值是（    ）  
-A. $4\sqrt{3}$  
-B. $2\sqrt{3}$  
-C. $\sqrt{3}$  
-D. $6\sqrt{3}$  
-&lt;/题目&gt;
-&lt;解析&gt;  
-**步骤1**：将各项化为 $k\sqrt{3}$ 的形式：
-- $\sqrt{27} = \sqrt{9 \cdot 3} = 3\sqrt{3}$  
-- $2\sqrt{12} = 2 \cdot \sqrt{4 \cdot 3} = 2 \cdot 2\sqrt{3} = 4\sqrt{3}$  
-- $\sqrt{75} = \sqrt{25 \cdot 3} = 5\sqrt{3}$  
-- $\sqrt{3} = 1\sqrt{3}$  
-**步骤2**：代入并合并同类项：
-$$\sqrt{27} + 2\sqrt{12} - \sqrt{75} - \sqrt{3} = 3\sqrt{3} + 4\sqrt{3} - 5\sqrt{3} - 1\sqrt{3}$$
-$$= (3 + 4 - 5 - 1)\sqrt{3} = 1\sqrt{3} = \sqrt{3}$$
-&lt;/解析&gt;
-&lt;答案&gt;C&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-将二次函数 $ y = x^2 $ 先向左平移 5 个单位，再向上平移 3 个单位后，得到的函数表达式为  
-$$\boxed{y = (x + 5)^2 + 3}$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-原函数 $ y = x^2 $ 的顶点为 $ (0, 0) $。
-- **向左平移 5 个单位**：顶点横坐标变为 $ 0 - 5 = -5 $，此时函数变为  
-  $$ y = (x + 5)^2 $$
-- **再向上平移 3 个单位**：顶点纵坐标变为 $ 0 + 3 = 3 $，因此最终函数为  
-  $$ y = (x + 5)^2 + 3$$
-&lt;/解析&gt;
-&lt;答案&gt;  $y = (x + 5)^2 + 3$  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知函数 $ y = x^2 $ 先向右平移 4 个单位，再向上平移 3 个单位，所得二次函数的解析式为  $ y = (x - \underline{\quad})^2 + \underline{\quad} $，请将空格处填上合适的数。  
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 原函数为 $ y = x^2 $。  
-2. 向右平移 4 个单位，相当于将 $ x $ 替换为 $ x - 4 $，得到  
-   $$ y = (x - 4)^2 $$  
-3. 在此基础上向上平移 3 个单位，即整个函数值加 3，得到  
-   $$y = (x - 4)^2 + 3 $$  
-4. 因此填空处应分别为 **4** 和 **3**。
-&lt;/解析&gt;
-&lt;答案&gt;4, 3&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知当 $ x = 2 $ 时，$ 3x^2 + 2x + 5 = 21 $，求当 $ x = 3 $ 时，$ 3x^2 + 2x + 5 $ 的值。
-&lt;/题目&gt;
-&lt;解析&gt;  
-首先，已知当 $ x = 2 $ 时，  
-$$3x^2 + 2x + 5 = 21$$
-当 $ x = 3 $ 时，计算各单项式的增量：
-- 二次项 $ 3x^2 $ 的增量为  
-  $$ 3 \times (3^2 - 2^2) = 3 \times (9 - 4) = 3 \times 5 = 15 $$
-- 一次项 $ 2x $ 的增量为  
-  $$2 \times (3 - 2) = 2 \times 1 = 2 $$
-因此，整个表达式的增量为  
-$$15 + 2 = 17$$
-故当 $ x = 3 $ 时，原式的值为  
-$$21 + 17 = 38$$
-&lt;/解析&gt;
-&lt;答案&gt;38&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知 $ x = 1 $，计算下列表达式的值，下列选项中正确的是（   ）  
-$$\frac{(x^2 - 1)(3x + 2)}{x - 1} + (x - 1)(x^2 + 5)$$  
-A. 8 B. 10 C. 12 D. 14  
-&lt;/题目&gt;
-&lt;解析&gt;  
-首先观察第二项：$(x - 1)(x^2 + 5)$，当 $ x = 1 $ 时，$ x - 1 = 0 $，因此这一项的值为 0。
-再看第一项：$\frac{(x^2 - 1)(3x + 2)}{x - 1}$。注意 $ x^2 - 1 = (x - 1)(x + 1) $，所以原式可化为：  
-$$\frac{(x - 1)(x + 1)(3x + 2)}{x - 1} = (x + 1)(3x + 2)$$  
-（在 $ x \ne 1 $ 时成立，但该简化形式在 $ x = 1 $ 时也有效）
-将 $ x = 1 $ 代入 $(x + 1)(3x + 2)$ 得：  
-$$(1 + 1)(3 \times 1 + 2) = 2 \times 5 = 10$$
-因此原式的值为 **10**。
-&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-下列说法中，符合平行公理及其推论的是（ ）  
-A. 过直线外一点，只能画一条直线与已知直线平行  
-B. 两条不相交的直线叫做平行线  
-C. 在同一平面内，若直线 $ a \parallel b $，直线 $ b \parallel c $，则 $ a $ 与 $ c $ 必相交  
-D. 不相交的两条线段一定平行  
-&lt;/题目&gt;
-&lt;解析&gt;  
-平行公理指出：过直线外一点，有且只有一条直线与已知直线平行。其推论为平行线的传递性：若 $ a \parallel b $，$ b \parallel c $，则 $ a \parallel c $。
-**选项分析：**
-- **A**：正确。符合平行公理中“有且只有一条”的表述。  
-- **B**：错误。平行线需满足“在同一平面内”且“不相交”两个条件，仅“不相交”不严谨（如异面直线也不相交）。  
-- **C**：错误。根据平行的传递性，若 $ a \parallel b $ 且 $ b \parallel c $，则 $ a \parallel c $，而非相交。  
-- **D**：错误。线段不相交可能是平行，也可能是未延长到相交部分（如折线中的线段）。
-&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-平面内，直线 $ a \parallel c $，直线 $ b \parallel c $，则下列结论正确的是（  ）  
-A. $ a $ 与 $ b $ 相交  
-B. $ a $ 与 $ b $ 平行  
-C. $ a \perp b $  
-D. $ a $ 与 $ b $ 重合  
-&lt;/题目&gt;
-&lt;解析&gt;  
-由平行公理的推论：若两条直线都平行于同一条直线，则这两条直线互相平行。
-已知 $ a \parallel c $，$ b \parallel c $，故 $ a $、$ b $ 都平行于 $ c $，根据上述推论可知 $ a \parallel b $。
-因此选 **B**。
-&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知一个长方形的长为 $ (2x + 3y) $ 米，宽为 $ (3x + 4y) $ 米，若将这个长方形与一个边长为 $ x $ 米的小正方形拼接成新的图形，求新图形的总占地面积，并将结果按 $ x $ 的降幂排列。
-&lt;/题目&gt;
-&lt;解析&gt;  
-**步骤1**：计算原长方形的面积。根据长方形面积公式，面积为：
-$$(2x + 3y)(3x + 4y)$$
-展开乘法：
-- $ 2x \cdot 3x = 6x^2 $
-- $ 2x \cdot 4y = 8xy $
-- $ 3y \cdot 3x = 9xy $
-- $ 3y \cdot 4y = 12y^2 $
-合并同类项得：
-$$6x^2 + 8xy + 9xy + 12y^2 = 6x^2 + 17xy + 12y^2$$
-**步骤2**：计算小正方形的面积。边长为 $ x $，面积为：
-$$x \cdot x = x^2$$
-**步骤3**：求总占地面积。将两部分面积相加：
-$$6x^2 + 17xy + 12y^2 + x^2 = 7x^2 + 17xy + 12y^2$$
-**关键点**：整式乘法需注意分配律，合并同类项时要确认字母部分完全相同。
-&lt;/解析&gt;
-&lt;答案&gt;  $7x^2 + 17xy + 12y^2 \text{ 平方米}$  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-将整式 $ (x^2 + 3x + 2)(2x - 5) $ 化简后，再除以 $ x + 1 $，求商式与余式。
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 先将 $ (x^2 + 3x + 2)(2x - 5) $ 展开：  
-   $$(x^2 + 3x + 2)(2x - 5) = x^2 \cdot 2x + 3x \cdot 2x + 2 \cdot 2x - x^2 \cdot 5 - 3x \cdot 5 - 2 \cdot 5$$  
-   $$  = 2x^3 + 6x^2 + 4x - 5x^2 - 15x - 10$$  
-   $$= 2x^3 + (6 - 5)x^2 + (4 - 15)x - 10$$  
-   $$= 2x^3 + x^2 - 11x - 10$$
-2. 用多项式除法将 $ 2x^3 + x^2 - 11x - 10 $ 除以 $ x + 1 $：  
-   设被除式系数依次为 2, 1, −11, −10；除式根为 $ x = -1 $，进行综合除法：
-   ```
-     ┌───────────────
-   −1 │   2    1    −11    −10
-           −2     1     10
-     └───────────────
-          2   −1    −10      0
-   ```
-   因此商式对应的系数为 2, −1, −10，对应多项式为 $ 2x^2 - x - 10 $，余式为 0。
-3. 余式为 0，说明 $ x + 1 $ 是该整式的因式。
-&lt;/解析&gt;
-&lt;答案&gt;  商式：$ 2x^2 - x - 10 $；余式：0  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-化简 $- \{ - [ - (a - b) ] \} = \_\_\_\_\_\_。$
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 首先处理最内层括号：  
-   $$ -(a - b) = -a + b  $$
-2. 接着处理中层括号前的负号：  
-   $$ -[ -a + b ] = a - b $$
-3. 最后处理外层大括号前的负号：  
-   $$-\{ a - b \} = -a + b = b - a $$
-因此，最终结果为 $ b - a $。
-&lt;/解析&gt;
-&lt;答案&gt;  $ b - a $  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-化简表达式：$(-2x^{3})^{-2} \times (-4x)^{3} = \boxed{\quad}$
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 处理第一个因子的负指数：  
-   $$ (-2x^3)^{-2} = \frac{1}{(-2x^3)^2}$$
-2. 展开平方运算：  
-   $$\frac{1}{(-2)^2 \cdot (x^3)^2} = \frac{1}{4x^6} $$
-3. 处理第二个因子的负号：  
-   $$ (-4x)^3 = (-4)^3 \cdot x^3 = -64x^3$$
-4. 将结果相乘：  
-   $$ \frac{1}{4x^6} \cdot (-64x^3) = \frac{-64x^3}{4x^6}$$
-5. 化简分数：  
-   $$ -16 \cdot x^{3 - 6} = -16x^{-3} $$
-6. 转换为正指数形式：  
-   $$-16 \cdot \frac{1}{x^3} = -\frac{16}{x^3} $$
-&lt;/解析&gt;
-&lt;答案&gt;  $-\frac{16}{x^3}$  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-将下面的代数式化简，并将结果填入横线处：  
-$$-\bigl[-3(a-2)+2(2a+1)\bigr]-\bigl[4a-(5-a)\bigr]=\underline{\quad\quad}$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一步**：去掉第一组中括号前的负号  
-原式中的第一部分：  
-$$-[-3(a - 2) + 2(2a + 1)]$$  
-先计算中括号内：  
-$$-3(a - 2) = -3a + 6 $$  
-$$2(2a + 1) = 4a + 2 $$  
-所以中括号内的和为：  
-$$(-3a + 6) + (4a + 2) = a + 8 $$  
-再加上前面的负号，得：  
-$$-[a + 8] = -a - 8 $$
-**第二步**：计算第二组中括号  
-$$[4a - (5 - a)] $$  
-先去掉小括号前的减号：  
-$$4a - (5 - a) = 4a - 5 + a = 5a - 5 $$
-**第三步**：将两部分结果合并  
-原式变为：  
-$$(-a - 8) - (5a - 5)$$
-$$= -a - 8 - 5a + 5 $$
-$$= -6a - 3  $$
-&lt;/解析&gt;
-&lt;答案&gt;  $-6a - 3$  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;解方程：$\frac{2x-1}{3} - \frac{x+2}{6} = 1$&lt;/题目&gt;
-&lt;解析&gt;
-步骤1：去分母。方程两边同乘6（分母3和6的最小公倍数）：
-$$6 \times \left(\frac{2x-1}{3}\right) - 6 \times \left(\frac{x+2}{6}\right) = 6 \times 1$$
-化简得：
-$$2(2x-1) - (x+2) = 6$$
-步骤2：去括号。注意第二项括号前的负号：
-$$4x - 2 - x - 2 = 6$$
-步骤3：合并同类项。将含$x$的项和常数项分别合并：
-$$(4x - x) + (-2 - 2) = 6$$
-即：
-$$3x - 4 = 6$$
-步骤4：移项。将常数项移到等式右边：
-$$3x = 6 + 4$$
-$$3x = 10$$
-步骤5：系数化为1。两边同除以3：
-$$x = \frac{10}{3}$$
-验证：将$x=\frac{10}{3}$代入原方程，左右两边均等于1，验证成立。
-&lt;/解析&gt;
-&lt;答案&gt;$x = \frac{10}{3}$</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知代数式 $ 3x^2 - 2(x - 1) + 4 $，当 $ x = -2 $ 时，该代数式的值为 ________。
-&lt;/题目&gt;
-&lt;解析&gt;  
-首先展开代数式中的括号：  
-$$3x^2 - 2x + 2 + 4$$
-接着合并常数项：  
-$$3x^2 - 2x + 6$$
-将 $ x = -2 $ 代入化简后的代数式：  
-$$3(-2)^2 - 2(-2) + 6$$
-计算平方项：  
-$$3 \times 4 = 12$$
-计算乘法项：  
-$$-2 \times (-2) = 4$$
-最后将所有项相加：  
-$$12 + 4 + 6 = 22$$
-&lt;/解析&gt;
-&lt;答案&gt;  22  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;一个凸多边形的每个外角都相等，且每个外角等于其相邻内角的$\frac{2}{3}$，则这个多边形的边数是（ ）
-A. 3  
-B. 5  
-C. 6  
-D. 8&lt;/题目&gt;
-&lt;解析&gt;设外角度数为$x$，则相邻内角度数为$\frac{3}{2}x$。根据内角与外角互补的性质，有：
-$$x + \frac{3}{2}x = 180^\circ $$
-$$\frac{5}{2}x = 180^\circ $$
-$$x = 72^\circ$$
-由于多边形外角和恒为$360^\circ$，边数$n$满足：
-$$n = \frac{360^\circ}{x} = \frac{360^\circ}{72^\circ} = 5$$
-因此，该多边形为五边形。&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;小明从银行取出了300元（支出记为负数），如果每天花费50元（支出记为负数），则这些钱可以维持____天。&lt;/题目&gt;  
-&lt;解析&gt;总金额为-300元，每天支出-50元。天数计算为：(-300) ÷ (-50) = 6天。两个负数相除结果为正，表示实际可维持的天数。&lt;/解析&gt;  
-&lt;答案&gt;6&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知数轴上点A表示的数是-3，点B表示的数是5，则A、B两点之间的距离为__。&lt;/题目&gt;  
-&lt;解析&gt;数轴上两点间的距离等于这两点所对应数值之差的绝对值。点A表示-3，点B表示5，因此距离为|-3 - 5| = |-8| = 8。&lt;/解析&gt;  
-&lt;答案&gt;8&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知二次函数 $ y = x^2 - 6x + 5 $ 的对称轴为直线 $ x = 3 $。当 $ x = 0 $ 时，$ y = 5 $，则当 $ x = 6 $ 时，$ y = \underline{\quad} $。
-&lt;/题目&gt;
-&lt;解析&gt;  
-二次函数的对称轴为 $ x = 3 $，因此点 $ (0, 5) $ 关于对称轴的对称点为 $ (6, y) $。
-根据对称性，$ x = 0 $ 和 $ x = 6 $ 到对称轴 $ x = 3 $ 的距离均为 3，故它们的函数值相等。
-因此，当 $ x = 6 $ 时，$ y = 5 $。
-&lt;/解析&gt;
-&lt;答案&gt;  5  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-用 30 米长的篱笆围成一个矩形场地，场地的一面靠墙，在与墙平行的一边留有一个 1 米宽的门。设垂直于墙的边长为 $ x $ 米，场地的面积为 $ S $ 平方米。  
-（1）求 $ S $ 与 $ x $ 的函数关系式；  
-（2）求 $ x $ 的取值范围；  
-（3）当 $ x $ 为何值时，场地的面积 $ S $ 最大？最大面积是多少？
-&lt;/题目&gt;
-&lt;解析&gt;  
-（1）设垂直于墙的边长为 $ x $ 米，则与墙平行的边实际使用的篱笆长度为 $ (30 - 2x) $ 米。由于该边有一个 1 米宽的门，因此该边的实际长度为  
-$$
-(30 - 2x) + 1 = 31 - 2x \text{ 米}
-$$
-场地的面积为：  
-$$
-S = x \cdot (31 - 2x)
-$$  
-化简得函数关系式为：  
-$$
-S = -2x^2 + 31x
-$$
-（2）根据实际意义，矩形的边长必须大于 0，即：  
-$$
-x &gt; 0 \quad \text{且} \quad 31 - 2x &gt; 0
-$$  
-解得：  
-$$
-0 &lt; x &lt; 15.5
-$$
-（3）函数 $ S = -2x^2 + 31x $ 是一个开口向下的抛物线，其最大值出现在顶点处。
-顶点横坐标为：  
-$$
-x = -\frac{b}{2a} = -\frac{31}{2 \times (-2)} = \frac{31}{4} = 7.75
-$$
-将 $ x = 7.75 $ 代入函数，得最大面积：  
-$$
-S_{\text{最大}} = -2 \times (7.75)^2 + 31 \times 7.75 = 121.125
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-（1）$ S = -2x^2 + 31x $；  
-（2）$ 0 &lt; x &lt; 15.5 $；  
-（3）当 $ x = 7.75 $ 米时，最大面积为 $ 121.125 $ 平方米。
-&lt;/答案&gt;
----
-如需将此内容导出为 Word、PDF 或 Markdown 格式，请告诉我，我可以为你生成。</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知多项式$(3x^2 - 2xy + 4y^2) - (2x^2 + 5xy - 3y^2)$，化简后的结果是____。&lt;/题目&gt;
-&lt;解析&gt;首先展开括号，注意第二个括号前有负号，需改变括号内所有项的符号：
-原式 $= 3x^2 - 2xy + 4y^2 - 2x^2 - 5xy + 3y^2$。
-接着合并同类项：
-- $x^2$项：$3x^2 - 2x^2 = x^2$；
-- $xy$项：$-2xy - 5xy = -7xy$；
-- $y^2$项：$4y^2 + 3y^2 = 7y^2$。
-最终结果为$x^2 - 7xy + 7y^2$。&lt;/解析&gt;
-&lt;答案&gt;$x^2 - 7xy + 7y^2$</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;观察一列数：2, 5, 10, 17, 26, ...，按照此规律，第n个数是（ ）
-A. n² +1  
-B. (n+1)² +1  
-C. n² +2  
-D. (n-1)² +2&lt;/题目&gt;
-&lt;解析&gt;观察数列：2=1²+1，5=2²+1，10=3²+1，17=4²+1，26=5²+1。可见每个数均为序数的平方加1。验证选项：  
-- A选项：n²+1，当n=1时结果为2，与首项一致；  
-- B选项：(n+1)²+1，当n=1时结果为5，与首项不符；  
-- C选项：n²+2，当n=1时结果为3，与首项不符；  
-- D选项：(n-1)²+2，当n=1时结果为2，但n=2时结果为(1)²+2=3，与第二项5不符。  
-因此正确答案为A。&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;在△ABC中，点D、E分别在AB、AC上，且DE∥BC。若AD=3，DB=2，AE=6，则EC的长度为（ ）。  
-A. 4  B. 5  C. 6  D. 8&lt;/题目&gt;  
-&lt;解析&gt;根据平行线分线段成比例定理，当DE∥BC时，有$\frac{AD}{DB} = \frac{AE}{EC}$。已知AD=3，DB=2，AE=6，代入得$\frac{3}{2} = \frac{6}{EC}$。解方程得$EC = \frac{2 \times 6}{3} = 4$。因此答案为选项A。&lt;/解析&gt;  
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;在平面直角坐标系中，点P位于第四象限，且到x轴的距离为5，到y轴的距离为3。则点P的坐标是：
-A. (3, -5)  
-B. (-3, -5)  
-C. (5, 3)  
-D. (-5, 3)&lt;/题目&gt;
-&lt;解析&gt;
-1. **确定象限符号**：第四象限点的坐标特征为横坐标（x）为正，纵坐标（y）为负，排除B、D选项。
-2. **计算坐标绝对值**：
-   - 到x轴的距离为5 → |y|=5 → y=-5（因第四象限y为负）；
-   - 到y轴的距离为3 → |x|=3 → x=3（因第四象限x为正）。
-3. **验证选项**：
-   - A选项(3, -5)符合上述条件；
-   - C选项(5, 3)中y=3不符合第四象限y为负的要求。
-因此，正确答案为A。
-&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;一个圆柱体的高为3厘米，底面圆的周长为8厘米。蚂蚁从圆柱体侧面上的点A（位于顶部边缘）沿表面爬行到点B（位于另一侧的底部边缘）。蚂蚁爬行的最短路径长度是多少厘米？（  ）
-A. 7厘米  
-B. 3厘米  
-C. 4厘米  
-D. 5厘米&lt;/题目&gt;
-&lt;解析&gt;  
-本题考查“两点之间线段最短”的应用。圆柱体侧面展开后是一个长方形，其长为底面圆的周长（8厘米），宽为圆柱的高（3厘米）。由于点B位于另一侧的底部边缘，蚂蚁需横向跨越半周长（8÷2=4厘米）并纵向移动整个高（3厘米）。最短路径为展开图中点A到点B的直线距离，即直角三角形的斜边。根据勾股定理：  
-\[
-\text{最短路径} = \sqrt{3^2 + 4^2} = \sqrt{9 + 16} = \sqrt{25} = 5 \, \text{厘米}。
-\]  
-易错点：误选圆柱的高（B选项）或半周长（C选项），或直接相加（A选项）。正确答案需结合展开图与勾股定理。&lt;/解析&gt;
-&lt;答案&gt;D&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-若分式 $ \frac{1}{x^2 - 5x + 6} $ 有意义，则 $ x $ 的取值范围是（ ）  
-A. $ x \ne 2 $  
-B. $ x \ne 3 $  
-C. $ x \ne 2 $ 且 $ x \ne 3 $  
-D. $ x \ne 2 $ 或 $ x \ne 3 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-分式有意义的条件是 **分母不为零**。  
-将分母 $ x^2 - 5x + 6 $ 因式分解：  
-$$
-x^2 - 5x + 6 = (x - 2)(x - 3)
-$$
-因此，分母不为零的条件是：  
-$$
-(x - 2)(x - 3) \ne 0
-\Rightarrow x - 2 \ne 0 \quad \text{且} \quad x - 3 \ne 0
-\Rightarrow x \ne 2 \quad \text{且} \quad x \ne 3
-$$
-- **选项 A 和 B**：只排除一个值，不完整；  
-- **选项 D**：“或”表示只需满足其中一个条件，不符合实际要求；  
-- **选项 C**：正确表达了“且”的逻辑关系。
-&lt;/解析&gt;
-&lt;答案&gt;  
-C  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知点A在y轴上，且到点B(3, 0)的距离为5，则点A的坐标为______。&lt;/题目&gt;  
-&lt;解析&gt;因为点A在y轴上，所以其横坐标为0，设A的坐标为(0, y)。根据两点间距离公式，AB的距离为：  
-$$\sqrt{(3-0)^2 + (0-y)^2} = \sqrt{9 + y^2} = 5$$ 
-两边平方得：  
-$$
-9 + y^2 = 25 \implies y^2 = 16 \implies y = 4 \text{ 或 } y = -4  
-$$
-因此，点A的坐标为(0, 4)或(0, -4)。&lt;/解析&gt;  
-&lt;答案&gt;(0,4)或(0,-4)</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;计算：$\sqrt{12} + \sqrt{27} - \sqrt{3}$ 的结果是（ ）
-A. $3\sqrt{3}$  
-B. $4\sqrt{3}$  
-C. $2\sqrt{6}$  
-D. $\sqrt{3}$&lt;/题目&gt;
-&lt;解析&gt;
-首先将各二次根式化为最简形式：
-- $\sqrt{12} = \sqrt{4 \times 3} = 2\sqrt{3}$，
-- $\sqrt{27} = \sqrt{9 \times 3} = 3\sqrt{3}$，
-- $\sqrt{3}$ 已是最简形式。
-代入原式得：
-$$
-2\sqrt{3} + 3\sqrt{3} - \sqrt{3} = (2+3-1)\sqrt{3} = 4\sqrt{3}.
-$$
-**错误选项分析**：
-- B选项 $4\sqrt{3}$ 是正确结果；
-- A选项 $3\sqrt{3}$ 可能是漏加最后一项导致；
-- C选项 $2\sqrt{6}$ 错误地合并了不同类根式；
-- D选项 $\sqrt{3}$ 未正确计算系数。
-&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;下列各数中，精确到百分位且有两位有效数字的是（ ）
-A. 0.30  
-B. 0.3  
-C. 2.5万  
-D. 0.030&lt;/题目&gt;
-&lt;解析&gt;
-1. **选项A分析**：0.30  
-   - **精确度**：小数点后第二位是百分位，因此精确到百分位。  
-   - **有效数字**：非零数字3和末尾的0均有意义，共两位有效数字。  
-   - **结论**：符合题意。
-2. **选项B分析**：0.3  
-   - **精确度**：小数点后第一位是十分位，因此精确到十分位。  
-   - **有效数字**：仅数字3有意义，共一位有效数字。  
-   - **结论**：不符合“精确到百分位”和“两位有效数字”的要求。
-3. **选项C分析**：2.5万  
-   - **科学记数法转换**：2.5万=25000，其中数字5位于千位。  
-   - **精确度**：最后一位有效数字5在千位，因此精确到千位。  
-   - **有效数字**：2和5均为有效数字，共两位。  
-   - **结论**：精确到千位而非百分位，不符合题意。
-4. **选项D分析**：0.030  
-   - **精确度**：小数点后第三位是千分位，因此精确到千分位。  
-   - **有效数字**：3和末尾的0均为有效数字，共两位。  
-   - **结论**：精确到千分位而非百分位，不符合题意。
-综上，只有选项A同时满足“精确到百分位”和“两位有效数字”的条件。&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知三角形的两边长分别为 $ 3a + 1 $ 和 $ 5a - 2 $，第三边长为 15。求 $ a $ 的取值范围。
-&lt;/题目&gt;
-&lt;解析&gt;  
-根据**三角形三边关系定理**，任意两边之和大于第三边，任意两边之差小于第三边。设三边分别为 $ 3a + 1 $、$ 5a - 2 $ 和 15，需满足以下三个不等式：
-1. **两边之和大于第三边**：  
-   $$
-   (3a + 1) + (5a - 2) &gt; 15
-   $$  
-   化简得：  
-   $$
-   8a - 1 &gt; 15 \implies 8a &gt; 16 \implies a &gt; 2
-   $$
-2. **两边之和大于第三边**：  
-   $$
-   (3a + 1) + 15 &gt; 5a - 2
-   $$  
-   化简得：  
-   $$
-   3a + 16 &gt; 5a - 2 \implies -2a &gt; -18 \implies a &lt; 9
-   $$
-3. **两边之和大于第三边**：  
-   $$
-   (5a - 2) + 15 &gt; 3a + 1
-   $$  
-   化简得：  
-   $$
-   5a + 13 &gt; 3a + 1 \implies 2a &gt; -12 \implies a &gt; -6
-   $$
-**综合条件**：  
-- 由 $ a &gt; 2 $ 和 $ a &lt; 9 $ 得 $ 2 &lt; a &lt; 9 $。  
-- $ a &gt; -6 $ 已包含在 $ a &gt; 2 $ 中，无需额外考虑。  
-- 同时需保证边长 $ 3a + 1 &gt; 0 $ 和 $ 5a - 2 &gt; 0 $，即 $ a &gt; \frac{2}{5} $，但此条件已被 $ a &gt; 2 $ 覆盖。
-综上，$ a $ 的取值范围为：  
-$$
-2 &lt; a &lt; 9
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$ 2 &lt; a &lt; 9 $  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;在△ABC中，∠A的外角为120°，∠B = 50°，则∠C的度数为（ ）
-A. 50°  
-B. 60°  
-C. 70°  
-D. 80°&lt;/题目&gt;
-&lt;解析&gt;根据三角形外角定理，∠A的外角等于不相邻的两个内角之和，即∠A的外角 = ∠B + ∠C。已知∠A的外角为120°，∠B = 50°，代入公式得：120° = 50° + ∠C。解得∠C = 120° - 50° = 70°。因此正确答案为C选项。&lt;/解析&gt;
-&lt;答案&gt;C&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知等差数列的首项为2，公差为4，末项为30，则该数列的前n项和为______。&lt;/题目&gt;
-&lt;解析&gt;首先根据末项公式 $a_n = a_1 + (n-1)d$，代入已知条件 $30 = 2 + (n-1) \times 4$，解得 $n=8$。再利用等差数列求和公式 $S_n = \frac{n(a_1 + a_n)}{2}$，代入 $n=8$，$a_1=2$，$a_n=30$，计算得 $S_8 = \frac{8 \times (2 + 30)}{2} = 128$。&lt;/解析&gt;
-&lt;答案&gt;128</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知√2≈1.414，√3≈1.732，则√2 + √3 - 1的整数部分为______。&lt;/题目&gt;
-&lt;解析&gt;根据已知近似值计算：
-√2 + √3 ≈1.414 +1.732=3.146
-3.146 -1=2.146
-整数部分即为不超过该数的最大整数，因此整数部分为2。&lt;/解析&gt;
-&lt;答案&gt;2&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算：  
-$$
-(-3x^2y^3) \times (4x^3yz^2) = \underline{\hspace{3cm}}
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-按照单项式乘法法则，分别进行以下步骤：
-1. **系数相乘**：  
-   $$
-   -3 \times 4 = -12
-   $$
-2. **同底数幂相乘**：  
-   - $ x^2 \times x^3 = x^{2+3} = x^5 $  
-   - $ y^3 \times y = y^{3+1} = y^4 $  
-   - 第一个单项式中没有 $ z $，即隐含 $ z^0 $，与 $ z^2 $ 相乘得：  
-     $$
-     z^0 \times z^2 = z^{0+2} = z^2
-     $$
-3. **合并结果**：  
-   将所有部分相乘得到最终结果：  
-   $$
-   -12x^5y^4z^2
-   $$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$-12x^5y^4z^2$  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;下列各数中，是-27的立方根的是（  ）
-A. 3  
-B. -3  
-C. ±3  
-D. 不存在&lt;/题目&gt;
-&lt;解析&gt;
-1. **立方根定义**：若一个数的立方等于a，则这个数称为a的立方根。即若$x^3 = a$，则$x$是$a$的立方根。
-2. **计算验证**：
-   - 选项A：$3^3 = 27 
-eq -27$，排除；
-   - 选项B：$(-3)^3 = -27$，符合条件；
-   - 选项C：立方根是唯一的实数，±3是平方根的特征，排除；
-   - 选项D：负数存在立方根（如$-3$），排除。
-3. **结论**：只有选项B满足$(-3)^3 = -27$。
-&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知函数 $ y = (a - 3)x + (a^2 - 9) $ 是正比例函数，则 $ a $ 的值为 ______。
-&lt;/题目&gt;
-&lt;解析&gt;  
-根据**正比例函数**的定义，其形式为 $ y = kx $（其中 $ k \ne 0 $），即：
-1. **常数项必须为 0**：  
-   $$
-   a^2 - 9 = 0 \implies a = 3 \quad \text{或} \quad a = -3
-   $$
-2. **一次项系数不能为 0**：  
-   $$
-   a - 3 \ne 0 \implies a \ne 3
-   $$
-因此，排除 $ a = 3 $，唯一满足条件的是：  
-$$
-a = -3
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
--3  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;某班五个小组在环保活动中收集的废塑料瓶数量（单位：个）分别为：6, 8, 8, 5, 9。这组数据的众数是？  
-A. 5  
-B. 6  
-C. 8  
-D. 9&lt;/题目&gt;  
-&lt;解析&gt;众数是指一组数据中出现次数最多的数。题目中数据为6, 8, 8, 5, 9，其中数字8出现了2次，其他数字均只出现1次。因此众数为8。选项C正确。&lt;/解析&gt;  
-&lt;答案&gt;C&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算：  $(-3\frac{1}{2}) + 4 \times (-\frac{5}{6}) \div 2\frac{1}{3} - (-7)$
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一步：处理带分数转化为假分数**  
-$$
--3\frac{1}{2} = -\frac{7}{2},\quad 2\frac{1}{3} = \frac{7}{3}
-$$
-**第二步：先计算乘除部分（从左到右）**
-1. 计算乘法：  
-$$
-4 \times \left(-\frac{5}{6}\right) = -\frac{20}{6} = -\frac{10}{3}
-$$
-2. 计算除法：  
-$$
--\frac{10}{3} \div \frac{7}{3} = -\frac{10}{3} \times \frac{3}{7} = -\frac{30}{21} = -\frac{10}{7}
-$$
-**第三步：将各部分代入原式**  
-$$
--\frac{7}{2} + \left(-\frac{10}{7}\right) - (-7) = -\frac{7}{2} - \frac{10}{7} + 7
-$$
-**第四步：统一分数单位计算**
-1. 通分（公分母为 42）：  
-$$
--\frac{7 \times 21}{2 \times 21} - \frac{10 \times 6}{7 \times 6} + \frac{7 \times 42}{1 \times 42} = -\frac{147}{42} - \frac{60}{42} + \frac{294}{42}
-$$
-2. 合并分子：  
-$$
-\frac{-147 - 60 + 294}{42} = \frac{87}{42}
-$$
-3. 约分为最简分数：  
-$$
-\frac{87 \div 3}{42 \div 3} = \frac{29}{14} = 2\frac{1}{14}
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$$
-2\frac{1}{14}
-$$  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算下列表达式的值：  
-$$
-\left(-\frac{5}{8} + \frac{3}{4}\right) \div \left(-\frac{7}{9} - \frac{2}{3}\right) \times \left(-\frac{3}{5}\right)
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. **计算第一个括号**：  
-$$
--\frac{5}{8} + \frac{3}{4} = -\frac{5}{8} + \frac{6}{8} = \frac{1}{8}
-$$
-2. **计算第二个括号**：  
-$$
--\frac{7}{9} - \frac{2}{3} = -\frac{7}{9} - \frac{6}{9} = -\frac{13}{9}
-$$
-3. **将原式代入并化简**：  
-$$
-\left(\frac{1}{8}\right) \div \left(-\frac{13}{9}\right) \times \left(-\frac{3}{5}\right)
-= \frac{1}{8} \times \left(-\frac{9}{13}\right) \times \left(-\frac{3}{5}\right)
-$$
-4. **乘法结合并约分**：  
-$$
-\frac{1 \times (-9) \times (-3)}{8 \times 13 \times 5}
-= \frac{27}{520}
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$$
-\frac{27}{520}
-$$  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知三角形的两边长分别为5和10，则第三边x的取值范围是（）
-A. 4＜x＜15  
-B. 5＜x＜15  
-C. 5＜x＜10  
-D. 5≤x≤15&lt;/题目&gt;
-&lt;解析&gt;根据三角形三边关系定理，任意两边之和大于第三边，任意两边之差小于第三边。设第三边为x，则需满足：
-1. 5 + 10 &gt; x → x &lt; 15；
-2. |10 - 5| &lt; x → x &gt; 5。
-因此，第三边x的取值范围是5＜x＜15。选项B正确，其他选项中A的下限错误，C的上限错误，D包含等号不符合严格不等式要求。&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知一组数据为1、3、5、7、9，则这组数据的方差为______。&lt;/题目&gt;
-&lt;解析&gt;计算方差的步骤如下：
-1. 计算平均数：$\overline{x} = \frac{1+3+5+7+9}{5} = \frac{25}{5} = 5$；
-2. 计算每个数据与平均数的差的平方：
-   $(1-5)^2=16$，$(3-5)^2=4$，$(5-5)^2=0$，$(7-5)^2=4$，$(9-5)^2=16$；
-3. 求平方差的平均值：$s^2 = \frac{16+4+0+4+16}{5} = \frac{40}{5} = 8$。&lt;/解析&gt;
-&lt;答案&gt;8&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知等腰三角形的两边长分别为5和12，则第三边的长为____，此时三角形的周长为____。&lt;/题目&gt;  
-&lt;解析&gt;根据等腰三角形的性质，第三边可能为5或12。若第三边为5，则三边为5、5、12，但5+5=10&lt;12，不满足三角形三边关系（两边之和大于第三边），因此第三边只能为12。此时三角形的三边为5、12、12，周长为5+12+12=29。&lt;/解析&gt;  
-&lt;答案&gt;第三边的长为12，周长为29。</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算并化简：  
-$$
-\frac{2x^2 + 3x - 2}{x^2 - 1} \times \frac{x^2 - 1}{2x - 1}
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一步：对分子和分母进行因式分解**
-- $ 2x^2 + 3x - 2 = (2x - 1)(x + 2) $
-- $ x^2 - 1 = (x - 1)(x + 1) $
-**第二步：将分式相乘并约分**
-$$
-\frac{(2x - 1)(x + 2)}{(x - 1)(x + 1)} \times \frac{(x - 1)(x + 1)}{2x - 1} = \frac{x+2}{1}
-$$
-**第三步：结果为最简整式**
-&lt;/解析&gt;
-&lt;答案&gt;  $x + 2$  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;下列各式中，属于分式的是（  ）
-A. 3x²  
-B. x/2  
-C. 1/(x+1)  
-D. (a+b)/π&lt;/题目&gt;
-&lt;解析&gt;
-根据整式的定义：整式是分母中不含字母的代数式。逐一分析选项：
-- **A. 3x²**：是单项式，分母为1（隐含），不含字母，属于整式。
-- **B. x/2**：可写成(1/2)x，分母为数字2，不含字母，属于整式。
-- **C. 1/(x+1)**：分母为x+1，含字母x，属于分式。
-- **D. (a+b)/π**：分母为π（常数），不含字母，属于整式。
-常见误区：分母为数字或π时仍为整式，只有分母含字母时才为分式。因此正确答案为C。&lt;/解析&gt;
-&lt;答案&gt;C&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-一个矩形的周长为 20 厘米，面积为 24 平方厘米，求这个矩形的长和宽。
-&lt;/题目&gt;
-&lt;解析&gt;  
-设矩形的宽为 $ x $ 厘米，则长为  
-$$
-\frac{20}{2} - x = 10 - x \quad \text{（厘米）}
-$$
-根据面积公式列方程：  
-$$
-x(10 - x) = 24
-$$
-展开并整理方程：  
-$$
-x^2 - 10x + 24 = 0
-$$
-使用求根公式 $ x = \frac{-b \pm \sqrt{b^2 - 4ac}}{2a} $，其中 $ a = 1 $，$ b = -10 $，$ c = 24 $：  
-$$
-x = \frac{10 \pm \sqrt{(-10)^2 - 4 \times 1 \times 24}}{2 \times 1}
-= \frac{10 \pm \sqrt{100 - 96}}{2}
-= \frac{10 \pm 2}{2}
-$$
-解得：  
-$$
-x = 6 \quad \text{或} \quad x = 4
-$$
-当 $ x = 6 $ 时，长为 $ 10 - 6 = 4 $ 厘米；  
-当 $ x = 4 $ 时，长为 $ 10 - 4 = 6 $ 厘米。
-因此，矩形的长和宽分别为 **6 厘米 和 4 厘米**（顺序可互换）。
-&lt;/解析&gt;
-&lt;答案&gt;  
-长为 6 厘米，宽为 4 厘米（或长为 4 厘米，宽为 6 厘米）
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知|x-5| + |y+3| = 0，则x-y=____&lt;/题目&gt;
-&lt;解析&gt;根据绝对值的非负性，两个非负数相加等于0，说明每个绝对值都必须为0。因此：
-1. 由|x-5|=0可得x-5=0，解得x=5；
-2. 由|y+3|=0可得y+3=0，解得y=-3；
-3. 代入x-y计算：5 - (-3) = 5 + 3 = 8。&lt;/解析&gt;
-&lt;答案&gt;8&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-下列方程中，属于一元二次方程的是（ ）  
-A. $ x^2 + 2x = 3 $  
-B. $ (x+1)^2 - x^2 = 0 $  
-C. $ x^2 + \frac{1}{x} = 2 $  
-D. $ ax^2 + bx + c = 0 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-**选项 A**：$ x^2 + 2x = 3 $ 可整理为  
-$$
-x^2 + 2x - 3 = 0
-$$  
-满足一元二次方程的定义（$ a = 1 \ne 0 $，最高次数为 2），是正确答案。
-**选项 B**：$ (x+1)^2 - x^2 = 0 $ 展开后为  
-$$
-x^2 + 2x + 1 - x^2 = 0 \implies 2x + 1 = 0
-$$  
-这是一元一次方程，不符合要求。
-**选项 C**：$ x^2 + \frac{1}{x} = 2 $ 含有分式 $ \frac{1}{x} $，不是整式方程，因此不是一元二次方程。
-**选项 D**：$ ax^2 + bx + c = 0 $ 未明确说明 $ a \ne 0 $，当 $ a = 0 $ 时方程退化为一次方程，因此不一定是一元二次方程。
-&lt;/解析&gt;
-&lt;答案&gt;  A  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;已知在△ABC中，点D是BC边上的中点，E为AC上一点，连接DE。若AB=6，AC=8，则下列说法正确的是（ ）
-A. DE是△ABC的中线  
-B. DE一定平分△ABC的周长  
-C. DE的长度可能为5  
-D. △ADE的面积等于△ABC面积的一半&lt;/题目&gt;
-&lt;解析&gt;
-选项A：中线需连接顶点与对边中点，而DE连接的是AC上的点E与BC中点D，不符合中线定义，错误。  
-选项B：若DE平分周长，需满足AE+AD=EC+DC，但未给出E的具体位置，无法确定，错误。  
-选项C：当E与A重合时，DE=AD（中线），此时AD=√(AB²−BD²)=√(6²−4²)=√20≈4.47；当E接近C时，DE接近DC=4。但若E在AC延长线上，DE可能超过5，因此存在DE=5的可能，正确。  
-选项D：△ADE的面积取决于E的位置，只有当E为AC中点时，面积才为原三角形一半，错误。  
-&lt;/解析&gt;
-&lt;答案&gt;C&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;某长方形场地的长为80米，宽为60米。现计划将长增加x米，宽减少$\frac{1}{2}x$米，使得改造后的面积保持不变。求x的值。&lt;/题目&gt;
-&lt;解析&gt;  
-1. **设定变量**：设长增加$x$米，则宽减少$\frac{1}{2}x$米。  
-2. **表达改造后的边长**：  
-   - 新长为$(80 + x)$米，  
-   - 新宽为$(60 - \frac{1}{2}x)$米。  
-3. **面积不变的等式**：  
-   改造前面积：$80 \times 60 = 4800$（平方米），  
-   改造后面积：$(80 + x)(60 - \frac{1}{2}x) = 4800$。  
-4. **展开方程**：  
-   $$(80 + x)(60 - \frac{1}{2}x) = 4800$$  
-   展开左边：  
-   $$80 \times 60 + 80 \times (-\frac{1}{2}x) + x \times 60 + x \times (-\frac{1}{2}x) = 4800$$  
-   化简得：  
-   $$4800 - 40x + 60x - \frac{1}{2}x^2 = 4800$$  
-5. **整理方程**：  
-   合并同类项：  
-   $$-\frac{1}{2}x^2 + 20x = 0$$  
-   两边同乘$-2$消去分母：  
-   $$x^2 - 40x = 0$$  
-6. **解方程**：  
-   因式分解：  
-   $$x(x - 40) = 0$$  
-   解得：  
-   $$x = 0 \quad \text{或} \quad x = 40$$  
-7. **验证实际意义**：  
-   - 当$x = 0$时，表示不改造，符合题意但无实际意义；  
-   - 当$x = 40$时，新宽为$60 - \frac{1}{2} \times 40 = 40$米（正值），符合实际。  
-   因此，$x = 40$为有效解。  
-&lt;/解析&gt;
-&lt;答案&gt;40</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-某学校计划扩建一个长方形花园，已知花园的长比宽多 4 米。扩建时，长增加 2 米，宽增加 3 米，扩建后的面积比原来增加了 42 平方米。求原来花园的长和宽各是多少米。
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 设原花园的宽为 $ x $ 米，则长为 $ x + 4 $ 米。  
-2. 扩建后的长为 $ (x + 4) + 2 = x + 6 $ 米，宽为 $ x + 3 $ 米。  
-3. 扩建后的面积为 $ (x + 6)(x + 3) $ 平方米，原面积为 $ x(x + 4) $ 平方米。  
-4. 根据题意，扩建后面积增加 42 平方米，列出方程：  
-$$
-(x + 6)(x + 3) - x(x + 4) = 42
-$$
-5. 展开方程并化简：  
-$$
-x^2 + 9x + 18 - x^2 - 4x = 42 \implies 5x + 18 = 42
-$$
-6. 解得：  
-$$
-5x = 24 \implies x = 6
-$$
-因此，原宽为 $ x = 6 $ 米，原长为 $6+ 4 = 10 $ 米。
-&lt;/解析&gt;
-&lt;答案&gt;  长 10 米，宽 6 米&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算： $
-\left( \frac{3}{4} - (-\frac{5}{2}) \right) \div \left[ 1 - (-\frac{2}{3}) \times \left| -\frac{4}{5} \right| \right]$
-&lt;/题目&gt;
-&lt;解析&gt;  
-### **第1步：先计算左括号内的有理数运算**
-$$
-\frac{3}{4} - (-\frac{5}{2}) = \frac{3}{4} + \frac{5}{2} = \frac{3}{4} + \frac{10}{4} = \frac{13}{4}
-$$
-### **第2步：计算右括号内的绝对值和乘法**
-$$
-\left| -\frac{4}{5} \right| = \frac{4}{5}
-$$  
-$$
--\frac{2}{3} \times \frac{4}{5} = -\frac{8}{15}
-$$
----
-### **第3步：继续计算括号内的加减法**
-$$
-1 - (-\frac{8}{15}) = 1 + \frac{8}{15} = \frac{15}{15} + \frac{8}{15} = \frac{23}{15}
-$$
----
-### **第4步：最后进行整体除法运算**
-$$
-\frac{13}{4} \div \frac{23}{15} = \frac{13}{4} \times \frac{15}{23} = \frac{13 \times 15}{4 \times 23} = \frac{195}{92}
-$$
----
-### **第5步：约简分数后得到最终结果**
-$$
-\frac{195}{92} = \frac{15}{76}
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  $\frac{15}{76}$&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-计算下列表达式的值： $
-\left(-\frac{3}{5} + 1.2\right) \times \left[(-2.5) \div (-0.5) - \frac{4}{7}\right]$
-&lt;/题目&gt;
-&lt;解析&gt;  
-**第一步**：计算括号内第一部分：  
-$$
-(-2.5) \div (-0.5) = 5
-$$
-**第二步**：计算中括号内：  
-$$
-5 - \frac{4}{7} = \frac{35}{7} - \frac{4}{7} = \frac{31}{7}
-$$
-**第三步**：计算前一个小括号：  
-$$
-1.2 = \frac{6}{5}, \quad -\frac{3}{5} + \frac{6}{5} = \frac{3}{5}
-$$
-**第四步**：将结果相乘：  
-$$
-\frac{3}{5} \times \frac{31}{7} = \frac{93}{35}
-$$
-&lt;/解析&gt;
-&lt;答案&gt;  $\frac{93}{35}$  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;在△ABC中，点D在AB上，点E在AC上，且DE∥BC。若AD=2，BD=3，AE=4，则EC的长度为（  ）
-A. 6  
-B. 8  
-C. 9  
-D. 10&lt;/题目&gt;
-&lt;解析&gt;因为DE∥BC，所以△ADE∽△ABC。根据相似三角形的性质，对应边成比例，即AD/AB=AE/AC。已知AD=2，BD=3，则AB=AD+BD=5。代入比例式得：2/5=4/AC，解得AC=10。因此，EC=AC-AE=10-4=6。&lt;/解析&gt;
-&lt;答案&gt;A&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-某公园的圆形喷水池中，水流喷出后形成的抛物线最高点为 $ (1, 2) $ 米，喷水管底部位于原点 $ (0, b) $。若水流恰好落在池边的点 $ (3, 0) $ 处，则喷水管底部到地面的距离 $ b $ 为多少米？
-&lt;/题目&gt;
-&lt;解析&gt;  
-### **1. 建立二次函数模型**
-由于抛物线顶点为 $ (1, 2) $，设函数解析式为：  
-$$
-y = a(x - 1)^2 + 2
-$$
-### **2. 代入落点坐标求参数 $ a $**  
-将点 $ (3, 0) $ 代入解析式：  
-$$
-0 = a(3 - 1)^2 + 2 \implies 0 = 4a + 2 \implies a = -0.5
-$$
-因此，解析式为：  
-$$
-y = -0.5(x - 1)^2 + 2
-$$
-### **3. 求喷水管高度 $ b $**  
-喷水管底部在原点 $ (0, b) $，即求当 $ x = 0 $ 时的 $ y $ 值：  
-$$
-y = -0.5(0 - 1)^2 + 2 = -0.5 \times 1 + 2 = 1.5
-$$
-故 $ b = 1.5 $
-&lt;/解析&gt;
-&lt;答案&gt;  
-A. 1.5  
-&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知关于 $ x $、$ y $ 的方程组  
-$$
-\begin{cases} 
-2x + y = 7 \\ 
-x + my = 5 
-\end{cases}
-$$  
-的解是  
-$$
-\begin{cases} 
-x = 2 \\ 
-y = 3 
-\end{cases}
-$$  
-则 $ m $ 的值是 ______。
-&lt;/题目&gt;
-&lt;解析&gt;  
-将 $ x = 2 $ 和 $ y = 3 $ 代入第二个方程 $ x + my = 5 $ 中，得到：  
-$$
-2 + m \cdot 3 = 5
-$$
-化简得：  
-$$
-3m = 5 - 2 \quad \Rightarrow \quad 3m = 3 \quad \Rightarrow \quad m = 1
-$$
-**验证第一个方程** $ 2x + y = 7 $：  
-代入 $ x = 2 $ 和 $ y = 3 $ 得  
-$$
-2 \cdot 2 + 3 = 7
-$$  
-符合条件。
-因此，$ m $ 的值为 $ 1 $。
-&lt;/解析&gt;
-&lt;答案&gt;  1  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-已知二元一次方程组  
-$$
-\begin{cases} 
-2x + ay = 5 
-\end{cases}
-$$  
-$$
-\begin{cases} 
-3x - y = 4 
-\end{cases}
-$$  
-的解为 $ x = 1, y = 1 $，则 $ a $ 的值为 ______。
-&lt;/题目&gt;
-&lt;解析&gt;  
-将 $ x = 1 $，$ y = 1 $ 代入第一个方程得：  
-$$
-2 \times 1 + a \times 1 = 5
-$$
-解得：  
-$$
-a = 5 - 2 = 3
-$$
-因此参数 $ a $ 的值为 3。
-&lt;/解析&gt;
-&lt;答案&gt;  3  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-小明用不超过 80 元购买甲、乙两种文具，甲每件 5 元，乙每件 3 元。要求购买甲的数量不超过乙的 2 倍，且乙的数量至少为 4 件。求小明最多能购买多少件甲文具？
-&lt;/题目&gt;
-&lt;解析&gt;  
-设甲的数量为 $ x $，乙的数量为 $ y $。根据题意：
-1. 总花费限制：$ 5x + 3y \leq 80 $；  
-2. 甲的数量限制：$ x \leq 2y $；  
-3. 乙的最小数量：$ y \geq 4 $。
-为最大化 $ x $，取 $ x = 2y $（因 $ x $ 随 $ y $ 增大而可能增大）。代入总花费不等式：
-$$
-5(2y) + 3y = 13y \leq 80 \implies y \leq \frac{80}{13} \approx 6.15
-$$
-故 $ y $ 的最大整数值为 6。此时：
-$$
-x = 2 \times 6 = 12
-$$  
-$$
-\text{总花费} = 5 \times 12 + 3 \times 6 = 60 + 18 = 78 \leq 80
-$$
-符合所有条件。
-因此，最多能购买 12 件甲文具。
-&lt;/解析&gt;
-&lt;答案&gt;  12  &lt;/答案&gt;</t>
-  </si>
-  <si>
-    <t>&lt;题目&gt;下列长度的三条线段中，能组成三角形的是（  ）
-A. 3cm，4cm，8cm  
-B. 5cm，6cm，10cm  
-C. 2cm，3cm，5cm  
-D. 4cm，4cm，9cm&lt;/题目&gt;
-&lt;解析&gt;根据三角形三边关系定理，任意两边之和大于第三边。需逐一验证各选项：
-- **选项A**：3+4=7 &lt; 8，不满足定理，排除；
-- **选项B**：5+6=11 &gt; 10，5+10=15 &gt; 6，6+10=16 &gt; 5，均满足定理；
-- **选项C**：2+3=5 = 5，不满足“和大于第三边”，排除；
-- **选项D**：4+4=8 &lt; 9，不满足定理，排除。&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;题目&gt;  
-下列计算正确的是（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）  
-A. $ (3x + 2)(3x - 2) = 9x^2 + 4 $  
-B. $ (5a - 1)(-5a - 1) = -25a^2 - 1 $  
-C. $ (-2x + y)(2x + y) = y^2 - 4x^2 $  
-D. $ (m + n)(m - n) = m^2 + n^2 $
-&lt;/题目&gt;
-&lt;解析&gt;  
-**选项 A**：$ (3x + 2)(3x - 2) $ 是平方差形式，应计算为  
-$$
-(3x)^2 - 2^2 = 9x^2 - 4
-$$  
-但选项中结果为 $ 9x^2 + 4 $，符号错误，排除。
-**选项 B**：$ (5a - 1)(-5a - 1) $ 可变形为  
-$$
--(5a - 1)(5a + 1)
-$$  
-应用平方差公式得  
-$$
--[(5a)^2 - 1^2] = -25a^2 + 1
-$$  
-但选项中结果为 $ -25a^2 - 1 $，常数项符号错误，排除。
-**选项 C**：$ (-2x + y)(2x + y) $ 可整理为  
-$$
-(y - 2x)(y + 2x)
-$$  
-应用平方差公式得  
-$$
-y^2 - (2x)^2 = y^2 - 4x^2
-$$  
-与选项一致，正确。
-**选项 D**：$ (m + n)(m - n) $ 是标准平方差形式，应计算为  
-$$
-m^2 - n^2
-$$  
-但选项中结果为 $ m^2 + n^2 $，符号错误，排除。
-&lt;/解析&gt;
-&lt;答案&gt;  C  &lt;/答案&gt;</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-用代入消元法解方程组：  
-$$
-\begin{cases}
-3x + 2y = 14 \\
-x - y = 3
-\end{cases}
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-**步骤1：从第二个方程解出 $ x $**  
-由 $ x - y = 3 $，得  
-$$
-x = y + 3
-$$
-**步骤2：将 $ x = y + 3 $ 代入第一个方程**  
-代入 $ 3x + 2y = 14 $ 中：  
-$$
-3(y + 3) + 2y = 14
-$$  
-展开并整理：  
-$$
-3y + 9 + 2y = 14 \Rightarrow 5y + 9 = 14 \Rightarrow 5y = 5 \Rightarrow y = 1
-$$
-**步骤3：回代求 $ x $**  
-将 $ y = 1 $ 代入 $ x = y + 3 $ 中：  
-$$
-x = 1 + 3 = 4
-$$
-**验证**  
-将 $ x = 4 $、$ y = 1 $ 代入原方程组：  
-1. $ 3(4) + 2(1) = 12 + 2 = 14 $（成立）  
-2. $ 4 - 1 = 3 $（成立）
-&lt;/解析&gt;
-&lt;答案&gt;  
-$$
-x = 4,\quad y = 1
-$$ 
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;  
-用代入消元法解下列方程组：  
-$$
-\begin{cases}  
-2x + 3y = 12 \\  
-5x - y = 13  
-\end{cases}
-$$
-&lt;/题目&gt;
-&lt;解析&gt;  
-1. 由第二个方程 $ 5x - y = 13 $，可得  
-   $$
-   y = 5x - 13
-   $$
-2. 将 $ y = 5x - 13 $ 代入第一个方程 $ 2x + 3y = 12 $：  
-   $$
-   2x + 3(5x - 13) = 12
-   \Rightarrow 2x + 15x - 39 = 12
-   \Rightarrow 17x = 51
-   \Rightarrow x = 3
-   $$
-3. 将 $ x = 3 $ 代入 $ y = 5x - 13 $：  
-   $$
-   y = 5 \cdot 3 - 13 = 15 - 13 = 2
-   $$
-&lt;/解析&gt;
-&lt;答案&gt;  
-$$x = 3   y = 2$$
-&lt;/答案&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;题目&gt;若菱形的两条对角线长分别为6和8，则此菱形的面积为（）
-A. 12  
-B. 24  
-C. 48  
-D. 36&lt;/题目&gt;
-&lt;解析&gt;菱形的面积公式为两条对角线乘积的一半。题目中给出的对角线长度分别为6和8，因此面积为：  
-$$\text{面积} = \frac{1}{2} \times 6 \times 8 = 24$$
-选项B正确。其他选项中，A未正确应用公式（漏乘1/2），C未除以2，D错误地将两数相加而非相乘。&lt;/解析&gt;
-&lt;答案&gt;B&lt;/答案&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -8672,8 +8750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8731,7 +8809,7 @@
         <v>348</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8793,13 +8871,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8813,10 +8891,10 @@
         <v>359</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8827,13 +8905,13 @@
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8844,13 +8922,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8861,13 +8939,13 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -8878,7 +8956,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>363</v>
@@ -8895,7 +8973,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>365</v>
@@ -8946,7 +9024,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="D16" t="s">
         <v>34</v>
@@ -8963,7 +9041,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
@@ -9014,7 +9092,7 @@
         <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -9031,7 +9109,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>377</v>
@@ -9116,13 +9194,13 @@
         <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9133,13 +9211,13 @@
         <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9150,7 +9228,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
@@ -9167,13 +9245,13 @@
         <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>390</v>
+        <v>472</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>391</v>
+        <v>473</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>392</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9184,7 +9262,7 @@
         <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="D30" t="s">
         <v>76</v>
@@ -9201,13 +9279,13 @@
         <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="D31" t="s">
         <v>80</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9218,10 +9296,10 @@
         <v>82</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>394</v>
+        <v>475</v>
       </c>
       <c r="E32" t="s">
         <v>83</v>
@@ -9235,10 +9313,10 @@
         <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="E33" t="s">
         <v>86</v>
@@ -9252,7 +9330,7 @@
         <v>88</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>397</v>
+        <v>489</v>
       </c>
       <c r="D34" t="s">
         <v>89</v>
@@ -9269,13 +9347,13 @@
         <v>92</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
         <v>93</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>399</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9286,10 +9364,10 @@
         <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>401</v>
+        <v>478</v>
       </c>
       <c r="E36" t="s">
         <v>96</v>
@@ -9303,7 +9381,7 @@
         <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -9320,7 +9398,7 @@
         <v>102</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
         <v>103</v>
@@ -9337,10 +9415,10 @@
         <v>106</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E39" t="s">
         <v>107</v>
@@ -9354,10 +9432,10 @@
         <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E40" t="s">
         <v>110</v>
@@ -9388,7 +9466,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="D42" t="s">
         <v>118</v>
@@ -9405,7 +9483,7 @@
         <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="D43" t="s">
         <v>121</v>
@@ -9422,13 +9500,13 @@
         <v>124</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D44" t="s">
         <v>125</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>408</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9439,7 +9517,7 @@
         <v>127</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="D45" t="s">
         <v>128</v>
@@ -9456,7 +9534,7 @@
         <v>131</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="D46" t="s">
         <v>132</v>
@@ -9473,7 +9551,7 @@
         <v>135</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
         <v>136</v>
@@ -9490,7 +9568,7 @@
         <v>139</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>412</v>
+        <v>485</v>
       </c>
       <c r="D48" t="s">
         <v>140</v>
@@ -9507,7 +9585,7 @@
         <v>143</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>413</v>
+        <v>486</v>
       </c>
       <c r="D49" t="s">
         <v>144</v>
@@ -9524,7 +9602,7 @@
         <v>147</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>414</v>
+        <v>487</v>
       </c>
       <c r="D50" t="s">
         <v>148</v>
@@ -9541,7 +9619,7 @@
         <v>151</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>415</v>
+        <v>488</v>
       </c>
       <c r="D51" t="s">
         <v>152</v>
@@ -9558,7 +9636,7 @@
         <v>155</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
         <v>156</v>
@@ -9575,7 +9653,7 @@
         <v>159</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
         <v>160</v>
@@ -9609,10 +9687,10 @@
         <v>168</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="E55" t="s">
         <v>169</v>
@@ -9626,7 +9704,7 @@
         <v>171</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D56" t="s">
         <v>172</v>
@@ -9660,7 +9738,7 @@
         <v>180</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>419</v>
+        <v>504</v>
       </c>
       <c r="D58" t="s">
         <v>181</v>
@@ -9677,13 +9755,13 @@
         <v>184</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9694,10 +9772,10 @@
         <v>186</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="E60" t="s">
         <v>187</v>
@@ -9711,7 +9789,7 @@
         <v>189</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="D61" t="s">
         <v>190</v>
@@ -9728,7 +9806,7 @@
         <v>193</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="D62" t="s">
         <v>194</v>
@@ -9745,7 +9823,7 @@
         <v>197</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="D63" t="s">
         <v>198</v>
@@ -9765,7 +9843,7 @@
         <v>202</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="E64" t="s">
         <v>203</v>
@@ -9779,7 +9857,7 @@
         <v>205</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="D65" t="s">
         <v>206</v>
@@ -9796,10 +9874,10 @@
         <v>209</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="E66" t="s">
         <v>210</v>
@@ -9813,7 +9891,7 @@
         <v>212</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="D67" t="s">
         <v>213</v>
@@ -9830,7 +9908,7 @@
         <v>216</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="D68" t="s">
         <v>217</v>
@@ -9847,13 +9925,13 @@
         <v>220</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="D69" t="s">
         <v>221</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9864,7 +9942,7 @@
         <v>223</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D70" t="s">
         <v>224</v>
@@ -9881,7 +9959,7 @@
         <v>227</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="D71" t="s">
         <v>228</v>
@@ -9898,7 +9976,7 @@
         <v>231</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="D72" t="s">
         <v>232</v>
@@ -9918,10 +9996,10 @@
         <v>236</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -9932,7 +10010,7 @@
         <v>238</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="D74" t="s">
         <v>239</v>
@@ -9949,7 +10027,7 @@
         <v>242</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="D75" t="s">
         <v>243</v>
@@ -9983,7 +10061,7 @@
         <v>252</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="D77" t="s">
         <v>253</v>
@@ -10000,7 +10078,7 @@
         <v>256</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="D78" t="s">
         <v>257</v>
@@ -10017,7 +10095,7 @@
         <v>260</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="D79" t="s">
         <v>261</v>
@@ -10034,7 +10112,7 @@
         <v>264</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>484</v>
+        <v>449</v>
       </c>
       <c r="D80" t="s">
         <v>265</v>
@@ -10054,10 +10132,10 @@
         <v>269</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10068,13 +10146,13 @@
         <v>271</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10085,7 +10163,7 @@
         <v>273</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="D83" t="s">
         <v>274</v>
@@ -10102,13 +10180,13 @@
         <v>277</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D84" t="s">
         <v>278</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10119,7 +10197,7 @@
         <v>280</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="D85" t="s">
         <v>281</v>
@@ -10136,7 +10214,7 @@
         <v>284</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="D86" t="s">
         <v>285</v>
@@ -10153,7 +10231,7 @@
         <v>288</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="D87" t="s">
         <v>289</v>
@@ -10170,7 +10248,7 @@
         <v>292</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>489</v>
+        <v>454</v>
       </c>
       <c r="D88" t="s">
         <v>293</v>
@@ -10204,13 +10282,13 @@
         <v>301</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="D90" t="s">
         <v>302</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10221,10 +10299,10 @@
         <v>304</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="E91" t="s">
         <v>305</v>
@@ -10241,10 +10319,10 @@
         <v>308</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -10255,7 +10333,7 @@
         <v>310</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="D93" t="s">
         <v>311</v>
@@ -10272,7 +10350,7 @@
         <v>314</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D94" t="s">
         <v>315</v>
@@ -10289,7 +10367,7 @@
         <v>318</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="D95" t="s">
         <v>319</v>
@@ -10306,10 +10384,10 @@
         <v>322</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="E96" t="s">
         <v>323</v>
@@ -10323,7 +10401,7 @@
         <v>325</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D97" t="s">
         <v>326</v>
@@ -10340,7 +10418,7 @@
         <v>329</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="D98" t="s">
         <v>330</v>
@@ -10357,7 +10435,7 @@
         <v>333</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="D99" t="s">
         <v>334</v>
@@ -10374,13 +10452,13 @@
         <v>337</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>504</v>
+        <v>465</v>
       </c>
       <c r="D100" t="s">
         <v>338</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
